--- a/tests/01_matrixtests.xlsx
+++ b/tests/01_matrixtests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glah/code/phish108/empxl/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7EEAC3-B499-754D-B9EE-5B6F8C410841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0AFE63-9BFA-5C43-8792-B0411A11EE41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-72480" yWindow="-11300" windowWidth="51260" windowHeight="28140" xr2:uid="{B397C079-1593-4E43-B82C-4012C34B32DB}"/>
+    <workbookView xWindow="-72440" yWindow="-11320" windowWidth="51260" windowHeight="28140" xr2:uid="{B397C079-1593-4E43-B82C-4012C34B32DB}"/>
   </bookViews>
   <sheets>
     <sheet name="pivo_longer" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="AB.TEST">T.TEST.S</definedName>
-    <definedName name="ANOVA.TEST">_xlfn.LAMBDA(_xlpm.values,_xlpm.groups,_xlop.headers, _xlfn.LET(_xlpm.n_j, GROUP.COUNT(_xlpm.groups), _xlpm.group_k, COUNT(_xlpm.n_j), _xlpm.N_all, COUNT(_xlpm.values), _xlpm.df_1, _xlpm.group_k - 1, _xlpm.df_2, _xlpm.N_all - _xlpm.group_k, _xlpm.mu_all, AVERAGE(_xlpm.values), _xlpm.mu_j, GROUP.MEAN(_xlpm.values, _xlpm.groups), _xlpm.m_groups, 1 * (_xlpm.groups = TRANSPOSE(_xlfn.UNIQUE(_xlpm.groups))), _xlpm.t_SSB, SUM(_xlpm.n_j * (_xlpm.mu_j - _xlpm.mu_all) ^ 2), _xlpm.t_SSE, SUM((_xlpm.m_groups * _xlpm.values - _xlpm.m_groups * TRANSPOSE(_xlpm.mu_j)) ^ 2), _xlpm.F_value, (_xlpm.t_SSB / _xlpm.df_1) / (_xlpm.t_SSE / _xlpm.df_2), _xlpm.p_value, _xlfn.F.DIST(_xlpm.F_value, _xlpm.df_1, _xlpm.df_2, TRUE) / 2, _xlpm.results, _xlfn.HSTACK(_xlpm.F_value, _xlpm.df_1, _xlpm.df_2, _xlpm.p_value), IF(OR(_xlfn.ISOMITTED(_xlpm.headers), NOT(_xlpm.headers)), _xlpm.results, _xlfn.VSTACK(_xlfn.HSTACK("F", "df_1", "df_2", "p"), _xlpm.results))))</definedName>
+    <definedName name="ANOVA.TEST">_xlfn.LAMBDA(_xlpm.values,_xlpm.groups,_xlop.headers, _xlfn.LET(_xlpm.n_j, GROUP.COUNT(_xlpm.groups), _xlpm.group_k, COUNT(_xlpm.n_j), _xlpm.N_all, COUNT(_xlpm.values), _xlpm.df_1, _xlpm.group_k - 1, _xlpm.df_2, _xlpm.N_all - _xlpm.group_k, _xlpm.mu_all, AVERAGE(_xlpm.values), _xlpm.mu_j, GROUP.MEAN(_xlpm.values, _xlpm.groups), _xlpm.m_groups, 1 * (_xlpm.groups = TRANSPOSE(_xlfn.UNIQUE(_xlpm.groups))), _xlpm.t_SSB, SUM(_xlpm.n_j * (_xlpm.mu_j - _xlpm.mu_all) ^ 2), _xlpm.t_SSE, SUM((_xlpm.m_groups * _xlpm.values - _xlpm.m_groups * TRANSPOSE(_xlpm.mu_j)) ^ 2), _xlpm.F_value, (_xlpm.t_SSB / _xlpm.df_1) / (_xlpm.t_SSE / _xlpm.df_2), _xlpm.p_value, _xlfn.F.DIST(_xlpm.F_value, _xlpm.df_1, _xlpm.df_2, TRUE), _xlpm.results, _xlfn.HSTACK(_xlpm.F_value, _xlpm.df_1, _xlpm.df_2, _xlpm.p_value), IF(OR(_xlfn.ISOMITTED(_xlpm.headers), NOT(_xlpm.headers)), _xlpm.results, _xlfn.VSTACK(_xlfn.HSTACK("F", "df_1", "df_2", "p"), _xlpm.results))))</definedName>
     <definedName name="CHIQU.TEST.S">_xlfn.LAMBDA(_xlpm.x_i,_xlpm.y_i,_xlop.header, _xlfn.LET(_xlpm.n_ij, STAT.TABLE(_xlpm.x_i, _xlpm.y_i), IF(_xlfn.ISOMITTED(_xlpm.header), CHIQU.TEST.X(_xlpm.n_ij, FALSE), CHIQU.TEST.X(_xlpm.n_ij, _xlpm.header))))</definedName>
     <definedName name="CHIQU.TEST.X">_xlfn.LAMBDA(_xlpm.n_ij,_xlop.header, _xlfn.LET(_xlpm.n_i, ROWSUM(_xlpm.n_ij), _xlpm.n_j, COLSUM(_xlpm.n_ij), _xlpm.n, SUM(_xlpm.n_j), _xlpm.EW, _xlpm.n_i * _xlpm.n_j / _xlpm.n, _xlpm.v_xi2, SUM((_xlpm.n_ij - _xlpm.EW) ^ 2 / _xlpm.EW), _xlpm.df, MAX(COUNT(_xlpm.n_i), COUNT(_xlpm.n_j)) - 1, _xlpm.results, _xlfn.HSTACK(_xlfn.CHISQ.DIST.RT(_xlpm.v_xi2, _xlpm.df), _xlpm.df), IF(OR(_xlfn.ISOMITTED(_xlpm.header), NOT(_xlpm.header)), _xlpm.results, _xlfn.VSTACK(CHIQU.TEST2.HEADER(), _xlpm.results))))</definedName>
     <definedName name="CHIQU.TEST2">CHIQU.TEST.S</definedName>
@@ -75,8 +75,7 @@
     <definedName name="KRUSKAL_WALLIS.TEST">_xlfn.LAMBDA(_xlpm.values,_xlpm.groups,_xlop.headers, _xlfn.LET(_xlpm.n_all, COUNT(_xlpm.values), _xlpm.n_groups, COUNTA(_xlfn.UNIQUE(_xlpm.groups)), _xlpm.d_f, _xlpm.n_groups - 1, _xlpm.n_h, GROUP.COUNT(_xlpm.groups), _xlpm.ranks, _xlfn.RANK.AVG(_xlpm.values, _xlpm.values), _xlpm.b_bindings, COUNT(_xlfn.UNIQUE(_xlpm.ranks)) &lt; _xlpm.n_all, _xlpm.h_correction, -3 * (_xlpm.n_all + 1), _xlpm.h_factor, 12 / (_xlpm.n_groups * (_xlpm.n_groups + 1) - _xlpm.h_correction), _xlpm.m_groups, 1 * (_xlpm.groups = TRANSPOSE(_xlfn.UNIQUE(_xlpm.groups))), _xlpm.H_core, _xlpm.h_factor * SUM(COLSUM(_xlpm.m_groups * _xlpm.ranks) / TRANSPOSE(_xlpm.n_h)), _xlpm.bind_factor, 1 / (_xlpm.n_all ^ 3 - _xlpm.n_all), _xlpm.bind_count, GROUP.COUNT(_xlpm.ranks), _xlpm.bind_correction, 1 - SUM(_xlpm.bind_count ^ 3 - _xlpm.bind_count) * _xlpm.bind_factor, _xlpm.H_value, IF(_xlpm.b_bindings, _xlpm.H_core / _xlpm.bind_correction, _xlpm.H_core), _xlpm.p_value, _xlfn.CHISQ.DIST.RT(_xlpm.H_value, _xlpm.d_f), _xlpm.results, _xlfn.HSTACK(_xlpm.H_value, _xlpm.d_f, _xlpm.p_value), IF(OR(_xlfn.ISOMITTED(_xlpm.headers), NOT(_xlpm.headers)), _xlpm.results, _xlfn.VSTACK(_xlfn.HSTACK("H", "df", "p"), _xlpm.results))))</definedName>
     <definedName name="KRUSKAL.WALLIS.TEST">KRUSKAL_WALLIS.TEST</definedName>
     <definedName name="KUMULATIVESUMME">CUMSUM</definedName>
-    <definedName name="LEVENE.TEST">_xlfn.LAMBDA(_xlpm.x_i,_xlpm.y_i,_xlop.headers, _xlfn.LET(_xlpm.m_grp, GROUP.MEDIAN(_xlpm.x_i, _xlpm.y_i), _xlpm.l_grp, _xlfn.UNIQUE(_xlpm.y_i), _xlpm.resi_grp, ABS(_xlpm.x_i - _xlfn.XLOOKUP(_xlpm.y_i, _xlpm.l_grp, _xlpm.m_grp)), ANOVA.TEST(_xlpm.resi_grp, _xlpm.y_i, TRUE)))</definedName>
-    <definedName name="LEVENE.TEST.B">_xlfn.LAMBDA(_xlpm.x_i,_xlpm.y_i,_xlop.headers, _xlfn.LET(_xlpm.m_grp, GROUP.MEDIAN(_xlpm.x_i, _xlpm.y_i), _xlpm.mn_grp, GROUP.MEAN(_xlpm.x_i, _xlpm.y_i), _xlpm.n_grp, GROUP.COUNT(_xlpm.y_i), _xlpm.l_grp, _xlfn.UNIQUE(_xlpm.y_i), _xlpm.resi_grp, (_xlpm.x_i - _xlfn.XLOOKUP(_xlpm.y_i, _xlpm.l_grp, _xlpm.m_grp)) ^ 2, _xlpm.m_all, AVERAGE(_xlpm.x_i), _xlpm.n_all, SUM(_xlpm.n_grp), _xlpm.n_k, COUNTA(_xlpm.l_grp), _xlpm.W_val, (_xlpm.n_all - _xlpm.n_k) / (_xlpm.n_k - 1) * (SUM(_xlpm.n_grp * (_xlpm.mn_grp - _xlpm.m_all) ^ 2) / SUM(_xlpm.resi_grp)), _xlpm.p_val, _xlfn.F.DIST(_xlpm.W_val, _xlpm.n_k - 1, _xlpm.n_all - _xlpm.n_k, TRUE) / 2, _xlpm.results, _xlfn.HSTACK(_xlpm.W_val, _xlpm.n_k - 1, _xlpm.n_all - _xlpm.n_k, _xlpm.p_val), IF(OR(_xlfn.ISOMITTED(_xlpm.headers), NOT(_xlpm.headers)), _xlpm.results, _xlfn.VSTACK(_xlfn.HSTACK("W", "df_1", "df_2", "p"), _xlpm.results))))</definedName>
+    <definedName name="LEVENE.TEST">_xlfn.LAMBDA(_xlpm.x_i,_xlpm.y_i,_xlop.headers, _xlfn.LET(_xlpm.m_grp, GROUP.MEDIAN(_xlpm.x_i, _xlpm.y_i), _xlpm.mn_grp, GROUP.MEAN(_xlpm.x_i, _xlpm.y_i), _xlpm.n_grp, GROUP.COUNT(_xlpm.y_i), _xlpm.l_grp, _xlfn.UNIQUE(_xlpm.y_i), _xlpm.resi_grp, (_xlpm.x_i - _xlfn.XLOOKUP(_xlpm.y_i, _xlpm.l_grp, _xlpm.m_grp)) ^ 2, _xlpm.m_all, AVERAGE(_xlpm.x_i), _xlpm.n_all, SUM(_xlpm.n_grp), _xlpm.n_k, COUNTA(_xlpm.l_grp), _xlpm.W_val, ((_xlpm.n_all - _xlpm.n_k) / (_xlpm.n_k - 1)) * (SUM(_xlpm.n_grp * (_xlpm.mn_grp - _xlpm.m_all) ^ 2) / SUM(_xlpm.resi_grp)), _xlpm.p_val, _xlfn.F.DIST(_xlpm.W_val, _xlpm.n_k - 1, _xlpm.n_all - _xlpm.n_k, TRUE) / 2, _xlpm.results, _xlfn.HSTACK(_xlpm.W_val, _xlpm.n_k - 1, _xlpm.n_all - _xlpm.n_k, _xlpm.p_val), IF(OR(_xlfn.ISOMITTED(_xlpm.headers), NOT(_xlpm.headers)), _xlpm.results, _xlfn.VSTACK(_xlfn.HSTACK("W", "df_1", "df_2", "p"), _xlpm.results))))</definedName>
     <definedName name="MARK.INVALID">_xlfn.LAMBDA(_xlpm.vectors,_xlpm.invalid_values, _xlfn.MAP(_xlpm.vectors, _xlfn.LAMBDA(_xlpm.v_i, IF(IFERROR(_xlfn.XMATCH(_xlpm.v_i, _xlpm.invalid_values, 0), 0), #N/A, _xlpm.v_i))))</definedName>
     <definedName name="MATRIX_TO_LONG">_xlfn.LAMBDA(_xlpm.matrix,_xlop.p_headers,_xlop.p_withnames, _xlfn.LET(_xlpm.p_headers, IF(_xlfn.ISOMITTED(_xlpm.p_headers), TRUE, _xlpm.p_headers), _xlpm.p_withnames, IF(_xlfn.ISOMITTED(_xlpm.p_withnames), {"name";"value"}, _xlpm.p_withnames), _xlpm.b_headers, AND(COLUMNS(_xlpm.p_headers) = 1, ROWS(_xlpm.p_headers) = 1, _xlpm.p_headers), _xlpm.n_cols, COLUMNS(_xlpm.matrix), _xlpm.n_rows, ROWS(_xlpm.matrix) - _xlpm.b_headers, _xlpm.sel_header, _xlfn.IFS(AND(COUNTA(_xlpm.p_headers) = _xlpm.n_cols, COLUMNS(_xlpm.p_headers) = _xlpm.n_cols), _xlpm.p_headers, COUNTA(_xlpm.p_headers) = _xlpm.n_cols, TRANSPOSE(_xlpm.p_headers), _xlpm.b_headers, _xlfn.CHOOSEROWS(_xlpm.matrix, 1), TRUE, _xlfn.SEQUENCE(1, _xlpm.n_cols)), _xlpm.sel_heading, _xlfn.IFS(AND(COUNTA(_xlpm.p_withnames) = 2, ROWS(_xlpm.p_withnames) = 1), _xlpm.p_withnames, COUNTA(_xlpm.p_withnames) = 2, TRANSPOSE(_xlpm.p_withnames), TRUE, FALSE), _xlpm.values, _xlfn.TOCOL(IF(_xlpm.b_headers, _xlfn.CHOOSEROWS(_xlpm.matrix, _xlfn.SEQUENCE(_xlpm.n_rows, 1, 2)), _xlpm.matrix)), _xlpm.idx_n, MOD(_xlfn.SEQUENCE(_xlpm.n_rows * _xlpm.n_cols, 1, 0), _xlpm.n_cols) + 1, _xlpm.names, INDEX(_xlpm.sel_header, 1, _xlpm.idx_n), _xlpm.result, _xlfn.HSTACK(_xlpm.names, _xlpm.values), IF(COLUMNS(_xlpm.sel_heading) = 1, _xlpm.result, _xlfn.VSTACK(_xlpm.sel_heading, _xlpm.result))))</definedName>
     <definedName name="MATRIX.TO.LONG">MATRIX_TO_LONG</definedName>
@@ -617,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6E2123-F925-3C44-80D8-8E310F8CD645}">
-  <dimension ref="A1:AN45"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L47" sqref="L47"/>
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,19 +1865,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <f>MEDIAN(A3:A12)</f>
-        <v>18.5</v>
-      </c>
-      <c r="B17">
-        <f t="shared" ref="B17:C17" si="0">MEDIAN(B3:B12)</f>
-        <v>20</v>
-      </c>
-      <c r="C17">
-        <f t="shared" si="0"/>
-        <v>18.5</v>
-      </c>
+    <row r="17" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F17" t="s">
         <v>2</v>
       </c>
@@ -1952,7 +1939,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F18" t="s">
         <v>0</v>
       </c>
@@ -2026,19 +2013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A19" cm="1">
-        <f t="array" ref="A19:A28">ABS(A3:A12-A17)</f>
-        <v>2.5</v>
-      </c>
-      <c r="B19" cm="1">
-        <f t="array" ref="B19:B28">ABS(B3:B12-B17)</f>
-        <v>2</v>
-      </c>
-      <c r="C19" cm="1">
-        <f t="array" ref="C19:C28">ABS(C3:C12-C17)</f>
-        <v>1.5</v>
-      </c>
+    <row r="19" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F19" t="s">
         <v>1</v>
       </c>
@@ -2112,16 +2087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>4.5</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>2.5</v>
-      </c>
+    <row r="20" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>2</v>
       </c>
@@ -2195,16 +2161,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1.5</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>4.5</v>
-      </c>
+    <row r="21" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F21" t="s">
         <v>0</v>
       </c>
@@ -2278,16 +2235,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>7.5</v>
-      </c>
-      <c r="B22">
-        <v>6</v>
-      </c>
-      <c r="C22">
-        <v>11.5</v>
-      </c>
+    <row r="22" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F22" t="s">
         <v>1</v>
       </c>
@@ -2361,16 +2309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>9.5</v>
-      </c>
-      <c r="B23">
-        <v>7</v>
-      </c>
-      <c r="C23">
-        <v>7.5</v>
-      </c>
+    <row r="23" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
         <v>2</v>
       </c>
@@ -2444,16 +2383,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>8.5</v>
-      </c>
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>9.5</v>
-      </c>
+    <row r="24" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
         <v>0</v>
       </c>
@@ -2527,16 +2457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>3.5</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-      <c r="C25">
-        <v>6.5</v>
-      </c>
+    <row r="25" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F25" t="s">
         <v>1</v>
       </c>
@@ -2610,16 +2531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>6.5</v>
-      </c>
-      <c r="B26">
-        <v>3</v>
-      </c>
-      <c r="C26">
-        <v>2.5</v>
-      </c>
+    <row r="26" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F26" t="s">
         <v>2</v>
       </c>
@@ -2693,16 +2605,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1.5</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27">
-        <v>4.5</v>
-      </c>
+    <row r="27" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>0</v>
       </c>
@@ -2776,16 +2679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>14.5</v>
-      </c>
-      <c r="B28">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>1.5</v>
-      </c>
+    <row r="28" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2753,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>2</v>
       </c>
@@ -2933,19 +2827,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <f>MEDIAN(_xlfn.ANCHORARRAY(A19))</f>
-        <v>5.5</v>
-      </c>
-      <c r="B30">
-        <f t="shared" ref="B30:C30" si="1">MEDIAN(_xlfn.ANCHORARRAY(B19))</f>
-        <v>3</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
+    <row r="30" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>0</v>
       </c>
@@ -3019,7 +2901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F31" t="s">
         <v>1</v>
       </c>
@@ -3093,7 +2975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:40" x14ac:dyDescent="0.2">
       <c r="F32" t="s">
         <v>2</v>
       </c>
@@ -3155,66 +3037,296 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F39" t="str" cm="1">
-        <f t="array" ref="F39:I40">LEVENE.TEST(G3:G32,F3:F32, TRUE)</f>
+    <row r="35" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O35" t="str" cm="1">
+        <f t="array" ref="O35:O64">_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(O2),1)</f>
+        <v>Math</v>
+      </c>
+      <c r="P35" cm="1">
+        <f t="array" ref="P35:P64">_xlfn.CHOOSECOLS(_xlfn.ANCHORARRAY(O2),2)</f>
+        <v>21</v>
+      </c>
+      <c r="Q35" t="str" cm="1">
+        <f t="array" ref="Q35:T36">LEVENE.TEST(_xlfn.ANCHORARRAY(P35),_xlfn.ANCHORARRAY(O35), TRUE)</f>
+        <v>W</v>
+      </c>
+      <c r="R35" t="str">
+        <v>df_1</v>
+      </c>
+      <c r="S35" t="str">
+        <v>df_2</v>
+      </c>
+      <c r="T35" t="str">
+        <v>p</v>
+      </c>
+    </row>
+    <row r="36" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O36" t="str">
+        <v>History</v>
+      </c>
+      <c r="P36">
+        <v>18</v>
+      </c>
+      <c r="Q36">
+        <v>0.61732283464566917</v>
+      </c>
+      <c r="R36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>27</v>
+      </c>
+      <c r="T36">
+        <v>0.22658697212387816</v>
+      </c>
+    </row>
+    <row r="37" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O37" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O38" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P38">
+        <v>23</v>
+      </c>
+      <c r="Q38" t="str" cm="1">
+        <f t="array" ref="Q38:T39">ANOVA.TEST(_xlfn.ANCHORARRAY(P35),_xlfn.ANCHORARRAY(O35), TRUE)</f>
         <v>F</v>
       </c>
-      <c r="G39" t="str">
+      <c r="R38" t="str">
         <v>df_1</v>
       </c>
-      <c r="H39" t="str">
+      <c r="S38" t="str">
         <v>df_2</v>
       </c>
-      <c r="I39" t="str">
+      <c r="T38" t="str">
         <v>p</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F40">
-        <v>0.85439720442632494</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40">
+    <row r="39" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O39" t="str">
+        <v>History</v>
+      </c>
+      <c r="P39">
+        <v>22</v>
+      </c>
+      <c r="Q39">
+        <v>0.58294778585591511</v>
+      </c>
+      <c r="R39">
+        <v>2</v>
+      </c>
+      <c r="S39">
         <v>27</v>
       </c>
-      <c r="I40">
-        <v>0.28163706389776966</v>
-      </c>
-      <c r="J40">
-        <f>I40/2</f>
-        <v>0.14081853194888483</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F44" t="str" cm="1">
-        <f t="array" ref="F44:I45">LEVENE.TEST.B(G3:G32,F3:F32, TRUE)</f>
-        <v>W</v>
-      </c>
-      <c r="G44" t="str">
-        <v>df_1</v>
-      </c>
-      <c r="H44" t="str">
-        <v>df_2</v>
-      </c>
-      <c r="I44" t="str">
-        <v>p</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F45">
-        <v>0.61732283464566917</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45">
+      <c r="T39">
+        <v>0.43487737879981919</v>
+      </c>
+    </row>
+    <row r="40" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O40" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O41" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P41">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O42" t="str">
+        <v>History</v>
+      </c>
+      <c r="P42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O43" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P43">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O44" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P44">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O45" t="str">
+        <v>History</v>
+      </c>
+      <c r="P45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O46" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O47" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="15:20" x14ac:dyDescent="0.2">
+      <c r="O48" t="str">
+        <v>History</v>
+      </c>
+      <c r="P48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O49" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P49">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O50" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P50">
         <v>27</v>
       </c>
-      <c r="I45">
-        <v>0.22658697212387816</v>
+    </row>
+    <row r="51" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O51" t="str">
+        <v>History</v>
+      </c>
+      <c r="P51">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O52" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O53" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P53">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O54" t="str">
+        <v>History</v>
+      </c>
+      <c r="P54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O55" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O56" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P56">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O57" t="str">
+        <v>History</v>
+      </c>
+      <c r="P57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O58" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P58">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O59" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P59">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O60" t="str">
+        <v>History</v>
+      </c>
+      <c r="P60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O61" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P61">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O62" t="str">
+        <v>Math</v>
+      </c>
+      <c r="P62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O63" t="str">
+        <v>History</v>
+      </c>
+      <c r="P63">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="15:16" x14ac:dyDescent="0.2">
+      <c r="O64" t="str">
+        <v>Psychology</v>
+      </c>
+      <c r="P64">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -3359,7 +3471,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwA7AFwAbgBcAG4AQwBPAEwAUwBVAE0APQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsATgBBAEMASABTAFAAQQBMAFQARQAoAG0AYQB0AHIAaQB4ADsAUwBVAE0ATQBFACkAKQA7ADsAXABuAEMATwBSAFIALgBDAFIAQQBNAEUAUgA9AEwAQQBNAEIARABBACgAeABfAGkAOwB5AF8AaQA7AEwARQBUACgAbgBfAGkAOwBTAFQAQQBUAC4AVABBAEIATABFACgAeABfAGkAKQA7AG4AXwBqADsAUwBUAEEAVAAuAFQAQQBCAEwARQAoAHkAXwBpACkAOwBkAGkAdgA7AE0ASQBOACgAQQBOAFoAQQBIAEwAKABuAF8AaQApADsAQQBOAFoAQQBIAEwAKABuAF8AagApACkAOwBuADsAUwBVAE0ATQBFACgAbgBfAGoAKQA7AHgAXwBiAGEAcwBlADsAbgBfAGkAKgBNAFQAUgBBAE4AUwAoAG4AXwBqACkALwBuADsAbgBfAGkAagA7AFMAVABBAFQALgBUAEEAQgBMAEUAKAB4AF8AaQA7AHkAXwBpACkAOwBXAFUAUgBaAEUATAAoACgAUwBVAE0ATQBFACgAKABuAF8AaQBqAC0AeABfAGIAYQBzAGUAKQBeADIALwB4AF8AYgBhAHMAZQApACkALwAoAG4AKgAoAGQAaQB2AC0AMQApACkAKQApACkAOwA7AEMATwBSAFIALgBDAFIAQQBNAEUAUgAuAFQARQBTAFQAPQBMAEEATQBCAEQAQQAoAHgAXwBpADsAeQBfAGkAOwBbAGgAZQBhAGQAZQByAHMAXQA7AEwARQBUACgAcgBfAHYAYQBsAHUAZQA7AEMATwBSAFIALgBDAFIAQQBNAEUAUgAoAHgAXwBpADsAeQBfAGkAKQA7AHAAXwB2AGEAbAB1AGUAOwBDAEgASQBRAFUALgBUAEUAUwBUAC4AUwAoAHgAXwBpADsAeQBfAGkAKQA7AHIAZQBzAHUAbAB0AHMAOwBIAFMAVABBAFAARQBMAE4AKAByAF8AdgBhAGwAdQBlADsAcABfAHYAYQBsAHUAZQApADsAVwBFAE4ATgAoAE8ARABFAFIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAcwApADsATgBJAEMASABUACgAaABlAGEAZABlAHIAcwApACkAOwByAGUAcwB1AGwAdABzADsAVgBTAFQAQQBQAEUATABOACgASABTAFQAQQBQAEUATABOACgAXAAiAFYAXAAiADsAXAAiAHAAXAAiACkAOwByAGUAcwB1AGwAdABzACkAKQApACkAOwA7AFwAbgBDAE8AUgBSAC4ASwBFAE4ARABBAEwAPQBMAEEATQBCAEQAQQAoAHgAXwBpADsAeQBfAGkAOwBMAEUAVAAoAHMAXwBuADsAQQBOAFoAQQBIAEwAKAB4AF8AaQApADsAeABfAGoAOwBNAFQAUgBBAE4AUwAoAHgAXwBpACkAOwB5AF8AagA7AE0AVABSAEEATgBTACgAeQBfAGkAKQA7AHQAcgBpAGEAbgBnAGwAZQA7AE0AVABSAEkAQQBOAEcATABFACgAcwBfAG4AOwBXAEEASABSADsAVwBBAEgAUgApADsAdAByAF8AcwBpAGcAbgA7AFMAVABBAFQALgBTAEkARwBOACgAeABfAGkALQB4AF8AagApACoAUwBUAEEAVAAuAFMASQBHAE4AKAB5AF8AaQAtAHkAXwBqACkAKgB0AHIAaQBhAG4AZwBsAGUAOwBuAF8AYwA7AFMAVQBNAE0ARQAoADEAKgAoAHQAcgBfAHMAaQBnAG4APgAwACkAKQA7AG4AXwBkADsAUwBVAE0ATQBFACgAMQAqACgAdAByAF8AcwBpAGcAbgA8ADAAKQApADsAbQBfAGsAOwBNAEkATgAoAEEATgBaAEEASABMACgARQBJAE4ARABFAFUAVABJAEcAKAB4AF8AaQApACkAOwBBAE4AWgBBAEgATAAoAEUASQBOAEQARQBVAFQASQBHACgAeQBfAGkAKQApACkAOwBXAEUATgBOACgAcwBfAG4APQBBAE4AWgBBAEgATAAoAHkAXwBpACkAOwAoAG4AXwBjAC0AbgBfAGQAKQAqADIALwAoAHMAXwBuAF4AMgAqACgAKABtAF8AawAtADEAKQAvAG0AXwBrACkAKQA7ACMAVwBFAFIAVAAhACkAKQApADsAOwBDAE8AUgBSAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUAD0ATABBAE0AQgBEAEEAKAB4AF8AaQA7AHkAXwBpADsATABFAFQAKABzAF8AbgA7AEEATgBaAEEASABMACgAeABfAGkAKQA7AHgAXwBqADsATQBUAFIAQQBOAFMAKAB4AF8AaQApADsAeQBfAGoAOwBNAFQAUgBBAE4AUwAoAHkAXwBpACkAOwB0AHIAaQBhAG4AZwBsAGUAOwBNAFQAUgBJAEEATgBHAEwARQAoAHMAXwBuADsAVwBBAEgAUgA7AFcAQQBIAFIAKQA7AHQAcgBfAHMAaQBnAG4AOwBTAFQAQQBUAC4AUwBJAEcATgAoAHgAXwBpAC0AeABfAGoAKQAqAFMAVABBAFQALgBTAEkARwBOACgAeQBfAGkALQB5AF8AagApACoAdAByAGkAYQBuAGcAbABlADsAbgBfAGMAOwBTAFUATQBNAEUAKAAxACoAKAB0AHIAXwBzAGkAZwBuAD4AMAApACkAOwBuAF8AZAA7AFMAVQBNAE0ARQAoADEAKgAoAHQAcgBfAHMAaQBnAG4APAAwACkAKQA7AG0AXwBrADsATQBJAE4AKABBAE4AWgBBAEgATAAoAEUASQBOAEQARQBVAFQASQBHACgAeABfAGkAKQApADsAQQBOAFoAQQBIAEwAKABFAEkATgBEAEUAVQBUAEkARwAoAHkAXwBpACkAKQApADsAcgBfAHQAYQB1ADsAKABuAF8AYwAtAG4AXwBkACkAKgAyAC8AKABzAF8AbgBeADIAKgAoACgAbQBfAGsALQAxACkALwBtAF8AawApACkAOwB2AF8AMAA7AHMAXwBuACoAKABzAF8AbgAtADEAKQAqACgAMgAqAHMAXwBuACsANQApADsAdABfAHIAYQBuAGsAOwBSAEEATgBHAC4ATQBJAFQAVABFAEwAVwAoAHgAXwBpADsAeABfAGkAKQA7AHUAXwByAGEAbgBrADsAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKAB5AF8AaQA7AHkAXwBpACkAOwB0AF8AdABpAGUAcwA7AEUASQBOAEQARQBVAFQASQBHACgAdABfAHIAYQBuAGsAKQA7AHUAXwB0AGkAZQBzADsARQBJAE4ARABFAFUAVABJAEcAKAB1AF8AcgBhAG4AawApADsAdABfAGkAOwBaAMQASABMAEUATgBXAEUATgBOACgAdABfAHQAaQBlAHMAOwB0AF8AcgBhAG4AawApADsAdQBfAGkAOwBaAMQASABMAEUATgBXAEUATgBOACgAdQBfAHQAaQBlAHMAOwB1AF8AcgBhAG4AawApADsAdgBfAHQAOwBTAFUATQBNAEUAKAB0AF8AaQAqACgAdABfAGkALQAxACkAKgAoADIAKgB0AF8AaQArADUAKQApADsAdgBfAHUAOwBTAFUATQBNAEUAKAB1AF8AaQAqACgAdQBfAGkALQAxACkAKgAoADIAKgB1AF8AaQArADUAKQApADsAdgBfADEAOwBTAFUATQBNAEUAKAB0AF8AaQAqACgAdABfAGkALQAxACkAKQAqAFMAVQBNAE0ARQAoAHUAXwBpACoAKAB1AF8AaQAtADEAKQApAC8AKAAyACoAcwBfAG4AKgAoAHMAXwBuAC0AMQApACkAOwB2AF8AMgA7AFMAVQBNAE0ARQAoAHQAXwBpACoAKAB0AF8AaQAtADEAKQAqACgAdABfAGkALQAyACkAKQAqAFMAVQBNAE0ARQAoAHUAXwBpACoAKAB1AF8AaQAtADEAKQAqACgAdQBfAGkALQAyACkAKQAvACgAOQAqAHMAXwBuACoAKABzAF8AbgAtADEAKQAqACgAcwBfAG4ALQAyACkAKQA7AHYAXwBhAGwAbAA7ADEALwAxADgAKgB2AF8AMAAtACgAdgBfAHQAKwB2AF8AdQApAC8AMQA4ACsAdgBfADEAKwB2AF8AMgA7AHoAXwBiADsAKABuAF8AYwAtAG4AXwBkACkALwBXAFUAUgBaAEUATAAoAHYAXwBhAGwAbAApADsAcABfAHYAOwBOAE8AUgBNAC4AVgBFAFIAVAAoAHoAXwBiADsAMAA7ADEAOwBXAEEASABSACkAOwBwAF8AdgBhAGwAdQBlADsAMgAqAFcARQBOAE4AKABwAF8AdgA+AC4ANQA7ADEALQBwAF8AdgA7AHAAXwB2ACkAOwBWAFMAVABBAFAARQBMAE4AKABIAFMAVABBAFAARQBMAE4AKABcACIAdABhAHUAXAAiADsAXAAiAHoAXAAiADsAXAAiAHAAXAAiACkAOwBIAFMAVABBAFAARQBMAE4AKAByAF8AdABhAHUAOwB6AF8AYgA7AHAAXwB2AGEAbAB1AGUAKQApACkAKQA7ADsAXABuAEMATwBSAFIALgBQAEUAQQBSAFMATwBOAD0ATABBAE0AQgBEAEEAKAB4AF8AaQA7AHkAXwBpADsASwBPAFIAUgBFAEwAKAB4AF8AaQA7AHkAXwBpACkAKQA7ADsAQwBPAFIAUgAuAFAARQBBAFIAUwBPAE4ALgBUAEUAUwBUAD0ATABBAE0AQgBEAEEAKAB4AF8AaQA7AHkAXwBpADsAWwBoAGUAYQBkAGUAcgBzAF0AOwBMAEUAVAAoAGMAXwBwAGUAYQByAHMAbwBuADsASwBPAFIAUgBFAEwAKAB4AF8AaQA7AHkAXwBpACkAOwB6AF8AdgBhAGwAdQBlADsAVwBFAE4ATgBGAEUASABMAEUAUgAoAEEAUgBDAFQAQQBOAEgAWQBQACgAYwBfAHAAZQBhAHIAcwBvAG4AKQA7ADEAMAAwADAAMAAwADAAKQA7AHAAXwB2ADsATgBPAFIATQAuAFYARQBSAFQAKAB6AF8AdgBhAGwAdQBlADsAMAA7ADEAOwBXAEEASABSACkAOwBwAF8AdgBhAGwAdQBlADsAMgAqAHcAZQBuAG4AKABwAF8AdgA+AC4ANQA7ADEALQBwAF8AdgA7AHAAXwB2ACkAOwByAGUAcwB1AGwAdABzADsASABTAFQAQQBQAEUATABOACgAegBfAHYAYQBsAHUAZQA7AHAAXwB2AGEAbAB1AGUAKQA7AFcARQBOAE4AKABPAEQARQBSACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGgAZQBhAGQAZQByAHMAKQA7AE4ASQBDAEgAVAAoAGgAZQBhAGQAZQByAHMAKQApADsAcgBlAHMAdQBsAHQAcwA7AFYAUwBUAEEAUABFAEwATgAoAEgAUwBUAEEAUABFAEwATgAoAFwAIgByAFwAIgA7AFwAIgBwAFwAIgApADsAcgBlAHMAdQBsAHQAcwApACkAKQApADsAOwBcAG4AQwBPAFIAUgAuAFMAUABFAEEAUgBNAEEATgA9AEwAQQBNAEIARABBACgAbABlAGYAdAA7AHIAaQBnAGgAdAA7AEsATwBSAFIARQBMACgAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKABsAGUAZgB0ADsAbABlAGYAdAApADsAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKAByAGkAZwBoAHQAOwByAGkAZwBoAHQAKQApACkAOwA7AFwAbgBDAFUATQBTAFUATQA9AEwAQQBNAEIARABBACgAdgBlAGMAdABvAHIAOwBTAEMAQQBOACgAMAA7AHYAZQBjAHQAbwByADsATABBAE0AQgBEAEEAKABhAGMAYwB1ADsAdgBhAGwAdQBlADsAYQBjAGMAdQArAHYAYQBsAHUAZQApACkAKQA7ADsAXABuAEQAVQBNAE0AWQAuAEMATwBEAEkATgBHAD0ATABBAE0AQgBEAEEAKAB2AGEAcgBpAGEAYgBsAGUAOwBbAGgAZQBhAGQAZQByAF0AOwBMAEUAVAAoAHYAYQByAGkAYQBiAGwAZQA7AEYASQBMAFQARQBSACgAdgBhAHIAaQBhAGIAbABlADsATgBJAEMASABUACgASQBTAFQARgBFAEgATABFAFIAKAB2AGEAcgBpAGEAYgBsAGUAKQApACkAOwBrAF8AbgBhAG0AZQBzADsATQBUAFIAQQBOAFMAKABFAEkATgBEAEUAVQBUAEkARwAoAHYAYQByAGkAYQBiAGwAZQApACkAOwBrAF8AcgBlAGYAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABrAF8AbgBhAG0AZQBzADsAUwBFAFEAVQBFAE4AWgAoADEAOwBBAE4AWgBBAEgATAAyACgAawBfAG4AYQBtAGUAcwApAC0AMQApACkAOwBjAG8AZABlAHMAOwAxACoAKAB2AGEAcgBpAGEAYgBsAGUAPQBrAF8AcgBlAGYAKQA7AHcAZQBuAG4AKABPAEQARQBSACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGgAZQBhAGQAZQByACkAOwBuAGkAYwBoAHQAKABoAGUAYQBkAGUAcgApACkAOwBjAG8AZABlAHMAOwB2AHMAdABhAHAAZQBsAG4AKABrAF8AcgBlAGYAOwBjAG8AZABlAHMAKQApACkAKQA7ADsAXABuAEcAUgBPAFUAUAAuAEMATwBVAE4AVAA9AEwAQQBNAEIARABBACgAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AGcAcgBvAHUAcABzADsAQQBOAFoAQQBIAEwAMgA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBJAFEAUgA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFMAUABBAEwAVABFAE4AVwBBAEgATAAoAEcAUgBVAFAAUABJAEUAUgBFAE4ATgBBAEMASAAoAGcAcgBvAHUAcABzADsAdgBhAGwAdQBlAHMAOwBTAFQAQQBUAC4ASQBRAFIAOwA7ADAAKQA7ADIAKQApADsAOwBcAG4ARwBSAE8AVQBQAC4ATQBBAEQAPQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AHYAYQBsAHUAZQBzADsAUwBUAEEAVAAuAE0AQQBEADsAOwAwACkAOwAyACkAKQA7ADsAXABuAEcAUgBPAFUAUAAuAE0AQQBYAD0ATABBAE0AQgBEAEEAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzADsAUwBQAEEATABUAEUATgBXAEEASABMACgARwBSAFUAUABQAEkARQBSAEUATgBOAEEAQwBIACgAZwByAG8AdQBwAHMAOwB2AGEAbAB1AGUAcwA7AE0AQQBYADsAOwAwACkAOwAyACkAKQA7ADsAXABuAEcAUgBPAFUAUAAuAE0ARQBBAE4APQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AHYAYQBsAHUAZQBzADsATQBJAFQAVABFAEwAVwBFAFIAVAA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBNAEkATgA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFMAUABBAEwAVABFAE4AVwBBAEgATAAoAEcAUgBVAFAAUABJAEUAUgBFAE4ATgBBAEMASAAoAGcAcgBvAHUAcABzADsAdgBhAGwAdQBlAHMAOwBNAEkATgA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBTAEQAPQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AHYAYQBsAHUAZQBzADsAUwBUAEEAQgBXAC4AUwA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBTAFUATQA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFMAUABBAEwAVABFAE4AVwBBAEgATAAoAEcAUgBVAFAAUABJAEUAUgBFAE4ATgBBAEMASAAoAGcAcgBvAHUAcABzADsAdgBhAGwAdQBlAHMAOwBTAFUATQBNAEUAOwA7ADAAKQA7ADIAKQApADsAOwBcAG4ASABSAEUAUABFAEEAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlADsAbgBfAHQAaQBtAGUAcwA7AFcARQBOAE4AKABVAE4ARAAoAEEATgBaAEEASABMADIAKAB2AGEAbAB1AGUAKQA9ADEAOwBBAE4AWgBBAEgATAAoAG4AXwB0AGkAbQBlAHMAKQA9ADEAOwBuAF8AdABpAG0AZQBzAD4AMAApADsAVwBFAE4ATgAoAEkAUwBUAFoAQQBIAEwAKAB2AGEAbAB1AGUAKQArAEkAUwBUAEwATwBHACgAdgBhAGwAdQBlACkAOwBTAEUAUQBVAEUATgBaACgAMQA7AG4AXwB0AGkAbQBlAHMAOwB2AGEAbAB1AGUAOwAwACkAOwBXAEUATgBOACgAUwBFAFEAVQBFAE4AWgAoADEAOwBuAF8AdABpAG0AZQBzACkAOwB2AGEAbAB1AGUAKQApADsAIwBXAEUAUgBUACEAKQApADsAOwBcAG4ASQBTAC4AQQBMAEwALgBFAFEAVQBBAEwAPQBMAEEATQBCAEQAQQAoAHYAZQBjAHQAbwByADsAVQBOAEQAKAB2AGUAYwB0AG8AcgA9AGkAbgBkAGUAeAAoAHYAZQBjAHQAbwByADsAMQA7ADEAKQApACkAOwA7AFwAbgBJAFMALgBWAEUAQwBUAE8AUgA9AEwAQQBNAEIARABBACgAdgBlAGMAdABvAHIAOwBXAEUATgBOAEYARQBIAEwARQBSACgASQBTAC4AQQBMAEwALgBFAFEAVQBBAEwAKABNAEEAUAAoAFIARQBNAE8AVgBFAC4ASQBOAFYAQQBMAEkARAAoAHYAZQBjAHQAbwByACkAOwBUAFkAUAApACkAOwBGAEEATABTAEMASAApACkAOwA7AFwAbgBNAEEAUgBLAC4ASQBOAFYAQQBMAEkARAA9AEwAQQBNAEIARABBACgAdgBlAGMAdABvAHIAcwA7AGkAbgB2AGEAbABpAGQAXwB2AGEAbAB1AGUAcwA7AE0AQQBQACgAdgBlAGMAdABvAHIAcwA7AEwAQQBNAEIARABBACgAdgBfAGkAOwB3AGUAbgBuACgAdwBlAG4AbgBmAGUAaABsAGUAcgAoAFgAVgBFAFIARwBMAEUASQBDAEgAKAB2AF8AaQA7AGkAbgB2AGEAbABpAGQAXwB2AGEAbAB1AGUAcwA7ADAAKQA7ADAAKQA7ACMATgBWADsAdgBfAGkAKQApACkAKQA7ADsAXABuAE0ARABJAE0APQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsASABTAFQAQQBQAEUATABOACgAWgBFAEkATABFAE4AKABtAGEAdAByAGkAeAApADsAUwBQAEEATABUAEUATgAoAG0AYQB0AHIAaQB4ACkAKQApADsAOwBcAG4ATQBUAFIAQQBDAEUAPQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsAVwBFAE4ATgAoAFoARQBJAEwARQBOACgAbQBhAHQAcgBpAHgAKQA9AFMAUABBAEwAVABFAE4AKABtAGEAdAByAGkAeAApADsATABFAFQAKABpAG4AZABlAHgAOwBTAEUAUQBVAEUATgBaACgAWgBFAEkATABFAE4AKABtAGEAdAByAGkAeAApACkAOwBTAFUATQBNAEUAKABJAE4ARABFAFgAKABtAGEAdAByAGkAeAA7AGkAbgBkAGUAeAA7AGkAbgBkAGUAeAApACkAKQA7ACMAVwBFAFIAVAAhACkAKQA7ADsAXABuAE0AVABSAEkAQQBOAEcATABFAD0ATABBAE0AQgBEAEEAKABzAGkAegBlADsAWwBwAF8AbABvAHcAZQByAF0AOwBbAHAAXwBzAHQAcgBpAGMAdABdADsATABFAFQAKABiAF8AbABvAHcAZQByADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AbABvAHcAZQByACkAOwBXAEEASABSADsAcABfAGwAbwB3AGUAcgApADsAYgBfAHMAdAByAGkAYwB0ADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AcwB0AHIAaQBjAHQAKQA7AEYAQQBMAFMAQwBIADsAcABfAHMAdAByAGkAYwB0ACkAOwBXAEUATgBOACgAVQBOAEQAKABBAE4AWgBBAEgATAAoAHMAaQB6AGUAKQA9ADEAOwBBAE4AWgBBAEgATAAyACgAYgBfAGwAbwB3AGUAcgApAD0AMQA7AEEATgBaAEEASABMADIAKABiAF8AcwB0AHIAaQBjAHQAKQA9ADEAKQA7AEwARQBUACgAdgBlAGMAdABvAHIAOwBTAEUAUQBVAEUATgBaACgAcwBpAHoAZQApADsAdAB2AGUAYwB0AG8AcgA7AE0AVABSAEEATgBTACgAdgBlAGMAdABvAHIAKQA7ADEAKgBXAEUATgBOAFMAKABVAE4ARAAoAGIAXwBsAG8AdwBlAHIAOwBiAF8AcwB0AHIAaQBjAHQAKQA7AHYAZQBjAHQAbwByAD4AdAB2AGUAYwB0AG8AcgA7AGIAXwBsAG8AdwBlAHIAOwB2AGUAYwB0AG8AcgA+AD0AdAB2AGUAYwB0AG8AcgA7AGIAXwBzAHQAcgBpAGMAdAA7AHYAZQBjAHQAbwByADwAdAB2AGUAYwB0AG8AcgA7AFcAQQBIAFIAOwB2AGUAYwB0AG8AcgA8AD0AdAB2AGUAYwB0AG8AcgApACkAOwAjAFcARQBSAFQAIQApACkAKQA7ADsAXABuAFAAUQAuAFIARQBOAEEATQBFAC4ASABFAEwAUABFAFIAPQBMAEEATQBCAEQAQQAoAG4AYQBtAGUAcwA7AGwAYQBiAGUAbABzADsAVABFAFgAVABWAEUAUgBLAEUAVABUAEUATgAoAFwAIgAsAFwAIgA7ADsATgBBAEMASABaAEUASQBMAEUAKABNAEEAUAAoAEgAUwBUAEEAUABFAEwATgAoAGwAYQBiAGUAbABzADsAbgBhAG0AZQBzACkAOwBMAEEATQBCAEQAQQAoAHMAdAByAGkAbgBnADsAXAAiAFwAIgBcACIAXAAiACYAcwB0AHIAaQBuAGcAJgBcACIAXAAiAFwAIgBcACIAKQApADsATABBAE0AQgBEAEEAKAByAG8AdwA7AFwAIgB7AFwAIgAmAFQARQBYAFQAVgBFAFIASwBFAFQAVABFAE4AKABcACIALABcACIAOwA7AHIAbwB3ACkAJgBcACIAfQBcACIAKQApACkAKQA7ADsAXABuAFAAUgBFAFAALgBBAEwAVABFAFIATgBBAFQASQBWAEUAPQBMAEEATQBCAEQAQQAoAGEAbAB0ADsAWABWAEUAUgBXAEUASQBTACgATABJAE4ASwBTACgASwBMAEUASQBOACgAYQBsAHQAKQA7ADEAKQA7AHsAXAAiAHQAXAAiADsAXAAiAGcAXAAiADsAXAAiAGwAXAAiADsAXAAiAHIAXAAiADsAXAAiAGsAXAAiADsAXAAiAHUAXAAiADsAXAAiAGIAXAAiADsAXAAiADwAXAAiADsAXAAiAD4AXAAiAH0AOwB7AFwAIgB0AFwAIgA7AFwAIgBnAFwAIgA7AFwAIgBsAFwAIgA7AFwAIgBnAFwAIgA7AFwAIgBsAFwAIgA7AFwAIgB0AFwAIgA7AFwAIgB0AFwAIgA7AFwAIgBsAFwAIgA7AFwAIgBnAFwAIgB9ADsAIwBXAEUAUgBUACEAKQApADsAOwBcAG4AUQBVAEkAQwBLAC4AQwBPAEQARQA9AEwAQQBNAEIARABBACgAdgBhAHIAaQBhAGIAbABlADsAbwByAGQAZQByADsAWABWAEUAUgBHAEwARQBJAEMASAAoAHYAYQByAGkAYQBiAGwAZQA7AG8AcgBkAGUAcgApACkAOwA7AFwAbgBSAEEATgBEAE8ATQAuAE4ATwBSAE0APQBMAEEATQBCAEQAQQAoAHAAXwBuADsAWwBtAGUAYQBuAF0AOwBbAHMAZABlAHYAXQA7AEwARQBUACgAbQBlAGEAbgA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAbQBlAGEAbgApADsAMAA7AG0AZQBhAG4AKQA7AHMAZABlAHYAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHMAZABlAHYAKQA7ADEAOwBzAGQAZQB2ACkAOwBXAFUAUgBaAEUATAAoAC0AMgAqAEwATgAoAFoAVQBGAEEATABMAFMATQBBAFQAUgBJAFgAKABwAF8AbgApACkAKQArAEMATwBTACgAMgAqAFAASQAoACkAKgBaAFUARgBBAEwATABTAE0AQQBUAFIASQBYACgAcABfAG4AKQApACoAcwBkAGUAdgArAG0AZQBhAG4AKQApADsAOwBcAG4AUgBFAEcAUgBFAFMAUwBJAE8ATgAuAFIARQBTAEkARABVAEEATABTAD0ATABBAE0AQgBEAEEAKABBAF8AVgBBAFIAOwBVAEEAXwBWAEEAUgA7AEsATwBFAEYAOwBMAEUAVAAoAEsATwBFAEYATQBBAFQAOwBIAFMAVABBAFAARQBMAE4AKABTAEUAUQBVAEUATgBaACgAWgBFAEkATABFAE4AKABBAF8AVgBBAFIAKQA7ADEAOwAxADsAMAApADsAVQBBAF8AVgBBAFIAKQA7AEUAUwBUAEkATQBBAFQARQBTADsATQBNAFUATABUACgASwBPAEUARgBNAEEAVAA7AEsATwBFAEYAKQA7AEUAUwBUAEkATQBBAFQARQBTAC0AQQBfAFYAQQBSACkAKQA7ADsAXABuAFIARQBHAFIARQBTAFMASQBPAE4APQBMAEEATQBCAEQAQQAoAEEAXwBWAEEAUgA7AFUAQQBfAFYAQQBSADsATABFAFQAKABLAE8ARQBGAE0AQQBUADsASABTAFQAQQBQAEUATABOACgAUwBFAFEAVQBFAE4AWgAoAFoARQBJAEwARQBOACgAQQBfAFYAQQBSACkAOwAxADsAMQA7ADAAKQA7AFUAQQBfAFYAQQBSACkAOwBSAEUARABEAEkATQA7AE0ATQBVAEwAVAAoAE0AVABSAEEATgBTACgASwBPAEUARgBNAEEAVAApADsASwBPAEUARgBNAEEAVAApADsATQBNAFUATABUACgATQBNAFUATABUACgATQBJAE4AVgAoAFIARQBEAEQASQBNACkAOwBNAFQAUgBBAE4AUwAoAEsATwBFAEYATQBBAFQAKQApADsAQQBfAFYAQQBSACkAKQApADsAOwBcAG4AUgBFAE0ATwBWAEUALgBJAE4AVgBBAEwASQBEAD0ATABBAE0AQgBEAEEAKAB2AGUAYwB0AG8AcgBzADsAWwBlAHgAdAByAGEAXwB2AGEAbAB1AGUAcwBdADsATABFAFQAKAB2AF8AaQB2ADsAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABlAHgAdAByAGEAXwB2AGEAbAB1AGUAcwApADsAdgBlAGMAdABvAHIAcwA7AE0AQQBSAEsALgBJAE4AVgBBAEwASQBEACgAdgBlAGMAdABvAHIAcwA7AGUAeAB0AHIAYQBfAHYAYQBsAHUAZQBzACkAKQA7AGkAbgB2AGEAbABpAGQAOwBOAEEAQwBIAFoARQBJAEwARQAoAHYAXwBpAHYAOwBMAEEATQBCAEQAQQAoAHoAZQBpAGwAZQA7AE8ARABFAFIAKABJAFMAVABGAEUASABMAEUAUgAoAHoAZQBpAGwAZQApACkAKQApADsARgBJAEwAVABFAFIAKAB2AGUAYwB0AG8AcgBzADsATgBJAEMASABUACgAaQBuAHYAYQBsAGkAZAApACkAKQApADsAOwBcAG4AUgBPAFcAUwBVAE0APQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsATgBBAEMASABaAEUASQBMAEUAKABtAGEAdAByAGkAeAA7AFMAVQBNAE0ARQApACkAOwA7AFwAbgBTAEMASABFAE0AQQAuAEMASABPAE8AUwBFAD0ATABBAE0AQgBEAEEAKABkAGEAdABhADsAdAB5AHAAZQBzADsAWwB0AHkAcABlAF0AOwBMAEUAVAAoAHQAeQBwAGUAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHQAeQBwAGUAKQA7AFwAIgBtAFwAIgA7AEwASQBOAEsAUwAoAEsATABFAEkATgAoAHQAeQBwAGUAKQA7ADEAKQApADsAdAB5AHAAZQBzADsATABJAE4ASwBTACgASwBMAEUASQBOACgAdAB5AHAAZQBzACkAOwAxACkAOwBXAEUATgBOACgAUwBQAEEATABUAEUATgAoAGQAYQB0AGEAKQA9ADEAOwBNAFQAUgBBAE4AUwAoAEYASQBMAFQARQBSACgAZABhAHQAYQA7AHQAeQBwAGUAPQB0AHkAcABlAHMAKQApADsAUwBQAEEATABUAEUATgBXAEEASABMACgAZABhAHQAYQA7AEYASQBMAFQARQBSACgAUwBFAFEAVQBFAE4AWgAoAEEATgBaAEEASABMADIAKAB0AHkAcABlAHMAKQApADsAdAB5AHAAZQA9AHQAeQBwAGUAcwApACkAKQApACkAOwA7AFwAbgBTAEUAUQBVAEUATgBDAEUALgBSAEEATgBHAEUAPQBMAEEATQBCAEQAQQAoAGEAXwB2ADsAWwBiAF8AbwByAF8AcwB0AGUAcABdADsAWwBzAHQAZQBwAF0AOwBMAEUAVAAoAGEAXwB2AHMAOwBaAFUAUwBQAEEATABUAEUAKABhAF8AdgApADsAbgBfAGEAOwBBAE4AWgBBAEgATAAoAGEAXwB2AHMAKQA7AGIAXwB2ADsAdwBlAG4AbgAoAFUATgBEACgAbgBfAGEAPQAyADsAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGIAXwBvAHIAXwBzAHQAZQBwACkAOwBXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAcwB0AGUAcAApACkAOwBJAE4ARABFAFgAKABhAF8AdgBzADsAMgA7ADEAKQA7AGIAXwBvAHIAXwBzAHQAZQBwACkAOwBzAHQAZQBwADsAVwBFAE4ATgBTACgAVQBOAEQAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAYgBfAG8AcgBfAHMAdABlAHAAKQA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABzAHQAZQBwACkAKQA7ADEAOwBVAE4ARAAoAG4AXwBhAD0AMgA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABzAHQAZQBwACkAKQA7AGIAXwBvAHIAXwBzAHQAZQBwADsAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHMAdABlAHAAKQA7ADEAOwBXAEEASABSADsAcwB0AGUAcAApADsAYQBfAHYAOwBJAE4ARABFAFgAKABhAF8AdgBzADsAMQA7ADEAKQA7AHMAXwBkAGUAbAB0AGEAOwBHAEEATgBaAFoAQQBIAEwAKABiAF8AdgAtAGEAXwB2ACkAKwAxADsAUwBFAFEAVQBFAE4AWgAoAHMAXwBkAGUAbAB0AGEAOwAxADsAYQBfAHYAOwBzAHQAZQBwACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAEMATwBSAFIARQBDAFQALgBQAFYAQQBMAFUARQA9AEwAQQBNAEIARABBACgAcABfAHYAYQBsAHUAZQA7AFsAYQBsAHQAZQByAG4AYQB0AGkAdgBlAF0AOwBMAEUAVAAoAGEAbAB0ADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABhAGwAdABlAHIAbgBhAHQAaQB2AGUAKQA7AFwAIgB0AFwAIgA7AGEAbAB0AGUAcgBuAGEAdABpAHYAZQApADsAVwBFAE4ATgBGAEUASABMAEUAUgAoAEUAUgBTAFQARQBSAFcARQBSAFQAKABhAGwAdAA7AFwAIgBsAFwAIgA7AHAAXwB2AGEAbAB1AGUAOwBcACIAZwBcACIAOwAxAC0AcABfAHYAYQBsAHUAZQA7AFwAIgB0AFwAIgA7ADIAKgBNAEkATgAoAHAAXwB2AGEAbAB1AGUAOwAxAC0AcABfAHYAYQBsAHUAZQApADsAKQA7ACMAVwBFAFIAVAAhACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAEwAQQBCAEUATABTAD0ATABBAE0AQgBEAEEAKABbAHQAeQBwAGUAXQA7AEwARQBUACgAdAB5AHAAZQA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAdAB5AHAAZQApADsAXAAiAG0AXAAiADsATABJAE4ASwBTACgASwBMAEUASQBOACgAdAB5AHAAZQApADsAMQApACkAOwBsAGEAYgBlAGwAcwBfAGIAYQBzAGUAOwBtAHQAcgBhAG4AcwAoAHsAXAAiAGkAZABcACIAOwBcACIAbgBcACIAfQApADsAbABhAGIAZQBsAHMAXwBtADsAbQB0AHIAYQBuAHMAKAB7AFwAIgBtAGUAYQBuAFwAIgA7AFwAIgBzAHQAZABkAGUAdgBcACIAOwBcACIAcwB0AGQAZQByAHIAXAAiAH0AKQA7AGwAYQBiAGUAbABzAF8AbwA7AG0AdAByAGEAbgBzACgAewBcACIAbQBpAG4AXAAiADsAXAAiAG0AZQBkAGkAYQBuAFwAIgA7AFwAIgBtAGEAeABcACIAOwBcACIASQBRAFIAXAAiADsAXAAiAG0AYQBkAFwAIgB9ACkAOwBXAEUATgBOACgAdAB5AHAAZQA9AFwAIgBvAFwAIgA7AEgAUwBUAEEAUABFAEwATgAoAGwAYQBiAGUAbABzAF8AYgBhAHMAZQA7AGwAYQBiAGUAbABzAF8AbwApADsASABTAFQAQQBQAEUATABOACgAbABhAGIAZQBsAHMAXwBiAGEAcwBlADsAbABhAGIAZQBsAHMAXwBtADsAbABhAGIAZQBsAHMAXwBvACkAKQApACkAOwA7AFwAbgBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFAD0ATABBAE0AQgBEAEEAKABkAGEAdABhADsAWwB0AHkAcABlAF0AOwBbAG4AYQBtAGUAcwBdADsATABFAFQAKAB0AHkAcABlADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKAB0AHkAcABlACkAOwBcACIAbQBcACIAOwBsAGkAbgBrAHMAKABLAEwARQBJAE4AKAB0AHkAcABlACkAOwAxACkAKQA7AGMAbwBsAGkAZABzADsAcwBlAHEAdQBlAG4AegAoAHMAcABhAGwAdABlAG4AKABkAGEAdABhACkAKQA7AHYAYQBsAHMAOwB6AGUAaQBsAGUAbgB3AGEAaABsACgAUgBFAEQAVQBDAEUAKABzAGUAcQB1AGUAbgB6ACgAMQA7AFcARQBOAE4AKAB0AHkAcABlAD0AXAAiAG8AXAAiADsANQA7ADgAKQApADsAYwBvAGwAaQBkAHMAOwBMAEEATQBCAEQAQQAoAGwAaQBuAGUAcwA7AGMAbwBsAGkAZAA7AEwARQBUACgAcgBhAHcAXwB2AGEAbAB1AGUAcwA7AHMAcABhAGwAdABlAG4AdwBhAGgAbAAoAGQAYQB0AGEAOwBjAG8AbABpAGQAKQA7AHYAYQBsAHUAZQBzADsAZgBpAGwAdABlAHIAKAByAGEAdwBfAHYAYQBsAHUAZQBzADsAaQBzAHQAegBhAGgAbAAoAHIAYQB3AF8AdgBhAGwAdQBlAHMAKQApADsAYwBuAHQAXwB2AGEAbAB1AGUAcwA7AEEATgBaAEEASABMACgAdgBhAGwAdQBlAHMAKQA7AGIAYQBzAGkAYwBfAHMAdABhAHQAcwA7AEgAUwBUAEEAUABFAEwATgAoAE0ASQBOACgAdgBhAGwAdQBlAHMAKQA7AE0ARQBEAEkAQQBOACgAdgBhAGwAdQBlAHMAKQA7AE0AQQBYACgAdgBhAGwAdQBlAHMAKQA7AFMAVABBAFQALgBJAFEAUgAoAHYAYQBsAHUAZQBzACkAOwBTAFQAQQBUAC4ATQBBAEQAKAB2AGEAbAB1AGUAcwApACkAOwBzAGQAZQB2ADsAUwBUAEEAQgBXAC4AUwAoAHYAYQBsAHUAZQBzACkAOwB2AHMAdABhAHAAZQBsAG4AKABsAGkAbgBlAHMAOwB3AGUAbgBuACgAdAB5AHAAZQA9AFwAIgBvAFwAIgA7AEgAUwBUAEEAUABFAEwATgAoAGMAbgB0AF8AdgBhAGwAdQBlAHMAOwBiAGEAcwBpAGMAXwBzAHQAYQB0AHMAKQA7AEgAUwBUAEEAUABFAEwATgAoAGMAbgB0AF8AdgBhAGwAdQBlAHMAOwBNAEkAVABUAEUATABXAEUAUgBUACgAdgBhAGwAdQBlAHMAKQA7AHMAZABlAHYAOwBzAGQAZQB2AC8AVwBVAFIAWgBFAEwAKABjAG4AdABfAHYAYQBsAHUAZQBzACkAOwBiAGEAcwBpAGMAXwBzAHQAYQB0AHMAKQApACkAKQApACkAOwBjAG8AbABpAGQAcwArADEAKQA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAbgBhAG0AZQBzACkAOwBIAFMAVABBAFAARQBMAE4AKABjAG8AbABpAGQAcwA7AHYAYQBsAHMAKQA7AEgAUwBUAEEAUABFAEwATgAoAG0AdAByAGEAbgBzACgAbgBhAG0AZQBzACkAOwB2AGEAbABzACkAKQApACkAOwA7AFwAbgBTAFQAQQBUAC4ASQBRAFIAPQBMAEEATQBCAEQAQQAoAHYAZQBjAHQAbwByAF8AbwByAF8AbQBhAHQAcgBpAHgAOwBTAFUATQBNAEUAKABRAFUAQQBSAFQASQBMAEUALgBJAE4ASwBMACgAdgBlAGMAdABvAHIAXwBvAHIAXwBtAGEAdAByAGkAeAA7AHsAMwA7ADEAfQApACoAewAxADsALQAxAH0AKQApADsAOwBcAG4AUwBUAEEAVAAuAE0AQQBEAD0ATABBAE0AQgBEAEEAKAB2AGUAYwB0AG8AcgBfAG8AcgBfAG0AYQB0AHIAaQB4ADsATQBFAEQASQBBAE4AKABBAEIAUwAoAHYAZQBjAHQAbwByAF8AbwByAF8AbQBhAHQAcgBpAHgALQBNAEUARABJAEEATgAoAHYAZQBjAHQAbwByAF8AbwByAF8AbQBhAHQAcgBpAHgAKQApACkAKQA7ADsAXABuAFMAVABBAFQALgBQAE8ATwBMAEUARAAuAFYAQQBSAEkAQQBOAEMARQA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AEwARQBUACgAbgBfAGkAOwBTAFQAQQBUAC4AVABBAEIATABFACgAZwByAG8AdQBwAHMAKQAtADEAOwBzAHUAbQBfAG4AOwBTAFUATQBNAEUAKABuAF8AaQApADsAcwBfAGkAOwBHAFIATwBVAFAALgBTAEQAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzACkAXgAyADsAUwBVAE0ATQBFAE4AUABSAE8ARABVAEsAVAAoAG4AXwBpADsAcwBfAGkAKQAvAHMAdQBtAF8AbgApACkAOwA7AFwAbgBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsAcABfAHYAKgBtAF8AdgApADsAOwBQAC4AQQBEAEoALgBIAE8ATABNAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsATABFAFQAKABwAF8AcwA7AFMATwBSAFQASQBFAFIARQBOACgAcABfAHYAKQA7AGkAZABfAHYAOwBTAEUAUQBVAEUATgBaACgAQQBOAFoAQQBIAEwAKABwAF8AdgApACkAOwBpAGQAXwBzADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAGkAZABfAHYAOwBwAF8AdgApADsAcABfAHMAdABhAHIAOwBwAF8AcwAqACgAbQBfAHYAKwAxAC0AaQBkAF8AdgApADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAHAAXwBzAHQAYQByADsAaQBkAF8AcwApACkAKQA7ADsAUAAuAEEARABKAC4AUwBJAEQAQQBLAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsAMQAtACgAMQAtAHAAXwB2ACkAXgBtAF8AdgApADsAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsATABFAFQAKABwAF8AcwA7AFMATwBSAFQASQBFAFIARQBOACgAcABfAHYAKQA7AGkAZABfAHYAOwBTAEUAUQBVAEUATgBaACgAQQBOAFoAQQBIAEwAKABwAF8AdgApACkAOwBpAGQAXwBzADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAGkAZABfAHYAOwBwAF8AdgApADsAcABfAHMAdABhAHIAOwAxAC0AKAAxAC0AcABfAHMAKQBeACgAbQBfAHYAKwAxAC0AaQBkAF8AdgApADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAHAAXwBzAHQAYQByADsAaQBkAF8AcwApACkAKQA7ADsAUAAuAEEARABKAC4ASABPAEMASABCAEUAUgBHAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsATABFAFQAKABwAF8AcwA7AFMATwBSAFQASQBFAFIARQBOACgAcABfAHYAKQA7AGkAZABfAHYAOwBTAEUAUQBVAEUATgBaACgAQQBOAFoAQQBIAEwAKABwAF8AdgApACkAOwBpAGQAXwBzADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAGkAZABfAHYAOwBwAF8AdgApADsAcABfAHMAdABhAHIAOwBwAF8AcwAqAG0AXwB2AC8AKABtAF8AdgArADEALQBpAGQAXwB2ACkAOwBTAE8AUgBUAEkARQBSAEUATgBOAEEAQwBIACgAcABfAHMAdABhAHIAOwBpAGQAXwBzACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAFMARQA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBMAEUAVAAoAHMAZABlAHYAOwBTAFQAQQBCAFcALgBTACgAdgBhAGwAdQBlAHMAKQA7AGMAbgB0AF8AdgBhAGwAdQBlAHMAOwBBAE4AWgBBAEgATAAoAHYAYQBsAHUAZQBzACkAOwBzAGQAZQB2AC8AVwBVAFIAWgBFAEwAKABjAG4AdABfAHYAYQBsAHUAZQBzACkAKQApADsAOwBTAFQAQQBUAC4AUwBUAEQALgBFAFIAUgBPAFIAPQBTAFQAQQBUAC4AUwBFADsAOwBcAG4AUwBUAEEAVAAuAFMASQBHAE4APQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQA7AC0AMQAqACgAdgBhAGwAdQBlADwAMAApACsAKAB2AGEAbAB1AGUAPgAwACkAKQA7ADsAXABuAFMAVABBAFQALgBEAEUAUwBDAFIASQBCAEUALgBOAE8ATQBJAE4AQQBMAD0ATABBAE0AQgBEAEEAKABkAGEAdABhADsAWwB2AGEAcgBpAGEAYgBsAGUAXQA7AEwARQBUACgAdgBhAHIAaQBhAGIAbABlADsAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKAB2AGEAcgBpAGEAYgBsAGUAKQA7AFwAIgBcACIAOwB2AGEAcgBpAGEAYgBsAGUAKQA7AFYAUwBUAEEAUABFAEwATgAoAEgAUwBUAEEAUABFAEwATgAoAHYAYQByAGkAYQBiAGwAZQA7AFwAIgBBAGIAcwBvAGwAdQB0AFwAIgA7AFwAIgBSAGUAbABhAHQAaQB2AFwAIgApADsASABTAFQAQQBQAEUATABOACgAUwBUAEEAVAAuAFQAQQBCAEwARQAoAGQAYQB0AGEAOwBXAEEASABSACkAOwBzAHQAYQB0AC4AdABhAGIAbABlAC4AcgBlAGwAYQB0AGkAdgBlACgAZABhAHQAYQApACkAKQApACkAOwA7AFwAbgBTAFQAQQBUAC4AVABBAEIATABFAC4AUgBFAEwAQQBUAEkAVgBFAD0ATABBAE0AQgBEAEEAKABhAHYAYQBsADsAWwBiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwBdADsAWwBoAGUAYQBkAGkAbgBnAF0AOwBMAEUAVAAoAGIAXwBwADEAOwBXAEUATgBOAFMAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA7ADAAOwBBAE4AWgBBAEgATAAyACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA9ADEAOwAxADsAQQBOAFoAQQBIAEwAMgAoAGIAdgBhAGwAXwBvAHIAXwBoAGUAYQBkAGkAbgBnACkAPQBBAG4AegBhAGgAbAAyACgAYQB2AGEAbAApADsAMgA7AFcAQQBIAFIAOwAwACkAOwBoAGUAYQBkAGkAbgBnADsAVwBFAE4ATgBTACgAYgBfAHAAMQA9ADEAOwBuACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGkAbgBnACkAOwAwADsAVwBBAEgAUgA7AG4AKABoAGUAYQBkAGkAbgBnACkAKQA8AD4AMAA7AHQAYQBiADsAdwBlAG4AbgAoAGIAXwBwADEAPQAyADsAUwBUAEEAVAAuAFQAQQBCAEwARQAoAGEAdgBhAGwAOwBiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwApADsAUwBUAEEAVAAuAFQAQQBCAEwARQAoAGEAdgBhAGwAKQApADsAdABvAHQAYQBsAHMAOwBzAHUAbQBtAGUAKAB0AGEAYgApADsAcgBlAHMAdQBsAHQAcwA7AHQAYQBiAC8AdABvAHQAYQBsAHMAOwBpAGQAXwBhAHYAYQBsADsARQBJAE4ARABFAFUAVABJAEcAKABhAHYAYQBsACkAOwBpAGQAXwBiAHYAYQBsADsAVwBFAE4ATgAoAGIAXwBwADEAPQAyADsAbQB0AHIAYQBuAHMAKABFAEkATgBEAEUAVQBUAEkARwAoAGIAdgBhAGwAXwBvAHIAXwBoAGUAYQBkAGkAbgBnACkAKQA7ACMATgBWACkAOwB3AGUAbgBuACgAaABlAGEAZABpAG4AZwA7AHcAZQBuAG4AKABiAF8AcAAxAD0AMgA7AFYAUwBUAEEAUABFAEwATgAoAEgAUwBUAEEAUABFAEwATgAoAFwAIgBcACIAOwBpAGQAXwBiAHYAYQBsACkAOwBIAFMAVABBAFAARQBMAE4AKABpAGQAXwBhAHYAYQBsADsAcgBlAHMAdQBsAHQAcwApACkAOwBIAFMAVABBAFAARQBMAE4AKABpAGQAXwBhAHYAYQBsADsAcgBlAHMAdQBsAHQAcwApACkAOwByAGUAcwB1AGwAdABzACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAFQAQQBCAEwARQA9AEwAQQBNAEIARABBACgAYQB2AGEAbAA7AFsAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAXQA7AFsAaABlAGEAZABpAG4AZwBdADsATABFAFQAKABtAGQAaQBtAF8AYQA7AFoAZQBpAGwAZQBuACgAYQB2AGEAbAApAC0AUwBwAGEAbAB0AGUAbgAoAGEAdgBhAGwAKQA7AGEAdgBhAGwAOwB3AGUAbgBuACgAbQBkAGkAbQBfAGEAPgAwADsAegB1AHMAcABhAGwAdABlACgAYQB2AGEAbAApADsAegB1AHoAZQBpAGwAZQAoAGEAdgBhAGwAKQApADsAbgBfAGEAdgBhAGwAOwBBAE4AWgBBAEgATAAyACgAYQB2AGEAbAApADsAaQBkAF8AYQB2AGEAbAA7AEUASQBOAEQARQBVAFQASQBHACgAYQB2AGEAbAApADsAYgBfAHAAMQA7AFcARQBOAE4AUwAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwApADsAMAA7AEEATgBaAEEASABMADIAKABiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwApAD0AMQA7ADEAOwBBAE4AWgBBAEgATAAyACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA9AG4AXwBhAHYAYQBsADsAMgA7AFcAQQBIAFIAOwAwACkAOwBoAGUAYQBkAGkAbgBnADsAVwBFAE4ATgBTACgAYgBfAHAAMQA9ADEAOwBuACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGkAbgBnACkAOwAwADsAVwBBAEgAUgA7AG4AKABoAGUAYQBkAGkAbgBnACkAKQA8AD4AMAA7AGIAdgBhAGwAOwB3AGUAbgBuACgAYgBfAHAAMQA9ADIAOwBiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwA7AHcAZQBuAG4AKABtAGQAaQBtAF8AYQA+ADAAOwBWAFIARQBQAEUAQQBUACgAMQA7AG4AXwBhAHYAYQBsACkAOwBIAFIARQBQAEUAQQBUACgAMQA7AG4AXwBhAHYAYQBsACkAKQApADsAaQBkAF8AYgB2AGEAbAA7AE0AVABSAEEATgBTACgARQBJAE4ARABFAFUAVABJAEcAKABiAHYAYQBsACkAKQA7AGkAZABfAGEAdgBhAGwAVAA7AE0AVABSAEEATgBTACgAaQBkAF8AYQB2AGEAbAApADsAcgBlAHMAdQBsAHQAcwA7AE0ATQBVAEwAVAAoAG0AdAByAGEAbgBzACgAKABJAFMAVABGAEUASABMAEUAUgAoAGkAZABfAGEAdgBhAGwAVAApACsASQBTAFQARgBFAEgATABFAFIAKABhAHYAYQBsACkALQBJAFMAVABGAEUASABMAEUAUgAoAGEAdgBhAGwAKQAqAEkAUwBUAEYARQBIAEwARQBSACgAaQBkAF8AYQB2AGEAbABUACkAKQAqAHcAZQBuAG4AZgBlAGgAbABlAHIAKABGAEUASABMAEUAUgAuAFQAWQBQACgAaQBkAF8AYQB2AGEAbABUACkAPQBGAEUASABMAEUAUgAuAFQAWQBQACgAYQB2AGEAbAApADsAMAApACsAdwBlAG4AbgBmAGUAaABsAGUAcgAoADEAKgAoAGkAZABfAGEAdgBhAGwAVAA9AGEAdgBhAGwAKQA7ADAAKQApADsAKABJAFMAVABGAEUASABMAEUAUgAoAGkAZABfAGIAdgBhAGwAKQArAEkAUwBUAEYARQBIAEwARQBSACgAYgB2AGEAbAApAC0ASQBTAFQARgBFAEgATABFAFIAKABiAHYAYQBsACkAKgBJAFMAVABGAEUASABMAEUAUgAoAGkAZABfAGIAdgBhAGwAKQApACoAdwBlAG4AbgBmAGUAaABsAGUAcgAoAEYARQBIAEwARQBSAC4AVABZAFAAKABpAGQAXwBiAHYAYQBsACkAPQBGAEUASABMAEUAUgAuAFQAWQBQACgAYgB2AGEAbAApADsAMAApACsAdwBlAG4AbgBmAGUAaABsAGUAcgAoADEAKgAoAGkAZABfAGIAdgBhAGwAPQBiAHYAYQBsACkAOwAwACkAKQA7AFcARQBOAE4AKABoAGUAYQBkAGkAbgBnADsAdwBlAG4AbgAoAGIAXwBwADEAPQAyADsAVgBTAFQAQQBQAEUATABOACgASABTAFQAQQBQAEUATABOACgAXAAiAFwAIgA7AGkAZABfAGIAdgBhAGwAKQA7AEgAUwBUAEEAUABFAEwATgAoAGkAZABfAGEAdgBhAGwAOwByAGUAcwB1AGwAdABzACkAKQA7AEgAUwBUAEEAUABFAEwATgAoAGkAZABfAGEAdgBhAGwAOwByAGUAcwB1AGwAdABzACkAKQA7AHIAZQBzAHUAbAB0AHMAKQApACkAOwA7AFwAbgBUAEEAQgBMAEUALgBTAEUATABFAEMAVAA9AEwAQQBNAEIARABBACgAdABhAGIAXwBuAGEAbQBlADsAYwBvAGwAXwBuAGEAbQBlAHMAOwBbAHcAaQB0AGgAXwBoAGUAYQBkAGUAcgBzAF0AOwBsAGUAdAAoAG4AXwByAG8AdwBzADsAWgBFAEkATABFAE4AKABJAE4ARABJAFIARQBLAFQAKAB0AGEAYgBfAG4AYQBtAGUAKQApADsAYwBvAGwAXwByAGUAZgBzADsAdABhAGIAXwBuAGEAbQBlACYAXAAiAFsAXAAiACYAYwBvAGwAXwBuAGEAbQBlAHMAJgBcACIAXQBcACIAOwBuAG8AXwByAG8AdwBzADsAcwBlAHEAdQBlAG4AegAoAG4AXwByAG8AdwBzACkAOwBuAG8AXwBjAG8AbABzADsAcwBlAHEAdQBlAG4AegAoAEEATgBaAEEASABMADIAKABjAG8AbABfAG4AYQBtAGUAcwApACkAKwAxADsAYwBvAGwAXwBoAGUAYQBkAGUAcgBzADsAVwBFAE4ATgAoAFoARQBJAEwARQBOACgAYwBvAGwAXwBuAGEAbQBlAHMAKQA+AFMAUABBAEwAVABFAE4AKABjAG8AbABfAG4AYQBtAGUAcwApADsATQBUAFIAQQBOAFMAKABjAG8AbABfAG4AYQBtAGUAcwApADsAYwBvAGwAXwBuAGEAbQBlAHMAKQA7AHIAZQBzAHUAbAB0ADsAUwBQAEEATABUAEUATgBXAEEASABMACgAUgBFAEQAVQBDAEUAKABuAG8AXwByAG8AdwBzADsAYwBvAGwAXwByAGUAZgBzADsATABBAE0AQgBEAEEAKABhAGMAYwB1ADsAYwBvAGwAXwByAGUAZgA7AEgAUwBUAEEAUABFAEwATgAoAGEAYwBjAHUAOwBMAEUAVAAoAHYAYQBsAHUAZQBzADsASQBOAEQASQBSAEUASwBUACgAYwBvAGwAXwByAGUAZgApADsAdwBlAG4AbgAoAEkAUwBUAEwARQBFAFIAKAB2AGEAbAB1AGUAcwApADsAIwBOAFYAOwB2AGEAbAB1AGUAcwApACkAKQApACkAOwBuAG8AXwBjAG8AbABzACkAOwBXAEUATgBOACgATwBEAEUAUgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKAB3AGkAdABoAF8AaABlAGEAZABlAHIAcwApADsATgBJAEMASABUACgAdwBpAHQAaABfAGgAZQBhAGQAZQByAHMAKQApADsAcgBlAHMAdQBsAHQAOwBWAFMAVABBAFAARQBMAE4AKABjAG8AbABfAGgAZQBhAGQAZQByAHMAOwByAGUAcwB1AGwAdAApACkAKQApADsAOwBcAG4AQwBIAEkAUQBVAC4AVABFAFMAVAAuAFMAPQBMAEEATQBCAEQAQQAoAHgAXwBpADsAeQBfAGkAOwBbAGgAZQBhAGQAZQByAF0AOwBMAEUAVAAoAG4AXwBpAGoAOwBTAFQAQQBUAC4AVABBAEIATABFACgAeABfAGkAOwB5AF8AaQApADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGUAcgApADsAQwBIAEkAUQBVAC4AVABFAFMAVAAuAFgAKABuAF8AaQBqADsARgBBAEwAUwBDAEgAKQA7AEMASABJAFEAVQAuAFQARQBTAFQALgBYACgAbgBfAGkAagA7AGgAZQBhAGQAZQByACkAKQApACkAOwA7AEMASABJAFEAVQAuAFQARQBTAFQAMgA9AEMASABJAFEAVQAuAFQARQBTAFQALgBTADsAOwBcAG4AQwBIAEkAUQBVAC4AVABFAFMAVAAyAC4ASABFAEEARABFAFIAPQBMAEEATQBCAEQAQQAoAEgAUwBUAEEAUABFAEwATgAoAFwAIgBwAFwAIgA7AFwAIgBkAGYAXAAiACkAKQA7ADsAXABuAEMASABJAFEAVQAuAFQARQBTAFQALgBYAD0ATABBAE0AQgBEAEEAKABuAF8AaQBqADsAWwBoAGUAYQBkAGUAcgBdADsATABFAFQAKABuAF8AaQA7AHIAbwB3AHMAdQBtACgAbgBfAGkAagApADsAbgBfAGoAOwBjAG8AbABzAHUAbQAoAG4AXwBpAGoAKQA7AG4AOwBTAFUATQBNAEUAKABuAF8AagApADsARQBXADsAbgBfAGkAKgBuAF8AagAvAG4AOwB2AF8AeABpADIAOwBTAFUATQBNAEUAKAAoAG4AXwBpAGoALQBFAFcAKQBeADIALwBFAFcAKQA7AGQAZgA7AE0AQQBYACgAQQBOAFoAQQBIAEwAKABuAF8AaQApADsAQQBOAFoAQQBIAEwAKABuAF8AagApACkALQAxADsAcgBlAHMAdQBsAHQAcwA7AEgAUwBUAEEAUABFAEwATgAoAEMASABJAFEAVQAuAFYARQBSAFQALgBSAEUAKAB2AF8AeABpADIAOwBkAGYAKQA7AGQAZgApADsAdwBlAG4AbgAoAE8ARABFAFIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAKQA7AE4ASQBDAEgAVAAoAGgAZQBhAGQAZQByACkAKQA7AHIAZQBzAHUAbAB0AHMAOwBWAFMAVABBAFAARQBMAE4AKABDAEgASQBRAFUALgBUAEUAUwBUADIALgBIAEUAQQBEAEUAUgAoACkAOwByAGUAcwB1AGwAdABzACkAKQApACkAOwA7AFwAbgBEAFUATgBOAC4AVABFAFMAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFsAYQBkAGoAdQBzAHQAbQBlAG4AdABdADsATABFAFQAKAByAGEAbgBrAHMAOwBSAEEATgBHAC4ATQBJAFQAVABFAEwAVwAoAHYAYQBsAHUAZQBzADsAdgBhAGwAdQBlAHMAKQA7AG4AXwBhAGwAbAA7AEEATgBaAEEASABMACgAdgBhAGwAdQBlAHMAKQA7AG4AXwBpADsARwBSAE8AVQBQAC4AQwBPAFUATgBUACgAZwByAG8AdQBwAHMAKQA7AGcAcgBvAHUAcABfAGkAOwBFAEkATgBEAEUAVQBUAEkARwAoAGcAcgBvAHUAcABzACkAOwByAGEAbgBrAHMAdQBtAF8AaQA7AEMATwBMAFMAVQBNACgAcgBhAG4AawBzACoAKABnAHIAbwB1AHAAcwA9AE0AVABSAEEATgBTACgAZwByAG8AdQBwAF8AaQApACkAKQAvAE0AVABSAEEATgBTACgAbgBfAGkAKQA7AHMAaQBnAG0AYQBfAGMAbwByAHIAZQBjAHQAaQBvAG4AOwBuAF8AYQBsAGwAKgAoAG4AXwBhAGwAbAArADEAKQAvADEAMgA7AGIAaQBuAGQAXwBjAG8AdQBuAHQAOwBHAFIATwBVAFAALgBDAE8AVQBOAFQAKAByAGEAbgBrAHMAKQA7AGIAaQBuAGQAXwBjAG8AcgByAGUAYwB0AGkAbwBuADsAUwBVAE0ATQBFACgAYgBpAG4AZABfAGMAbwB1AG4AdABeADMALQBiAGkAbgBkAF8AYwBvAHUAbgB0ACkALwAoADEAMgAqACgAbgBfAGEAbABsAC0AMQApACkAOwBtAGEAdABfAHQAcgBpAGEAbgBnADsATQBUAFIASQBBAE4ARwBMAEUAKABBAE4AWgBBAEgATAAoAG4AXwBpACkAOwBGAEEATABTAEMASAA7AFcAQQBIAFIAKQA7AG0AYQB0AF8AVwAxADsAbQBhAHQAXwB0AHIAaQBhAG4AZwAqAG0AdAByAGEAbgBzACgAcgBhAG4AawBzAHUAbQBfAGkAKQA7AG0AYQB0AF8AVwAyADsAbQBhAHQAXwB0AHIAaQBhAG4AZwAqAHIAYQBuAGsAcwB1AG0AXwBpADsAbQBhAHQAXwBuADEAOwBtAGEAdABfAHQAcgBpAGEAbgBnACoATQBUAFIAQQBOAFMAKAAxAC8AbgBfAGkAKQA7AG0AYQB0AF8AbgAyADsAbQBhAHQAXwB0AHIAaQBhAG4AZwAqADEALwBuAF8AaQA7AHMAaQBnAG0AYQA7AFcAVQBSAFoARQBMACgAKABzAGkAZwBtAGEAXwBjAG8AcgByAGUAYwB0AGkAbwBuAC0AYgBpAG4AZABfAGMAbwByAHIAZQBjAHQAaQBvAG4AKQAqACgAbQBhAHQAXwBuADEAKwBtAGEAdABfAG4AMgApACkAOwBkAGUAbAB0AGEAXwBSAFMAOwBtAGEAdABfAFcAMQAtAG0AYQB0AF8AVwAyADsAegBfAHYAYQBsAHUAZQA7AGQAZQBsAHQAYQBfAFIAUwAvAHMAaQBnAG0AYQA7AGcAXwBuAGIAcgA7AFMARQBRAFUARQBOAFoAKABBAE4AWgBBAEgATAAoAG4AXwBpACkAKQA7AHoAXwBpAGQAXwByAGEAdwA7AHoAdQBzAHAAYQBsAHQAZQAoAGcAXwBuAGIAcgAqAG0AYQB0AF8AdAByAGkAYQBuAGcAKQA7AHMAXwBpAGQAXwByAGEAdwA7AHoAdQBzAHAAYQBsAHQAZQAoAG0AdAByAGEAbgBzACgAZwBfAG4AYgByACkAKgBtAGEAdABfAHQAcgBpAGEAbgBnACkAOwB6AF8AaQBkADsAZgBpAGwAdABlAHIAKAB6AF8AaQBkAF8AcgBhAHcAOwB6AF8AaQBkAF8AcgBhAHcAKQA7AHMAXwBpAGQAOwBmAGkAbAB0AGUAcgAoAHMAXwBpAGQAXwByAGEAdwA7AHMAXwBpAGQAXwByAGEAdwApADsAegBfAGYAaQBuAGEAbAA7AGkAbgBkAGUAeAAoAHoAXwB2AGEAbAB1AGUAOwB6AF8AaQBkADsAcwBfAGkAZAApADsAbQBfAHAAYQBpAHIAcwA7AHMAdQBtAG0AZQAoAFMARQBRAFUARQBOAFoAKABBAE4AWgBBAEgATAAoAG4AXwBpACkAOwAxADsAMAApACkAOwBwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBOAE8AUgBNAC4AUwAuAFYARQBSAFQAKAB3AGUAbgBuACgAegBfAGYAaQBuAGEAbAA+ADAAOwAtADEAKgB6AF8AZgBpAG4AYQBsADsAegBfAGYAaQBuAGEAbAApADsAVwBBAEgAUgApADsAcABfAHYAYQBsAHUAZQA7AFcARQBOAE4AUwAoAE8ARABFAFIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAGgAbwBsAG0AXAAiACkAOwBQAC4AQQBEAEoALgBIAE8ATABNACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAbQBfAHAAYQBpAHIAcwApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAGIAbwBuAGYAZQByAHIAbwBuAGkAXAAiADsAUAAuAEEARABKAC4AQgBPAE4ARgBFAFIAUgBPAE4ASQAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AG0AXwBwAGEAaQByAHMAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AYwBoAGIAZQByAGcAXAAiADsAUAAuAEEARABKAC4ASABPAEMASABCAEUAUgBHACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAbQBfAHAAYQBpAHIAcwApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBtAF8AcABhAGkAcgBzACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBzAGkAZABhAGsAXAAiADsAUAAuAEEARABKAC4ASABPAEwATQBfAFMASQBEAEEASwAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AG0AXwBwAGEAaQByAHMAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AbABtAC0AcwBpAGQAYQBrAFwAIgA7AFAALgBBAEQASgAuAEgATwBMAE0AXwBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBtAF8AcABhAGkAcgBzACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBfAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAbQBfAHAAYQBpAHIAcwApADsAVwBBAEgAUgA7AHAAXwB2AGEAbAB1AGUAXwByAGEAdwApADsAdgBzAHQAYQBwAGUAbABuACgASABTAFQAQQBQAEUATABOACgAXAAiAEEAXAAiADsAXAAiAEIAXAAiADsAXAAiAFMAdABhAHQAaQBzAHQAaQBrAFwAIgA7AFwAIgBwAFwAIgApADsASABTAFQAQQBQAEUATABOACgAWgBFAEkATABFAE4AVwBBAEgATAAoAGcAcgBvAHUAcABfAGkAOwB6AF8AaQBkACkAOwB6AGUAaQBsAGUAbgB3AGEAaABsACgAZwByAG8AdQBwAF8AaQA7AHMAXwBpAGQAKQA7AHoAXwBmAGkAbgBhAGwAOwB3AGUAbgBuACgAcABfAHYAYQBsAHUAZQA+ADEAOwAxADsAcABfAHYAYQBsAHUAZQApACkAKQApACkAOwA7AFwAbgBGAC4AVABFAFMAVAAuAFMAPQBMAEEATQBCAEQAQQAoAGEAXwB2ADsAdQBfAHYAOwBbAGgAZQBhAGQAZQByAHMAXQA7AEwARQBUACgAbABfAHUAdgA7AFoAVQBTAFAAQQBMAFQARQAoAEUASQBOAEQARQBVAFQASQBHACgAdQBfAHYAKQApADsAcgBlAHMAdQBsAHQAOwBXAEUATgBOACgAQQBOAFoAQQBIAEwAMgAoAGwAXwB1AHYAKQA9ADIAOwBGAC4AVABFAFMAVAAoAEYASQBMAFQARQBSACgAYQBfAHYAOwB1AF8AdgA9AEkATgBEAEUAWAAoAHUAXwB2ADsAMQA7ADEAKQApADsARgBJAEwAVABFAFIAKABhAF8AdgA7AHUAXwB2AD0ASQBOAEQARQBYACgAdQBfAHYAOwAyADsAMQApACkAKQA7ACMAVwBFAFIAVAAhACkAOwBXAEUATgBOACgATwBEAEUAUgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGUAcgBzACkAOwBOAEkAQwBIAFQAKABoAGUAYQBkAGUAcgBzACkAKQA7AHIAZQBzAHUAbAB0ADsAVgBTAFQAQQBQAEUATABOACgAXAAiAHAAXAAiADsAcgBlAHMAdQBsAHQAKQApACkAKQA7ADsAXABuAEsAUgBVAFMASwBBAEwAXwBXAEEATABMAEkAUwAuAFQARQBTAFQAPQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBbAGgAZQBhAGQAZQByAHMAXQA7AEwARQBUACgAbgBfAGEAbABsADsAQQBOAFoAQQBIAEwAKAB2AGEAbAB1AGUAcwApADsAbgBfAGcAcgBvAHUAcABzADsAQQBOAFoAQQBIAEwAMgAoAEUASQBOAEQARQBVAFQASQBHACgAZwByAG8AdQBwAHMAKQApADsAZABfAGYAOwBuAF8AZwByAG8AdQBwAHMALQAxADsAbgBfAGgAOwBHAFIATwBVAFAALgBDAE8AVQBOAFQAKABnAHIAbwB1AHAAcwApADsAcgBhAG4AawBzADsAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKAB2AGEAbAB1AGUAcwA7AHYAYQBsAHUAZQBzACkAOwBiAF8AYgBpAG4AZABpAG4AZwBzADsAQQBOAFoAQQBIAEwAKABFAEkATgBEAEUAVQBUAEkARwAoAHIAYQBuAGsAcwApACkAPABuAF8AYQBsAGwAOwBoAF8AYwBvAHIAcgBlAGMAdABpAG8AbgA7AC0AMwAqACgAbgBfAGEAbABsACsAMQApADsAaABfAGYAYQBjAHQAbwByADsAMQAyAC8AKABuAF8AZwByAG8AdQBwAHMAKgAoAG4AXwBnAHIAbwB1AHAAcwArADEAKQAtAGgAXwBjAG8AcgByAGUAYwB0AGkAbwBuACkAOwBtAF8AZwByAG8AdQBwAHMAOwAxACoAKABnAHIAbwB1AHAAcwA9AE0AVABSAEEATgBTACgARQBJAE4ARABFAFUAVABJAEcAKABnAHIAbwB1AHAAcwApACkAKQA7AEgAXwBjAG8AcgBlADsAaABfAGYAYQBjAHQAbwByACoAUwBVAE0ATQBFACgAQwBPAEwAUwBVAE0AKABtAF8AZwByAG8AdQBwAHMAKgByAGEAbgBrAHMAKQAvAE0AVABSAEEATgBTACgAbgBfAGgAKQApADsAYgBpAG4AZABfAGYAYQBjAHQAbwByADsAMQAvACgAbgBfAGEAbABsAF4AMwAtAG4AXwBhAGwAbAApADsAYgBpAG4AZABfAGMAbwB1AG4AdAA7AEcAUgBPAFUAUAAuAEMATwBVAE4AVAAoAHIAYQBuAGsAcwApADsAYgBpAG4AZABfAGMAbwByAHIAZQBjAHQAaQBvAG4AOwAxAC0AUwBVAE0ATQBFACgAYgBpAG4AZABfAGMAbwB1AG4AdABeADMALQBiAGkAbgBkAF8AYwBvAHUAbgB0ACkAKgBiAGkAbgBkAF8AZgBhAGMAdABvAHIAOwBIAF8AdgBhAGwAdQBlADsAdwBlAG4AbgAoAGIAXwBiAGkAbgBkAGkAbgBnAHMAOwBIAF8AYwBvAHIAZQAvAGIAaQBuAGQAXwBjAG8AcgByAGUAYwB0AGkAbwBuADsASABfAGMAbwByAGUAKQA7AHAAXwB2AGEAbAB1AGUAOwBDAEgASQBRAFUALgBWAEUAUgBUAC4AUgBFACgASABfAHYAYQBsAHUAZQA7AGQAXwBmACkAOwByAGUAcwB1AGwAdABzADsASABTAFQAQQBQAEUATABOACgASABfAHYAYQBsAHUAZQA7AGQAXwBmADsAcABfAHYAYQBsAHUAZQApADsAdwBlAG4AbgAoAG8AZABlAHIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAcwApADsAbgBpAGMAaAB0ACgAaABlAGEAZABlAHIAcwApACkAOwByAGUAcwB1AGwAdABzADsAVgBTAFQAQQBQAEUATABOACgASABTAFQAQQBQAEUATABOACgAXAAiAEgAXAAiADsAXAAiAGQAZgBcACIAOwBcACIAcABcACIAKQA7AHIAZQBzAHUAbAB0AHMAKQApACkAKQA7ADsAXABuAFAAQQBJAFIAVwBJAFMARQAuAEYALgBUAEUAUwBUAD0ATABBAE0AQgBEAEEAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzADsAWwBhAGQAagB1AHMAdABtAGUAbgB0AF0AOwBMAEUAVAAoAG4AXwBhAGwAbAA7AEEATgBaAEEASABMACgAdgBhAGwAdQBlAHMAKQA7AGcAcgBvAHUAcABfAG4AYQBtAGUAcwA7AEUASQBOAEQARQBVAFQASQBHACgAZwByAG8AdQBwAHMAKQA7AGsAXwBhAGwAbAA7AEEATgBaAEEASABMADIAKABnAHIAbwB1AHAAXwBuAGEAbQBlAHMAKQA7AG0AXwB0AHIAaQBhAG4AZwA7AE0AVABSAEkAQQBOAEcATABFACgAawBfAGEAbABsADsAOwAxACkAOwBnAHIAbwB1AHAAXwBpAGQAOwBTAEUAUQBVAEUATgBaACgAawBfAGEAbABsACkAOwBnAHIAcABfADEAOwBaAFUAUwBQAEEATABUAEUAKABtAF8AdAByAGkAYQBuAGcAKgBnAHIAbwB1AHAAXwBpAGQAKQA7AGcAcgBwAF8AMgA7AFoAVQBTAFAAQQBMAFQARQAoAG0AXwB0AHIAaQBhAG4AZwAqAE0AVABSAEEATgBTACgAZwByAG8AdQBwAF8AaQBkACkAKQA7AGcAMQBfAGkAZAA7AGYAaQBsAHQAZQByACgAZwByAHAAXwAxADsAZwByAHAAXwAxACkAOwBnADIAXwBpAGQAOwBmAGkAbAB0AGUAcgAoAGcAcgBwAF8AMgA7AGcAcgBwAF8AMgApADsAZwAxAF8AbgBhAG0AZQBzADsASQBOAEQARQBYACgAZwByAG8AdQBwAF8AbgBhAG0AZQBzADsAZwAxAF8AaQBkACkAOwBnADIAXwBuAGEAbQBlAHMAOwBJAE4ARABFAFgAKABnAHIAbwB1AHAAXwBuAGEAbQBlAHMAOwBnADIAXwBpAGQAKQA7AHAAXwB2AGEAbAB1AGUAcwA7AG0AYQBwACgAZwAxAF8AbgBhAG0AZQBzADsAZwAyAF8AbgBhAG0AZQBzADsATABBAE0AQgBEAEEAKABhAF8AdgA7AGIAXwB2ADsARgAuAFQARQBTAFQAKABmAGkAbAB0AGUAcgAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAPQBhAF8AdgApADsAZgBpAGwAdABlAHIAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzAD0AYgBfAHYAKQApACkAKQA7AHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AHcAZQBuAG4AKABwAF8AdgBhAGwAdQBlAHMAPgAwAC4ANQA7ADEALQBwAF8AdgBhAGwAdQBlAHMAOwBwAF8AdgBhAGwAdQBlAHMAKQA7AHAAXwBzAHQAYQByADsAMgAqAFcARQBOAE4AUwAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAYgBvAG4AZgBlAHIAcgBvAG4AaQBcACIAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGMAaABiAGUAcgBnAFwAIgA7AFAALgBBAEQASgAuAEgATwBDAEgAQgBFAFIARwAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AGsAXwBhAGwAbAApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBrAF8AYQBsAGwAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AbABtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQAtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBfAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBXAEEASABSADsAcABfAHYAYQBsAHUAZQBfAHIAYQB3ACkAOwBoAHMAdABhAHAAZQBsAG4AKABnADEAXwBuAGEAbQBlAHMAOwBnADIAXwBuAGEAbQBlAHMAOwB3AGUAbgBuACgAcABfAHMAdABhAHIAPgAxADsAMQA7AHAAXwBzAHQAYQByACkAKQApACkAOwA7AFwAbgBQAEEASQBSAFcASQBTAEUALgBUAC4AVABFAFMAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFsAYQBkAGoAdQBzAHQAbQBlAG4AdABdADsATABFAFQAKABuAF8AYQBsAGwAOwBBAE4AWgBBAEgATAAoAHYAYQBsAHUAZQBzACkAOwBnAHIAbwB1AHAAXwBuAGEAbQBlAHMAOwBFAEkATgBEAEUAVQBUAEkARwAoAGcAcgBvAHUAcABzACkAOwBrAF8AYQBsAGwAOwBBAE4AWgBBAEgATAAyACgAZwByAG8AdQBwAF8AbgBhAG0AZQBzACkAOwBtAF8AdAByAGkAYQBuAGcAOwBNAFQAUgBJAEEATgBHAEwARQAoAGsAXwBhAGwAbAA7ADsAMQApADsAZwByAG8AdQBwAF8AaQBkADsAUwBFAFEAVQBFAE4AWgAoAGsAXwBhAGwAbAApADsAZwByAHAAXwAxADsAWgBVAFMAUABBAEwAVABFACgAbQBfAHQAcgBpAGEAbgBnACoAZwByAG8AdQBwAF8AaQBkACkAOwBnAHIAcABfADIAOwBaAFUAUwBQAEEATABUAEUAKABtAF8AdAByAGkAYQBuAGcAKgBNAFQAUgBBAE4AUwAoAGcAcgBvAHUAcABfAGkAZAApACkAOwBnADEAXwBpAGQAOwBmAGkAbAB0AGUAcgAoAGcAcgBwAF8AMQA7AGcAcgBwAF8AMQApADsAZwAyAF8AaQBkADsAZgBpAGwAdABlAHIAKABnAHIAcABfADIAOwBnAHIAcABfADIAKQA7AGcAMQBfAG4AYQBtAGUAcwA7AEkATgBEAEUAWAAoAGcAcgBvAHUAcABfAG4AYQBtAGUAcwA7AGcAMQBfAGkAZAApADsAZwAyAF8AbgBhAG0AZQBzADsASQBOAEQARQBYACgAZwByAG8AdQBwAF8AbgBhAG0AZQBzADsAZwAyAF8AaQBkACkAOwBwAF8AdgBhAGwAdQBlAHMAOwBtAGEAcAAoAGcAMQBfAG4AYQBtAGUAcwA7AGcAMgBfAG4AYQBtAGUAcwA7AEwAQQBNAEIARABBACgAYQBfAHYAOwBiAF8AdgA7AFQALgBUAEUAUwBUACgAZgBpAGwAdABlAHIAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzAD0AYQBfAHYAKQA7AGYAaQBsAHQAZQByACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA9AGIAXwB2ACkAOwAyADsAMwApACkAKQA7AHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AHcAZQBuAG4AKABwAF8AdgBhAGwAdQBlAHMAPgAwAC4ANQA7ADEALQBwAF8AdgBhAGwAdQBlAHMAOwBwAF8AdgBhAGwAdQBlAHMAKQA7AHAAXwBzAHQAYQByADsAMgAqAFcARQBOAE4AUwAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAYgBvAG4AZgBlAHIAcgBvAG4AaQBcACIAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGMAaABiAGUAcgBnAFwAIgA7AFAALgBBAEQASgAuAEgATwBDAEgAQgBFAFIARwAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AGsAXwBhAGwAbAApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBrAF8AYQBsAGwAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AbABtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQAtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBfAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBXAEEASABSADsAcABfAHYAYQBsAHUAZQBfAHIAYQB3ACkAOwBoAHMAdABhAHAAZQBsAG4AKABnADEAXwBuAGEAbQBlAHMAOwBnADIAXwBuAGEAbQBlAHMAOwB3AGUAbgBuACgAcABfAHMAdABhAHIAPgAxADsAMQA7AHAAXwBzAHQAYQByACkAKQApACkAOwA7AFwAbgBUAC4AVABFAFMAVAAuAFMAPQBMAEEATQBCAEQAQQAoAHAAXwB2AGEAbAB1AGUAcwA7AHAAXwBnAHIAbwB1AHAAcwA7AFsAYQBsAHQAZQByAG4AYQB0AGkAdgBlAF0AOwBbAHAAYQBpAHIAZQBkAF0AOwBMAEUAVAAoAGEAYgBfAG4AYQBtAGUAcwA7AEUASQBOAEQARQBVAFQASQBHACgAcABfAGcAcgBvAHUAcABzACkAOwBwAGEAaQByAGUAZAA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAcABhAGkAcgBlAGQAKQA7ADMAOwB3AGUAbgBuACgAcABhAGkAcgBlAGQAOwAxADsAMwApACkAOwBhAGwAdABlAHIAbgBhAHQAaQB2AGUAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApADsAXAAiAHQAXAAiADsAUABSAEUAUAAuAEEATABUAEUAUgBOAEEAVABJAFYARQAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApACkAOwBhAGwAdABWADsAMQArACgAYQBsAHQAZQByAG4AYQB0AGkAdgBlAD0AXAAiAHQAXAAiACkAOwBhAGwAdABPADsAYQBsAHQAZQByAG4AYQB0AGkAdgBlAD0AXAAiAGcAXAAiADsAZwBfADEAOwBaAEUASQBMAEUATgBXAEEASABMACgAYQBiAF8AbgBhAG0AZQBzADsAMQApADsAZwBfADIAOwBaAEUASQBMAEUATgBXAEEASABMACgAYQBiAF8AbgBhAG0AZQBzADsAMgApADsAcABfAHYAOwBXAEUATgBOACgAQQBOAFoAQQBIAEwAMgAoAGEAYgBfAG4AYQBtAGUAcwApAD0AMgA7AFQALgBUAEUAUwBUACgARgBJAEwAVABFAFIAKABwAF8AdgBhAGwAdQBlAHMAOwBwAF8AZwByAG8AdQBwAHMAPQBnAF8AMQApADsARgBJAEwAVABFAFIAKABwAF8AdgBhAGwAdQBlAHMAOwBwAF8AZwByAG8AdQBwAHMAPQBnAF8AMgApADsAYQBsAHQAVgA7AHAAYQBpAHIAZQBkACkAOwAjAFcARQBSAFQAIQApADsAbQB3AF8AMQA7AE0ASQBUAFQARQBMAFcARQBSAFQAKABGAEkATABUAEUAUgAoAHAAXwB2AGEAbAB1AGUAcwA7AHAAXwBnAHIAbwB1AHAAcwA9AGcAXwAxACkAKQA7AG0AdwBfADIAOwBNAEkAVABUAEUATABXAEUAUgBUACgARgBJAEwAVABFAFIAKABwAF8AdgBhAGwAdQBlAHMAOwBwAF8AZwByAG8AdQBwAHMAPQBnAF8AMgApACkAOwBIAFMAVABBAFAARQBMAE4AKABXAEUATgBOACgATwBEAEUAUgAoAFUATgBEACgAYQBsAHQATwA7AG0AdwBfADEAPABtAHcAXwAyACkAOwBVAE4ARAAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQA9AFwAIgBsAFwAIgA7AG0AdwBfADEAPgBtAHcAXwAyACkAKQA7ADEALQBwAF8AdgA7AHAAXwB2ACkAOwBUAEUAWABUAFYARQBSAEsARQBUAFQARQBOACgAZQByAHMAdABlAHIAdwBlAHIAdAAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQA7AFwAIgB0AFwAIgA7AFwAIgA8AD4AXAAiADsAXAAiAGwAXAAiADsAXAAiADwAXAAiADsAXAAiAGcAXAAiADsAXAAiAD4AXAAiACkAOwA7AGEAYgBfAG4AYQBtAGUAcwApACkAKQApADsAOwBcAG4AVwBJAEwAQwBPAFgATwBOAC4AVABFAFMAVAA9AEwAQQBNAEIARABBACgAcABfAHYAYQBsAHUAZQBzADsAcABfAGcAcgBvAHUAcABzADsAWwBhAGwAdABlAHIAbgBhAHQAaQB2AGUAXQA7AFsAcABhAGkAcgBlAGQAXQA7AFsAYwBvAHIAcgBlAGMAdABdADsATABFAFQAKABhAGwAdABlAHIAbgBhAHQAaQB2AGUAOwB3AGUAbgBuACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApADsAXAAiAHQAXAAiADsAUABSAEUAUAAuAEEATABUAEUAUgBOAEEAVABJAFYARQAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApACkAOwBjAG8AcgByAGUAYwB0ADsAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABjAG8AcgByAGUAYwB0ACkAOwBXAEEASABSADsAYwBvAHIAcgBlAGMAdAApADsAcABhAGkAcgBlAGQAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHAAYQBpAHIAZQBkACkAOwBGAEEATABTAEMASAA7AHAAYQBpAHIAZQBkACkAOwBhAGIAXwBuAGEAbQBlAHMAOwBFAEkATgBEAEUAVQBUAEkARwAoAHAAXwBnAHIAbwB1AHAAcwApADsAYQBiAF8AbgA7AEEATgBaAEEASABMADIAKABhAGIAXwBuAGEAbQBlAHMAKQA7AG4AXwBhAGIAOwBHAFIATwBVAFAALgBDAE8AVQBOAFQAKABwAF8AZwByAG8AdQBwAHMAKQA7AHcAZQBuAG4AKABVAE4ARAAoAGEAYgBfAG4APQAyADsAbgBfAGEAYgA+ADEAOwBPAEQARQBSACgATgBJAEMASABUACgAcABhAGkAcgBlAGQAKQA7AEkAUwAuAEEATABMAC4ARQBRAFUAQQBMACgAbgBfAGEAYgApACkAKQA7AEwARQBUACgAcgBhAG4AawA7AFIAQQBOAEcALgBNAEkAVABUAEUATABXACgAcABfAHYAYQBsAHUAZQBzADsAcABfAHYAYQBsAHUAZQBzACkAOwBTAFQAQQBUAEkAUwBUAEkAQwA7AE0ASQBOACgARwBSAE8AVQBQAC4AUwBVAE0AKAByAGEAbgBrADsAcABfAGcAcgBvAHUAcABzACkALQBuAF8AYQBiACoAKABuAF8AYQBiACsAMQApAC8AMgApADsAcAByAG8AZABfAGEAYgA7AFAAUgBPAEQAVQBLAFQAKABuAF8AYQBiACkAOwBzAHUAbQBfAGEAYgA7AFMAVQBNAE0ARQAoAG4AXwBhAGIAKQA7AHoAXwB2AGEAbAB1AGUAOwBTAFQAQQBUAEkAUwBUAEkAQwAtAHAAcgBvAGQAXwBhAGIALwAyADsAYwBvAHIAcgBlAGMAdABUAGkAZQBzADsAKABBAE4AWgBBAEgATAAoAEUASQBOAEQARQBVAFQASQBHACgAcgBhAG4AawApACkAPABBAE4AWgBBAEgATAAoAHIAYQBuAGsAKQApACoATABFAFQAKABOAFQASQBFAFMAOwBTAFQAQQBUAC4AVABBAEIATABFACgAcgBhAG4AawApADsAUwBVAE0ATQBFACgATgBUAEkARQBTAF4AMwAtAE4AVABJAEUAUwApAC8AKABzAHUAbQBfAGEAYgAqACgAcwB1AG0AXwBhAGIALQAxACkAKQApADsAUwBJAEcATQBBADsAVwBVAFIAWgBFAEwAKAAoAHAAcgBvAGQAXwBhAGIAKgAoACgAcwB1AG0AXwBhAGIAKwAxACkALQBjAG8AcgByAGUAYwB0AFQAaQBlAHMAKQApAC8AMQAyACkAOwBjAG8AcgByAGUAYwB0AGkAbwBuAF8AdgBhAGwAdQBlADsAYwBvAHIAcgBlAGMAdAAqAEUAUgBTAFQARQBSAFcARQBSAFQAKABhAGwAdABlAHIAbgBhAHQAaQB2AGUAOwBcACIAdABcACIAOwBTAFQAQQBUAC4AUwBJAEcATgAoAHoAXwB2AGEAbAB1AGUAKQAqADAALgA1ADsAXAAiAGwAXAAiADsALQAwAC4ANQA7AFwAIgBnAFwAIgA7ADAALgA1ADsAKQA7AFoAVgBBAEwAOwAoAHoAXwB2AGEAbAB1AGUALQBjAG8AcgByAGUAYwB0AGkAbwBuAF8AdgBhAGwAdQBlACkALwBTAEkARwBNAEEAOwBQAFYAQQBMADsAUwBUAEEAVAAuAEMATwBSAFIARQBDAFQALgBQAFYAQQBMAFUARQAoAE4ATwBSAE0ALgBWAEUAUgBUACgAWgBWAEEATAA7ADAAOwAxADsAVwBBAEgAUgApACkAOwBWAFMAVABBAFAARQBMAE4AKABIAFMAVABBAFAARQBMAE4AKABcACIAUwB0AGEAdABpAHMAdABpAGsAXAAiADsAXAAiAFoALQBXAGUAcgB0AFwAIgA7AFwAIgBwAC0AVwBlAHIAdABcACIAOwBcACIAQQBsAHQAZQByAG4AYQB0AGkAdgBlAFwAIgApADsASABTAFQAQQBQAEUATABOACgAUwBUAEEAVABJAFMAVABJAEMAOwBaAFYAQQBMADsAUABWAEEATAA7AFQARQBYAFQAVgBFAFIASwBFAFQAVABFAE4AKABlAHIAcwB0AGUAcgB3AGUAcgB0ACgAYQBsAHQAZQByAG4AYQB0AGkAdgBlADsAXAAiAHQAXAAiADsAXAAiADwAPgBcACIAOwBcACIAbABcACIAOwBcACIAPABcACIAOwBcACIAZwBcACIAOwBcACIAPgBcACIAKQA7ADsAYQBiAF8AbgBhAG0AZQBzACkAKQApACkAOwAjAFcARQBSAFQAIQApACkAKQA7ADsAXABuAFYATABFAE4ARwBUAEgAPQBMAEEATQBCAEQAQQAoAHYAZQBjAHQAbwByADsATABFAFQAKABjAG8AbABzADsAUwBQAEEATABUAEUATgAoAHYAZQBjAHQAbwByACkAOwBsAGUAbgBnAHQAaAA7AEkAUwAuAFYARQBDAFQATwBSACgAdgBlAGMAdABvAHIAKQAqACgAYwBvAGwAcwAqACgAYwBvAGwAcwA8AD4AMQApACsAWgBFAEkATABFAE4AKAB2AGUAYwB0AG8AcgApACoAKABjAG8AbABzAD0AMQApACkAOwB3AGUAbgBuACgAbABlAG4AZwB0AGgAOwBsAGUAbgBnAHQAaAA7ACMAVwBFAFIAVAAhACkAKQApADsAOwBcAG4AVgBSAEUAUABFAEEAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlADsAbgBfAHQAaQBtAGUAcwA7AFcARQBOAE4AKABVAE4ARAAoAEEATgBaAEEASABMADIAKAB2AGEAbAB1AGUAKQA9ADEAOwBBAE4AWgBBAEgATAAoAG4AXwB0AGkAbQBlAHMAKQA9ADEAOwBuAF8AdABpAG0AZQBzAD4AMAApADsAVwBFAE4ATgAoAEkAUwBUAFoAQQBIAEwAKAB2AGEAbAB1AGUAKQArAEkAUwBUAEwATwBHACgAdgBhAGwAdQBlACkAOwBTAEUAUQBVAEUATgBaACgAbgBfAHQAaQBtAGUAcwA7ADEAOwB2AGEAbAB1AGUAOwAwACkAOwBXAEUATgBOACgAUwBFAFEAVQBFAE4AWgAoAG4AXwB0AGkAbQBlAHMAKQA7AHYAYQBsAHUAZQApACkAOwAjAFcARQBSAFQAIQApACkAOwA7AFwAbgBTAFQAQQBUAC4ARABFAFMASwBSAEkAUABUAEkAVgA9AFMAVABBAFQALgBEAEUAUwBDAFIASQBCAEUAOwA7AFMAVABBAFQALgBEAEUAUwBLAFIASQBQAFQASQBWAC4ATQBFAFIASwBNAEEATABFAD0AUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAE4ATwBNAEkATgBBAEwAOwA7AFMAVABBAFQALgBEAEUAUwBLAFIASQBQAFQASQBWAC4ARgBBAEsAVABPAFIAUwBUAFUARgBFAE4APQBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFAC4ATgBPAE0ASQBOAEEATAA7ADsAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBOAE8ATQBJAE4AQQBMAD0AUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAE4ATwBNAEkATgBBAEwAOwA7AFMAVABBAFQALgBEAEUAUwBLAFIASQBQAFQASQBWAC4AQgBFAFMAQwBIAFIASQBGAFQAVQBOAEcAPQBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFAC4ATABBAEIARQBMAFMAOwA7AFMAVABBAFQALgBUAEEAQgBFAEwATABFAD0AUwBUAEEAVAAuAFQAQQBCAEwARQA7ADsAUwBUAEEAVAAuAFQAQQBCAEUATABMAEUALgBSAEUATABBAFQASQBWAD0AUwBUAEEAVAAuAFQAQQBCAEwARQAuAFIARQBMAEEAVABJAFYARQA7ADsAUwBUAEEAVAAuAEkAUQBBAD0AUwBUAEEAVAAuAEkAUQBSADsAOwBTAFQAQQBUAC4ATQBBAEEARAA9AFMAVABBAFQALgBNAEEARAA7ADsAUwBUAEEAVAAuAEcARQBCAFUATgBEAEUATgBFAC4AVgBBAFIASQBBAE4AWgA9AFMAVABBAFQALgBQAE8ATwBMAEUARAAuAFYAQQBSAEkAQQBOAEMARQA7ADsAUwBUAEEAVAAuAEcARQBQAE8ATwBMAFQARQAuAFYAQQBSAEkAQQBOAFoAPQBTAFQAQQBUAC4AUABPAE8ATABFAEQALgBWAEEAUgBJAEEATgBDAEUAOwA7AFMAVABBAFQALgBTAFQAQQBOAEQAQQBSAEQARgBFAEgATABFAFIAPQBTAFQAQQBUAC4AUwBFADsAOwBTAFQAQQBUAC4AUwBUAEQARgBFAEgATABFAFIAPQBTAFQAQQBUAC4AUwBFADsAOwBTAFQAQQBUAC4AVgBPAFIAWgBFAEkAQwBIAEUATgA9AFMAVABBAFQALgBTAEkARwBOADsAOwBLAE8AUgBSAEUATAAuAEMAUgBBAE0ARQBSAD0AQwBPAFIAUgAuAEMAUgBBAE0ARQBSADsAOwBLAE8AUgBSAEUATAAuAEMAUgBBAE0ARQBSAC4AVABFAFMAVAA9AEMATwBSAFIALgBDAFIAQQBNAEUAUgAuAFQARQBTAFQAOwA7AEsATwBSAFIARQBMAC4ASwBFAE4ARABBAEwAPQBDAE8AUgBSAC4ASwBFAE4ARABBAEwAOwA7AEsATwBSAFIARQBMAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUAD0AQwBPAFIAUgAuAEsARQBOAEQAQQBMAC4AVABFAFMAVAA7ADsASwBPAFIAUgBFAEwALgBTAFAARQBBAFIATQBBAE4APQBDAE8AUgBSAC4AUwBQAEUAQQBSAE0AQQBOADsAOwBLAE8AUgBSAEUATAAuAFAARQBBAFIAUwBPAE4APQBDAE8AUgBSAC4AUABFAEEAUgBTAE8ATgA7ADsASwBPAFIAUgBFAEwALgBQAEUAQQBSAFMATwBOAC4AVABFAFMAVAA9AEMATwBSAFIALgBQAEUAQQBSAFMATwBOAC4AVABFAFMAVAA7ADsAUgBFAEcAUgBFAFMAUwBJAE8ATgAuAFIARQBTAEkARABVAEUATgA9AFIARQBHAFIARQBTAFMASQBPAE4ALgBSAEUAUwBJAEQAVQBBAEwAUwA7ADsASwBSAFUAUwBLAEEATAAuAFcAQQBMAEwASQBTAC4AVABFAFMAVAA9AEsAUgBVAFMASwBBAEwAXwBXAEEATABMAEkAUwAuAFQARQBTAFQAOwA7AFAAQQBBAFIAVwBFAEkAUwBFAFIALgBUAC4AVABFAFMAVAA9AFAAQQBJAFIAVwBJAFMARQAuAFQALgBUAEUAUwBUADsAOwBQAEEAQQBSAFcARQBJAFMARQBSAC4AQQBCAC4AVABFAFMAVAA9AFAAQQBJAFIAVwBJAFMARQAuAFQALgBUAEUAUwBUADsAOwBBAEIALgBUAEUAUwBUAD0AVAAuAFQARQBTAFQALgBTADsAOwBTAFAAQQBMAFQARQBOAFMAVQBNAE0ARQA9AEMATwBMAFMAVQBNADsAOwBaAEUASQBMAEUATgBTAFUATQBNAEUAPQBSAE8AVwBTAFUATQA7ADsASwBVAE0AVQBMAEEAVABJAFYARQBTAFUATQBNAEUAPQBDAFUATQBTAFUATQA7ADsARwBSAFUAUABQAEUATgAuAFMAVQBNAE0ARQA9AEcAUgBPAFUAUAAuAFMAVQBNADsAOwBHAFIAVQBQAFAARQBOAC4AQQBOAFoAQQBIAEwAPQBHAFIATwBVAFAALgBDAE8AVQBOAFQAOwA7AEcAUgBVAFAAUABFAE4ALgBOAD0ARwBSAE8AVQBQAC4AQwBPAFUATgBUADsAOwBHAFIAVQBQAFAARQBOAC4ATQBJAFQAVABFAEwAVwBFAFIAVAA9AEcAUgBPAFUAUAAuAE0ARQBBAE4AOwA7AEcAUgBVAFAAUABFAE4ALgBNAEUARABJAEEATgA9AEcAUgBPAFUAUAAuAE0ARQBEAEkAQQBOADsAOwBHAFIAVQBQAFAARQBOAC4ATQBJAE4APQBHAFIATwBVAFAALgBNAEkATgA7ADsARwBSAFUAUABQAEUATgAuAE0AQQBYAD0ARwBSAE8AVQBQAC4ATQBBAFgAOwA7AEcAUgBVAFAAUABFAE4ALgBTAFQARABBAEIAVwA9AEcAUgBPAFUAUAAuAFMARAA7ADsARwBSAFUAUABQAEUATgAuAFMARAA9AEcAUgBPAFUAUAAuAFMARAA7ADsARwBSAFUAUABQAEUATgAuAFMARQA9AEcAUgBPAFUAUAAuAFMARQA7ADsARwBSAFUAUABQAEUATgAuAFMAVABBAE4ARABBAFIARABGAEUASABMAEUAUgA9AEcAUgBPAFUAUAAuAFMARQA7ADsARwBSAFUAUABQAEUATgAuAFMAVABEAEYARQBIAEwARQBSAD0ARwBSAE8AVQBQAC4AUwBFADsAOwBHAFIAVQBQAFAARQBOAC4ATQBBAEQAPQBHAFIATwBVAFAALgBNAEEARAA7ADsARwBSAFUAUABQAEUATgAuAEkAUQBBAD0ARwBSAE8AVQBQAC4ASQBRAFIAOwA7AEkAUwBUAC4AVgBFAEsAVABPAFIAPQBJAFMALgBWAEUAQwBUAE8AUgA7ADsAUwBJAE4ARAAuAEEATABMAEUALgBHAEwARQBJAEMASAA9AEkAUwAuAEEATABMAC4ARQBRAFUAQQBMADsAOwBJAFMAVAAuAEEATABMAEUALgBHAEwARQBJAEMASAA9AEkAUwAuAEEATABMAC4ARQBRAFUAQQBMADsAOwBWAEUASwBUAE8AUgAuAEwAxABOAEcARQA9AFYATABFAE4ARwBUAEgAOwA7AE0ARABJAE0ARQBOAFMASQBPAE4APQBNAEQASQBNADsAOwBNAFMAUABVAFIAPQBNAFQAUgBBAEMARQA7ADsASABXAEkARQBEAEUAUgBIAE8ATABFAE4APQBIAFIARQBQAEUAQQBUADsAOwBWAFcASQBFAEQARQBSAEgATwBMAEUATgA9AFYAUgBFAFAARQBBAFQAOwA7AE0ARABSAEUASQBFAEMASwA9AE0AVABSAEkAQQBOAEcATABFADsAOwBaAFUARgBBAEwATABTAE0AQQBUAFIASQBYAC4ATgBPAFIATQBBAEwAPQBSAEEATgBEAE8ATQAuAE4ATwBSAE0AOwA7AFMARQBRAFUARQBOAFoALgBJAE4AVABFAFIAVgBBAEwATAA9AFMARQBRAFUARQBOAEMARQAuAFIAQQBOAEcARQA7ADsAVABBAEIARQBMAEwARQBOAC4AQQBVAFMAVwBBAEgATAA9AFQAQQBCAEwARQAuAFMARQBMAEUAQwBUADsAOwBVAE4ARwDcAEwAVABJAEcARQAuAEwA1gBTAEMASABFAE4APQBSAEUATQBPAFYARQAuAEkATgBWAEEATABJAEQAOwA7AEUATgBUAEYARQBSAE4ARQAuAEYARQBIAEwARQBSAD0AUgBFAE0ATwBWAEUALgBJAE4AVgBBAEwASQBEADsAOwBTAEMASABOAEUATABMAC4ASwBPAEQASQBFAFIARQBOAD0AUQBVAEkAQwBLAC4AQwBPAEQARQA7ADsATwBOAEUALgBIAE8AVAA9AEQAVQBNAE0AWQAuAEMATwBEAEkATgBHADsAOwBPAE4ARQAuAEgATwBUAC4AQwBPAEQASQBOAEcAPQBEAFUATQBNAFkALgBDAE8ARABJAE4ARwA7ADsAXABuAFwAbgBNAEEAVABSAEkAWABfAFQATwBfAEwATwBOAEcAPQBMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAG0AYQB0AHIAaQB4ADsAWwBwAF8AaABlAGEAZABlAHIAcwBdADsAIABbAHAAXwB3AGkAdABoAG4AYQBtAGUAcwBdADsAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAXwBoAGUAYQBkAGUAcgBzADsAIABXAEUATgBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AaABlAGEAZABlAHIAcwApADsAIABXAEEASABSADsAIABwAF8AaABlAGEAZABlAHIAcwBcAG4AIAAgACAAIAAgACAAIAAgACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHAAXwB3AGkAdABoAG4AYQBtAGUAcwA7ACAAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AdwBpAHQAaABuAGEAbQBlAHMAKQA7ACAAewBcACIAbgBhAG0AZQBcACIAOwAgAFwAIgB2AGEAbAB1AGUAXAAiAH0AOwAgAHAAXwB3AGkAdABoAG4AYQBtAGUAcwApADsAXABuACAAIAAgACAAIAAgACAAIABiAF8AaABlAGEAZABlAHIAcwA7ACAAVQBOAEQAKABTAFAAQQBMAFQARQBOACgAcABfAGgAZQBhAGQAZQByAHMAKQAgAD0AIAAxADsAIABaAEUASQBMAEUATgAoAHAAXwBoAGUAYQBkAGUAcgBzACkAIAA9ACAAMQA7ACAAcABfAGgAZQBhAGQAZQByAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbgBfAGMAbwBsAHMAOwAgAFMAUABBAEwAVABFAE4AKABtAGEAdAByAGkAeAApADsAXABuACAAIAAgACAAIAAgACAAIABuAF8AcgBvAHcAcwA7ACAAWgBFAEkATABFAE4AKABtAGEAdAByAGkAeAApACAALQAgAGIAXwBoAGUAYQBkAGUAcgBzADsAXABuACAAIAAgACAAIAAgACAAIABzAGUAbABfAGgAZQBhAGQAZQByADsAIABXAEUATgBOAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEQAKABBAE4AWgBBAEgATAAyACgAcABfAGgAZQBhAGQAZQByAHMAKQAgAD0AIABuAF8AYwBvAGwAcwA7ACAAUwBQAEEATABUAEUATgAoAHAAXwBoAGUAYQBkAGUAcgBzACkAIAA9ACAAbgBfAGMAbwBsAHMAKQA7ACAAcABfAGgAZQBhAGQAZQByAHMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBOAFoAQQBIAEwAMgAoAHAAXwBoAGUAYQBkAGUAcgBzACkAIAA9ACAAbgBfAGMAbwBsAHMAOwAgAE0AVABSAEEATgBTACgAcABfAGgAZQBhAGQAZQByAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABiAF8AaABlAGEAZABlAHIAcwA7ACAAWgBFAEkATABFAE4AVwBBAEgATAAoAG0AYQB0AHIAaQB4ADsAIAAxACkAOwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAEEASABSADsAIABTAEUAUQBVAEUATgBaACgAMQA7ACAAbgBfAGMAbwBsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBsAF8AaABlAGEAZABpAG4AZwA7ACAAVwBFAE4ATgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBEACgAQQBOAFoAQQBIAEwAMgAoAHAAXwB3AGkAdABoAG4AYQBtAGUAcwApACAAPQAgADIAOwAgAFoARQBJAEwARQBOACgAcABfAHcAaQB0AGgAbgBhAG0AZQBzACkAIAA9ACAAMQApADsAIABwAF8AdwBpAHQAaABuAGEAbQBlAHMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBOAFoAQQBIAEwAMgAoAHAAXwB3AGkAdABoAG4AYQBtAGUAcwApACAAPQAgADIAOwAgAE0AVABSAEEATgBTACgAcABfAHcAaQB0AGgAbgBhAG0AZQBzACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVwBBAEgAUgA7ACAARgBBAEwAUwBDAEgAXABuACAAIAAgACAAIAAgACAAIAApADsAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwA7ACAAWgBVAFMAUABBAEwAVABFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcARQBOAE4AKABiAF8AaABlAGEAZABlAHIAcwA7ACAAWgBFAEkATABFAE4AVwBBAEgATAAoAG0AYQB0AHIAaQB4ADsAIABTAEUAUQBVAEUATgBaACgAbgBfAHIAbwB3AHMAOwAxADsAMgApACkAOwAgAG0AYQB0AHIAaQB4ACkAXABuACAAIAAgACAAIAAgACAAIAApADsAXABuACAAIAAgACAAIAAgACAAIABpAGQAeABfAG4AOwAgAFIARQBTAFQAKABTAEUAUQBVAEUATgBaACgAbgBfAHIAbwB3AHMAIAAqACAAbgBfAGMAbwBsAHMAOwAgADEAOwAgADAAKQA7ACAAbgBfAGMAbwBsAHMAKQAgACsAIAAxADsAXABuACAAIAAgACAAIAAgACAAIABuAGEAbQBlAHMAOwAgAEkATgBEAEUAWAAoAHMAZQBsAF8AaABlAGEAZABlAHIAOwAgADEAOwAgAGkAZAB4AF8AbgApADsAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAA7ACAASABTAFQAQQBQAEUATABOACgAbgBhAG0AZQBzADsAIAB2AGEAbAB1AGUAcwApADsAXABuACAAIAAgACAAIAAgACAAIABXAEUATgBOACgAUwBQAEEATABUAEUATgAoAHMAZQBsAF8AaABlAGEAZABpAG4AZwApACAAPQAgADEAOwAgAHIAZQBzAHUAbAB0ADsAIABWAFMAVABBAFAARQBMAE4AKABzAGUAbABfAGgAZQBhAGQAaQBuAGcAOwAgAHIAZQBzAHUAbAB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAOwBcAG4AXABuAE0AQQBUAFIASQBYAC4AVABPAC4ATABPAE4ARwA9AE0AQQBUAFIASQBYAF8AVABPAF8ATABPAE4ARwA7ADsAXABuAFwAbgBNAEEAVABSAEkAWAAuAFoAVQAuAEwAQQBOAEcARgBPAFIATQA9AEwAQQBNAEIARABBACgAXABuACAAIAAgACAAbQBhAHQAcgBpAHgAOwAgAFsAcABfAG4AYQBtAGUAbgBdADsAIABbAHAAXwB0AHQAbABdADsAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAXwB0AHQAbAA7ACAAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AdAB0AGwAKQA7ACAAewBcACIATgBhAG0AZQBcACIAOwAgAFwAIgBXAGUAcgB0AFwAIgB9ADsAIABwAF8AdAB0AGwAKQA7AFwAbgAgACAAIAAgACAAIAAgACAATQBBAFQAUgBJAFgAXwBUAE8AXwBMAE8ATgBHACgAbQBhAHQAcgBpAHgAOwAgAHAAXwBuAGEAbQBlAG4AOwAgAHAAXwB0AHQAbAApAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4ARwBSAE8AVQBQAC4ATQBFAEQASQBBAE4APQBMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAHYAYQBsAHUAZQBzADsAIABnAHIAbwB1AHAAcwA7AFwAbgAgACAAIAAgAFMAUABBAEwAVABFAE4AVwBBAEgATAAoAFwAbgAgACAAIAAgACAAIAAgACAARwBSAFUAUABQAEkARQBSAEUATgBOAEEAQwBIACgAZwByAG8AdQBwAHMAOwAgAHYAYQBsAHUAZQBzADsAIABNAEUARABJAEEATgA7ADsAMAApADsAXABuACAAIAAgACAAIAAgACAAIAAyAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4AQQBOAE8AVgBBAC4AVABFAFMAVAAgAD0AIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAHYAYQBsAHUAZQBzADsAIABnAHIAbwB1AHAAcwA7ACAAWwBoAGUAYQBkAGUAcgBzAF0AOwBcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBfAGoAOwAgAEcAUgBPAFUAUAAuAEMATwBVAE4AVAAoAGcAcgBvAHUAcABzACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAGcAcgBvAHUAcABfAGsAOwAgAEEATgBaAEEASABMACgAbgBfAGoAKQA7AFwAbgAgACAAIAAgACAAIAAgACAATgBfAGEAbABsADsAIABBAE4AWgBBAEgATAAoAHYAYQBsAHUAZQBzACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAGQAZgBfADEAOwAgAGcAcgBvAHUAcABfAGsAIAAtACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAZABmAF8AMgA7ACAATgBfAGEAbABsACAALQAgAGcAcgBvAHUAcABfAGsAOwBcAG4AIAAgACAAIAAgACAAIAAgAG0AdQBfAGEAbABsADsAIABNAEkAVABUAEUATABXAEUAUgBUACgAdgBhAGwAdQBlAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbQB1AF8AagA7ACAARwBSAE8AVQBQAC4ATQBFAEEATgAoAHYAYQBsAHUAZQBzADsAIABnAHIAbwB1AHAAcwApADsAXABuACAAIAAgACAAIAAgACAAIABtAF8AZwByAG8AdQBwAHMAOwAgADEAKgAoAGcAcgBvAHUAcABzACAAPQAgAE0AVABSAEEATgBTACgARQBJAE4ARABFAFUAVABJAEcAKABnAHIAbwB1AHAAcwApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAdABfAFMAUwBCADsAIABTAFUATQBNAEUAKABuAF8AagAgACoAIAAoAG0AdQBfAGoAIAAtACAAbQB1AF8AYQBsAGwAKQBeADIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAdABfAFMAUwBFADsAIABTAFUATQBNAEUAKAAoAG0AXwBnAHIAbwB1AHAAcwAgACoAIAB2AGEAbAB1AGUAcwAgAC0AIABtAF8AZwByAG8AdQBwAHMAIAAqACAATQBUAFIAQQBOAFMAKABtAHUAXwBqACkAKQBeADIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAARgBfAHYAYQBsAHUAZQA7ACAAKAB0AF8AUwBTAEIAIAAvACAAZABmAF8AMQApACAALwAgACgAdABfAFMAUwBFACAALwAgAGQAZgBfADIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAcABfAHYAYQBsAHUAZQA7ACAARgAuAFYARQBSAFQAKABGAF8AdgBhAGwAdQBlADsAIABkAGYAXwAxADsAIABkAGYAXwAyADsAVwBBAEgAUgApAC8AMgA7AFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwA7ACAASABTAFQAQQBQAEUATABOACgARgBfAHYAYQBsAHUAZQA7ACAAZABmAF8AMQA7ACAAZABmAF8AMgA7ACAAcABfAHYAYQBsAHUAZQApADsAXABuACAAIAAgACAAIAAgACAAIAB3AGUAbgBuACgAbwBkAGUAcgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGUAcgBzACkAOwAgAG4AaQBjAGgAdAAoAGgAZQBhAGQAZQByAHMAKQApADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVgBTAFQAQQBQAEUATABOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAASABTAFQAQQBQAEUATABOACgAXAAiAEYAXAAiADsAIABcACIAZABmAF8AMQBcACIAOwAgAFwAIgBkAGYAXwAyAFwAIgA7ACAAXAAiAHAAXAAiACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABzAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAApAFwAbgApADsAOwBcAG4AXABuAEwARQBWAEUATgBFAC4AVABFAFMAVAAgAD0AIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAHgAXwBpADsAIAB5AF8AaQA7ACAAWwBoAGUAYQBkAGUAcgBzAF0AOwBcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAAbQBfAGEAbABsADsAIABTAFQAQQBUAC4ATQBFAEQASQBBAE4AKAB4AF8AaQApADsAXABuACAAIAAgACAAIAAgACAAIABtAF8AZwByAHAAOwAgAEcAUgBPAFUAUAAuAE0ARQBEAEkAQQBOACgAeABfAGkAOwAgAHkAXwBpACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAGwAXwBnAHIAcAA7ACAARQBJAE4ARABFAFUAVABJAEcAKAB5AF8AaQApADsAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwBpAF8AZwByAHAAOwAgACAAQQBCAFMAKAB4AF8AaQAgAC0AIAB4AHYAZQByAHcAZQBpAHMAKAB5AF8AaQA7ACAAbABfAGcAcgBwADsAIABtAF8AZwByAHAAKQApADsAXABuAFwAbgAgACAAIAAgACAAIAAgACAALwAvACAARgBJAFgATQBFADoAIAB1AHMAZQAgAHQAaABlACAAdABoAGUAIABhAGMAdAB1AGEAbAAgAGYAbwByAG0AdQBsAGEAIABmAG8AcgAgAHQAaABlACAAdABlAHMAdAAgAHMAdABhAHQAaQBzAHQAaQBjACAAcgBhAHQAaABlAHIAIAB0AGgAYQBuACAAdABoAGUAIABzAGgAbwByAHQAYwB1AHQAIAB2AGkAYQAgAHQAaABlACAAQQBOAE8AVgBBAC4AXABuACAAIAAgACAAIAAgACAAIABBAE4ATwBWAEEALgBUAEUAUwBUACgAcgBlAHMAaQBfAGcAcgBwADsAIAB5AF8AaQA7ACAAVwBBAEgAUgApAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4AXABuAFwAbgBMAEUAVgBFAE4ARQAuAFQARQBTAFQALgBCACAAPQAgAEwAQQBNAEIARABBACgAXABuACAAIAAgACAAeABfAGkAOwAgAHkAXwBpADsAIABbAGgAZQBhAGQAZQByAHMAXQA7AFwAbgAgACAAIAAgAEwARQBUACgAXABuACAAIAAgACAAIAAgACAAIAAvAC8AIABtAF8AYQBsAGwAOwAgAFMAVABBAFQALgBNAEUARABJAEEATgAoAHgAXwBpACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAG0AXwBnAHIAcAA7ACAARwBSAE8AVQBQAC4ATQBFAEQASQBBAE4AKAB4AF8AaQA7ACAAeQBfAGkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbQBuAF8AZwByAHAAOwAgAEcAUgBPAFUAUAAuAE0ARQBBAE4AKAB4AF8AaQA7ACAAeQBfAGkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbgBfAGcAcgBwADsAIABHAFIATwBVAFAALgBDAE8AVQBOAFQAKAB5AF8AaQApADsAXABuACAAIAAgACAAIAAgACAAIABsAF8AZwByAHAAOwAgAEUASQBOAEQARQBVAFQASQBHACgAeQBfAGkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAaQBfAGcAcgBwADsAIAAoAHgAXwBpACAALQAgAHgAdgBlAHIAdwBlAGkAcwAoAHkAXwBpADsAIABsAF8AZwByAHAAOwAgAG0AXwBnAHIAcAApACkAXgAyADsAXABuACAAIAAgACAAIAAgACAAIABtAF8AYQBsAGwAOwAgAE0ASQBUAFQARQBMAFcARQBSAFQAKAB4AF8AaQApADsAXABuACAAIAAgACAAIAAgACAAIABuAF8AYQBsAGwAOwAgAFMAVQBNAE0ARQAoAG4AXwBnAHIAcAApADsAXABuACAAIAAgACAAIAAgACAAIABuAF8AawA7ACAAQQBOAFoAQQBIAEwAMgAoAGwAXwBnAHIAcAApADsAXABuAFwAbgAgACAAIAAgACAAIAAgACAAVwBfAHYAYQBsADsAIAAoAG4AXwBhAGwAbAAgAC0AIABuAF8AawApACAALwAgACgAbgBfAGsAIAAtACAAMQApACAAKgAgACgAUwBVAE0ATQBFACgAbgBfAGcAcgBwACAAKgAgACgAbQBuAF8AZwByAHAAIAAtACAAbQBfAGEAbABsACkAXgAyACkALwAgAFMAVQBNAE0ARQAoAHIAZQBzAGkAXwBnAHIAcAApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHAAXwB2AGEAbAA7ACAARgAuAFYARQBSAFQAKABXAF8AdgBhAGwAOwAgAG4AXwBrACAALQAgADEAOwAgAG4AXwBhAGwAbAAgAC0AIABuAF8AawA7AFcAQQBIAFIAKQAvADIAOwBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMAOwAgAEgAUwBUAEEAUABFAEwATgAoAFcAXwB2AGEAbAA7AG4AXwBrACAALQAgADEAOwAgAG4AXwBhAGwAbAAgAC0AIABuAF8AawA7ACAAcABfAHYAYQBsACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHcAZQBuAG4AKABvAGQAZQByACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGgAZQBhAGQAZQByAHMAKQA7ACAAbgBpAGMAaAB0ACgAaABlAGEAZABlAHIAcwApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAFMAVABBAFAARQBMAE4AKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAFAARQBMAE4AKABcACIAVwBcACIAOwAgAFwAIgBkAGYAXwAxAFwAIgA7ACAAXAAiAGQAZgBfADIAXAAiADsAIABcACIAcABcACIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwA7ACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEMATwBMAFMAVQBNACIALAAiAEMATwBSAFIALgBDAFIAQQBNAEUAUgAiACwAIgBDAE8AUgBSAC4AQwBSAEEATQBFAFIALgBUAEUAUwBUACIALAAiAEMATwBSAFIALgBLAEUATgBEAEEATAAiACwAIgBDAE8AUgBSAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUACIALAAiAEMATwBSAFIALgBQAEUAQQBSAFMATwBOACIALAAiAEMATwBSAFIALgBQAEUAQQBSAFMATwBOAC4AVABFAFMAVAAiACwAIgBDAE8AUgBSAC4AUwBQAEUAQQBSAE0AQQBOACIALAAiAEMAVQBNAFMAVQBNACIALAAiAEQAVQBNAE0AWQAuAEMATwBEAEkATgBHACIALAAiAEcAUgBPAFUAUAAuAEMATwBVAE4AVAAiACwAIgBHAFIATwBVAFAALgBJAFEAUgAiACwAIgBHAFIATwBVAFAALgBNAEEARAAiACwAIgBHAFIATwBVAFAALgBNAEEAWAAiACwAIgBHAFIATwBVAFAALgBNAEUAQQBOACIALAAiAEcAUgBPAFUAUAAuAE0ASQBOACIALAAiAEcAUgBPAFUAUAAuAFMARAAiACwAIgBHAFIATwBVAFAALgBTAFUATQAiACwAIgBIAFIARQBQAEUAQQBUACIALAAiAEkAUwAuAEEATABMAC4ARQBRAFUAQQBMACIALAAiAEkAUwAuAFYARQBDAFQATwBSACIALAAiAE0AQQBSAEsALgBJAE4AVgBBAEwASQBEACIALAAiAE0ARABJAE0AIgAsACIATQBUAFIAQQBDAEUAIgAsACIATQBUAFIASQBBAE4ARwBMAEUAIgAsACIAUABRAC4AUgBFAE4AQQBNAEUALgBIAEUATABQAEUAUgAiACwAIgBQAFIARQBQAC4AQQBMAFQARQBSAE4AQQBUAEkAVgBFACIALAAiAFEAVQBJAEMASwAuAEMATwBEAEUAIgAsACIAUgBBAE4ARABPAE0ALgBOAE8AUgBNACIALAAiAFIARQBHAFIARQBTAFMASQBPAE4ALgBSAEUAUwBJAEQAVQBBAEwAUwAiACwAIgBSAEUARwBSAEUAUwBTAEkATwBOACIALAAiAFIARQBNAE8AVgBFAC4ASQBOAFYAQQBMAEkARAAiACwAIgBSAE8AVwBTAFUATQAiACwAIgBTAEMASABFAE0AQQAuAEMASABPAE8AUwBFACIALAAiAFMARQBRAFUARQBOAEMARQAuAFIAQQBOAEcARQAiACwAIgBTAFQAQQBUAC4AQwBPAFIAUgBFAEMAVAAuAFAAVgBBAEwAVQBFACIALAAiAFMAVABBAFQALgBEAEUAUwBDAFIASQBCAEUALgBMAEEAQgBFAEwAUwAiACwAIgBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFACIALAAiAFMAVABBAFQALgBJAFEAUgAiACwAIgBTAFQAQQBUAC4ATQBBAEQAIgAsACIAUwBUAEEAVAAuAFAATwBPAEwARQBEAC4AVgBBAFIASQBBAE4AQwBFACIALAAiAFAALgBBAEQASgAuAEIATwBOAEYARQBSAFIATwBOAEkAIgAsACIAUAAuAEEARABKAC4ASABPAEwATQAiACwAIgBQAC4AQQBEAEoALgBTAEkARABBAEsAIgAsACIAUAAuAEEARABKAC4ASABPAEwATQBfAFMASQBEAEEASwAiACwAIgBQAC4AQQBEAEoALgBIAE8AQwBIAEIARQBSAEcAIgAsACIAUwBUAEEAVAAuAFMARQAiACwAIgBTAFQAQQBUAC4AUwBUAEQALgBFAFIAUgBPAFIAIgAsACIAUwBUAEEAVAAuAFMASQBHAE4AIgAsACIAUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAE4ATwBNAEkATgBBAEwAIgAsACIAUwBUAEEAVAAuAFQAQQBCAEwARQAuAFIARQBMAEEAVABJAFYARQAiACwAIgBTAFQAQQBUAC4AVABBAEIATABFACIALAAiAFQAQQBCAEwARQAuAFMARQBMAEUAQwBUACIALAAiAEMASABJAFEAVQAuAFQARQBTAFQALgBTACIALAAiAEMASABJAFEAVQAuAFQARQBTAFQAMgAiACwAIgBDAEgASQBRAFUALgBUAEUAUwBUADIALgBIAEUAQQBEAEUAUgAiACwAIgBDAEgASQBRAFUALgBUAEUAUwBUAC4AWAAiACwAIgBEAFUATgBOAC4AVABFAFMAVAAiACwAIgBGAC4AVABFAFMAVAAuAFMAIgAsACIASwBSAFUAUwBLAEEATABfAFcAQQBMAEwASQBTAC4AVABFAFMAVAAiACwAIgBQAEEASQBSAFcASQBTAEUALgBGAC4AVABFAFMAVAAiACwAIgBQAEEASQBSAFcASQBTAEUALgBUAC4AVABFAFMAVAAiACwAIgBUAC4AVABFAFMAVAAuAFMAIgAsACIAVwBJAEwAQwBPAFgATwBOAC4AVABFAFMAVAAiACwAIgBWAEwARQBOAEcAVABIACIALAAiAFYAUgBFAFAARQBBAFQAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBNAEUAUgBLAE0AQQBMAEUAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBGAEEASwBUAE8AUgBTAFQAVQBGAEUATgAiACwAIgBTAFQAQQBUAC4ARABFAFMASwBSAEkAUABUAEkAVgAuAE4ATwBNAEkATgBBAEwAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBCAEUAUwBDAEgAUgBJAEYAVABVAE4ARwAiACwAIgBTAFQAQQBUAC4AVABBAEIARQBMAEwARQAiACwAIgBTAFQAQQBUAC4AVABBAEIARQBMAEwARQAuAFIARQBMAEEAVABJAFYAIgAsACIAUwBUAEEAVAAuAEkAUQBBACIALAAiAFMAVABBAFQALgBNAEEAQQBEACIALAAiAFMAVABBAFQALgBHAEUAQgBVAE4ARABFAE4ARQAuAFYAQQBSAEkAQQBOAFoAIgAsACIAUwBUAEEAVAAuAEcARQBQAE8ATwBMAFQARQAuAFYAQQBSAEkAQQBOAFoAIgAsACIAUwBUAEEAVAAuAFMAVABBAE4ARABBAFIARABGAEUASABMAEUAUgAiACwAIgBTAFQAQQBUAC4AUwBUAEQARgBFAEgATABFAFIAIgAsACIAUwBUAEEAVAAuAFYATwBSAFoARQBJAEMASABFAE4AIgAsACIASwBPAFIAUgBFAEwALgBDAFIAQQBNAEUAUgAiACwAIgBLAE8AUgBSAEUATAAuAEMAUgBBAE0ARQBSAC4AVABFAFMAVAAiACwAIgBLAE8AUgBSAEUATAAuAEsARQBOAEQAQQBMACIALAAiAEsATwBSAFIARQBMAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUACIALAAiAEsATwBSAFIARQBMAC4AUwBQAEUAQQBSAE0AQQBOACIALAAiAEsATwBSAFIARQBMAC4AUABFAEEAUgBTAE8ATgAiACwAIgBLAE8AUgBSAEUATAAuAFAARQBBAFIAUwBPAE4ALgBUAEUAUwBUACIALAAiAFIARQBHAFIARQBTAFMASQBPAE4ALgBSAEUAUwBJAEQAVQBFAE4AIgAsACIASwBSAFUAUwBLAEEATAAuAFcAQQBMAEwASQBTAC4AVABFAFMAVAAiACwAIgBQAEEAQQBSAFcARQBJAFMARQBSAC4AVAAuAFQARQBTAFQAIgAsACIAUABBAEEAUgBXAEUASQBTAEUAUgAuAEEAQgAuAFQARQBTAFQAIgAsACIAQQBCAC4AVABFAFMAVAAiACwAIgBTAFAAQQBMAFQARQBOAFMAVQBNAE0ARQAiACwAIgBaAEUASQBMAEUATgBTAFUATQBNAEUAIgAsACIASwBVAE0AVQBMAEEAVABJAFYARQBTAFUATQBNAEUAIgAsACIARwBSAFUAUABQAEUATgAuAFMAVQBNAE0ARQAiACwAIgBHAFIAVQBQAFAARQBOAC4AQQBOAFoAQQBIAEwAIgAsACIARwBSAFUAUABQAEUATgAuAE4AIgAsACIARwBSAFUAUABQAEUATgAuAE0ASQBUAFQARQBMAFcARQBSAFQAIgAsACIARwBSAFUAUABQAEUATgAuAE0ARQBEAEkAQQBOACIALAAiAEcAUgBVAFAAUABFAE4ALgBNAEkATgAiACwAIgBHAFIAVQBQAFAARQBOAC4ATQBBAFgAIgAsACIARwBSAFUAUABQAEUATgAuAFMAVABEAEEAQgBXACIALAAiAEcAUgBVAFAAUABFAE4ALgBTAEQAIgAsACIARwBSAFUAUABQAEUATgAuAFMARQAiACwAIgBHAFIAVQBQAFAARQBOAC4AUwBUAEEATgBEAEEAUgBEAEYARQBIAEwARQBSACIALAAiAEcAUgBVAFAAUABFAE4ALgBTAFQARABGAEUASABMAEUAUgAiACwAIgBHAFIAVQBQAFAARQBOAC4ATQBBAEQAIgAsACIARwBSAFUAUABQAEUATgAuAEkAUQBBACIALAAiAEkAUwBUAC4AVgBFAEsAVABPAFIAIgAsACIAUwBJAE4ARAAuAEEATABMAEUALgBHAEwARQBJAEMASAAiACwAIgBJAFMAVAAuAEEATABMAEUALgBHAEwARQBJAEMASAAiACwAIgBWAEUASwBUAE8AUgAuAEwAxABOAEcARQAiACwAIgBNAEQASQBNAEUATgBTAEkATwBOACIALAAiAE0AUwBQAFUAUgAiACwAIgBIAFcASQBFAEQARQBSAEgATwBMAEUATgAiACwAIgBWAFcASQBFAEQARQBSAEgATwBMAEUATgAiACwAIgBNAEQAUgBFAEkARQBDAEsAIgAsACIAWgBVAEYAQQBMAEwAUwBNAEEAVABSAEkAWAAuAE4ATwBSAE0AQQBMACIALAAiAFMARQBRAFUARQBOAFoALgBJAE4AVABFAFIAVgBBAEwATAAiACwAIgBUAEEAQgBFAEwATABFAE4ALgBBAFUAUwBXAEEASABMACIALAAiAFUATgBHANwATABUAEkARwBFAC4ATADWAFMAQwBIAEUATgAiACwAIgBFAE4AVABGAEUAUgBOAEUALgBGAEUASABMAEUAUgAiACwAIgBTAEMASABOAEUATABMAC4ASwBPAEQASQBFAFIARQBOACIALAAiAE8ATgBFAC4ASABPAFQAIgAsACIATwBOAEUALgBIAE8AVAAuAEMATwBEAEkATgBHACIALAAiAE0AQQBUAFIASQBYAF8AVABPAF8ATABPAE4ARwAiACwAIgBNAEEAVABSAEkAWAAuAFQATwAuAEwATwBOAEcAIgAsACIATQBBAFQAUgBJAFgALgBaAFUALgBMAEEATgBHAEYATwBSAE0AIgAsACIARwBSAE8AVQBQAC4ATQBFAEQASQBBAE4AIgAsACIAQQBOAE8AVgBBAC4AVABFAFMAVAAiACwAIgBMAEUAVgBFAE4ARQAuAFQARQBTAFQAIgAsACIATABFAFYARQBOAEUALgBUAEUAUwBUAC4AQgAiAF0ALAAiAGwAbwBjAGEAbABlACIAOgB7ACIAbABpAHMAdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAHIAbwB3AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAIgAsACIAYwBvAGwAdQBtAG4AUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAXABcACIALAAiAHQAaABvAHUAcwBhAG4AZABzAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiABkgIgAsACIAdABoAG8AdQBzAGEAbgBkAHMAUABvAHMAaQB0AGkAbwBuAHMAIgA6AFsAMwBdACwAIgBkAGUAYwBpAG0AYQBsAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAC4AIgAsACIAZABhAHQAZQBPAHIAZABlAHIAIgA6ACIARABNAFkAIgAsACIAYwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsACIAOgAiAEMASABGACIALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwB5AG0AYgBvAGwATABlAGEAZAAiADoAdAByAHUAZQAsACIAaQBzAEMAdQByAHIAZQBuAGMAeQBTAGUAcABCAHkAUwBwAGEAYwBlACIAOgB0AHIAdQBlACwAIgByAG8AdwBMAGUAdAB0AGUAcgAiADoAIgBaACIALAAiAGMAbwBsAHUAbQBuAEwAZQB0AHQAZQByACIAOgAiAFMAIgAsACIAcgBjAEwAZQBmAHQAQgByAGEAYwBrAGUAdAAiADoAIgAoACIALAAiAHIAYwBSAGkAZwBoAHQAQgByAGEAYwBrAGUAdAAiADoAIgApACIALAAiAHMAdABhAHQAZQBtAGUAbgB0AFMAZQBwAGEAcgBhAHQAbwByACIAOgAiADsAOwAiACwAIgBsAG8AYwBhAGwAZQBOAGEAbQBlACIAOgAiAGQAZQAtAGQAZQAiAH0AfQA=</AFEJSONBlob>
+<AFEJSONBlob xmlns="http://schemas.advancedformulaenvironment.officeapps.live.com/afejsonblob/1.0">ewAiAHMAYwBoAGUAbQBhACIAOgAiAGgAdAB0AHAAOgAvAC8AcwBjAGgAZQBtAGEAcwAuAGEAZAB2AGEAbgBjAGUAZABmAG8AcgBtAHUAbABhAGUAbgB2AGkAcgBvAG4AbQBlAG4AdAAuAG8AZgBmAGkAYwBlAGEAcABwAHMALgBsAGkAdgBlAC4AYwBvAG0ALwBhAGYAZQBwAHIAbwBqAGUAYwB0AHMALwAwAC4AMgAiACwAIgBmAGkAbABlAHMAIgA6AFsAewAiAHAAYQB0AGgAIgA6ACIALwBwAHIAbwBqAGUAYwB0AHMALwBXAG8AcgBrAGIAbwBvAGsAIgAsACIAdABlAHgAdAAiADoAIgAvAC8AIAAtAC0ALQAgAFcAbwByAGsAYgBvAG8AawAgAG0AbwBkAHUAbABlACAALQAtAC0AXABuAC8ALwAgAEEAIABmAGkAbABlACAAbwBmACAAbgBhAG0AZQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AcwAgAG8AZgAgAHQAaABlACAAZgBvAHIAbQA6AFwAbgAvAC8AIAAgACAAIABuAGEAbQBlACAAPQAgAGQAZQBmAGkAbgBpAHQAaQBvAG4AOwA7AFwAbgBcAG4AQwBPAEwAUwBVAE0APQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsATgBBAEMASABTAFAAQQBMAFQARQAoAG0AYQB0AHIAaQB4ADsAUwBVAE0ATQBFACkAKQA7ADsAXABuAEMATwBSAFIALgBDAFIAQQBNAEUAUgA9AEwAQQBNAEIARABBACgAeABfAGkAOwB5AF8AaQA7AEwARQBUACgAbgBfAGkAOwBTAFQAQQBUAC4AVABBAEIATABFACgAeABfAGkAKQA7AG4AXwBqADsAUwBUAEEAVAAuAFQAQQBCAEwARQAoAHkAXwBpACkAOwBkAGkAdgA7AE0ASQBOACgAQQBOAFoAQQBIAEwAKABuAF8AaQApADsAQQBOAFoAQQBIAEwAKABuAF8AagApACkAOwBuADsAUwBVAE0ATQBFACgAbgBfAGoAKQA7AHgAXwBiAGEAcwBlADsAbgBfAGkAKgBNAFQAUgBBAE4AUwAoAG4AXwBqACkALwBuADsAbgBfAGkAagA7AFMAVABBAFQALgBUAEEAQgBMAEUAKAB4AF8AaQA7AHkAXwBpACkAOwBXAFUAUgBaAEUATAAoACgAUwBVAE0ATQBFACgAKABuAF8AaQBqAC0AeABfAGIAYQBzAGUAKQBeADIALwB4AF8AYgBhAHMAZQApACkALwAoAG4AKgAoAGQAaQB2AC0AMQApACkAKQApACkAOwA7AEMATwBSAFIALgBDAFIAQQBNAEUAUgAuAFQARQBTAFQAPQBMAEEATQBCAEQAQQAoAHgAXwBpADsAeQBfAGkAOwBbAGgAZQBhAGQAZQByAHMAXQA7AEwARQBUACgAcgBfAHYAYQBsAHUAZQA7AEMATwBSAFIALgBDAFIAQQBNAEUAUgAoAHgAXwBpADsAeQBfAGkAKQA7AHAAXwB2AGEAbAB1AGUAOwBDAEgASQBRAFUALgBUAEUAUwBUAC4AUwAoAHgAXwBpADsAeQBfAGkAKQA7AHIAZQBzAHUAbAB0AHMAOwBIAFMAVABBAFAARQBMAE4AKAByAF8AdgBhAGwAdQBlADsAcABfAHYAYQBsAHUAZQApADsAVwBFAE4ATgAoAE8ARABFAFIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAcwApADsATgBJAEMASABUACgAaABlAGEAZABlAHIAcwApACkAOwByAGUAcwB1AGwAdABzADsAVgBTAFQAQQBQAEUATABOACgASABTAFQAQQBQAEUATABOACgAXAAiAFYAXAAiADsAXAAiAHAAXAAiACkAOwByAGUAcwB1AGwAdABzACkAKQApACkAOwA7AFwAbgBDAE8AUgBSAC4ASwBFAE4ARABBAEwAPQBMAEEATQBCAEQAQQAoAHgAXwBpADsAeQBfAGkAOwBMAEUAVAAoAHMAXwBuADsAQQBOAFoAQQBIAEwAKAB4AF8AaQApADsAeABfAGoAOwBNAFQAUgBBAE4AUwAoAHgAXwBpACkAOwB5AF8AagA7AE0AVABSAEEATgBTACgAeQBfAGkAKQA7AHQAcgBpAGEAbgBnAGwAZQA7AE0AVABSAEkAQQBOAEcATABFACgAcwBfAG4AOwBXAEEASABSADsAVwBBAEgAUgApADsAdAByAF8AcwBpAGcAbgA7AFMAVABBAFQALgBTAEkARwBOACgAeABfAGkALQB4AF8AagApACoAUwBUAEEAVAAuAFMASQBHAE4AKAB5AF8AaQAtAHkAXwBqACkAKgB0AHIAaQBhAG4AZwBsAGUAOwBuAF8AYwA7AFMAVQBNAE0ARQAoADEAKgAoAHQAcgBfAHMAaQBnAG4APgAwACkAKQA7AG4AXwBkADsAUwBVAE0ATQBFACgAMQAqACgAdAByAF8AcwBpAGcAbgA8ADAAKQApADsAbQBfAGsAOwBNAEkATgAoAEEATgBaAEEASABMACgARQBJAE4ARABFAFUAVABJAEcAKAB4AF8AaQApACkAOwBBAE4AWgBBAEgATAAoAEUASQBOAEQARQBVAFQASQBHACgAeQBfAGkAKQApACkAOwBXAEUATgBOACgAcwBfAG4APQBBAE4AWgBBAEgATAAoAHkAXwBpACkAOwAoAG4AXwBjAC0AbgBfAGQAKQAqADIALwAoAHMAXwBuAF4AMgAqACgAKABtAF8AawAtADEAKQAvAG0AXwBrACkAKQA7ACMAVwBFAFIAVAAhACkAKQApADsAOwBDAE8AUgBSAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUAD0ATABBAE0AQgBEAEEAKAB4AF8AaQA7AHkAXwBpADsATABFAFQAKABzAF8AbgA7AEEATgBaAEEASABMACgAeABfAGkAKQA7AHgAXwBqADsATQBUAFIAQQBOAFMAKAB4AF8AaQApADsAeQBfAGoAOwBNAFQAUgBBAE4AUwAoAHkAXwBpACkAOwB0AHIAaQBhAG4AZwBsAGUAOwBNAFQAUgBJAEEATgBHAEwARQAoAHMAXwBuADsAVwBBAEgAUgA7AFcAQQBIAFIAKQA7AHQAcgBfAHMAaQBnAG4AOwBTAFQAQQBUAC4AUwBJAEcATgAoAHgAXwBpAC0AeABfAGoAKQAqAFMAVABBAFQALgBTAEkARwBOACgAeQBfAGkALQB5AF8AagApACoAdAByAGkAYQBuAGcAbABlADsAbgBfAGMAOwBTAFUATQBNAEUAKAAxACoAKAB0AHIAXwBzAGkAZwBuAD4AMAApACkAOwBuAF8AZAA7AFMAVQBNAE0ARQAoADEAKgAoAHQAcgBfAHMAaQBnAG4APAAwACkAKQA7AG0AXwBrADsATQBJAE4AKABBAE4AWgBBAEgATAAoAEUASQBOAEQARQBVAFQASQBHACgAeABfAGkAKQApADsAQQBOAFoAQQBIAEwAKABFAEkATgBEAEUAVQBUAEkARwAoAHkAXwBpACkAKQApADsAcgBfAHQAYQB1ADsAKABuAF8AYwAtAG4AXwBkACkAKgAyAC8AKABzAF8AbgBeADIAKgAoACgAbQBfAGsALQAxACkALwBtAF8AawApACkAOwB2AF8AMAA7AHMAXwBuACoAKABzAF8AbgAtADEAKQAqACgAMgAqAHMAXwBuACsANQApADsAdABfAHIAYQBuAGsAOwBSAEEATgBHAC4ATQBJAFQAVABFAEwAVwAoAHgAXwBpADsAeABfAGkAKQA7AHUAXwByAGEAbgBrADsAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKAB5AF8AaQA7AHkAXwBpACkAOwB0AF8AdABpAGUAcwA7AEUASQBOAEQARQBVAFQASQBHACgAdABfAHIAYQBuAGsAKQA7AHUAXwB0AGkAZQBzADsARQBJAE4ARABFAFUAVABJAEcAKAB1AF8AcgBhAG4AawApADsAdABfAGkAOwBaAMQASABMAEUATgBXAEUATgBOACgAdABfAHQAaQBlAHMAOwB0AF8AcgBhAG4AawApADsAdQBfAGkAOwBaAMQASABMAEUATgBXAEUATgBOACgAdQBfAHQAaQBlAHMAOwB1AF8AcgBhAG4AawApADsAdgBfAHQAOwBTAFUATQBNAEUAKAB0AF8AaQAqACgAdABfAGkALQAxACkAKgAoADIAKgB0AF8AaQArADUAKQApADsAdgBfAHUAOwBTAFUATQBNAEUAKAB1AF8AaQAqACgAdQBfAGkALQAxACkAKgAoADIAKgB1AF8AaQArADUAKQApADsAdgBfADEAOwBTAFUATQBNAEUAKAB0AF8AaQAqACgAdABfAGkALQAxACkAKQAqAFMAVQBNAE0ARQAoAHUAXwBpACoAKAB1AF8AaQAtADEAKQApAC8AKAAyACoAcwBfAG4AKgAoAHMAXwBuAC0AMQApACkAOwB2AF8AMgA7AFMAVQBNAE0ARQAoAHQAXwBpACoAKAB0AF8AaQAtADEAKQAqACgAdABfAGkALQAyACkAKQAqAFMAVQBNAE0ARQAoAHUAXwBpACoAKAB1AF8AaQAtADEAKQAqACgAdQBfAGkALQAyACkAKQAvACgAOQAqAHMAXwBuACoAKABzAF8AbgAtADEAKQAqACgAcwBfAG4ALQAyACkAKQA7AHYAXwBhAGwAbAA7ADEALwAxADgAKgB2AF8AMAAtACgAdgBfAHQAKwB2AF8AdQApAC8AMQA4ACsAdgBfADEAKwB2AF8AMgA7AHoAXwBiADsAKABuAF8AYwAtAG4AXwBkACkALwBXAFUAUgBaAEUATAAoAHYAXwBhAGwAbAApADsAcABfAHYAOwBOAE8AUgBNAC4AVgBFAFIAVAAoAHoAXwBiADsAMAA7ADEAOwBXAEEASABSACkAOwBwAF8AdgBhAGwAdQBlADsAMgAqAFcARQBOAE4AKABwAF8AdgA+AC4ANQA7ADEALQBwAF8AdgA7AHAAXwB2ACkAOwBWAFMAVABBAFAARQBMAE4AKABIAFMAVABBAFAARQBMAE4AKABcACIAdABhAHUAXAAiADsAXAAiAHoAXAAiADsAXAAiAHAAXAAiACkAOwBIAFMAVABBAFAARQBMAE4AKAByAF8AdABhAHUAOwB6AF8AYgA7AHAAXwB2AGEAbAB1AGUAKQApACkAKQA7ADsAXABuAEMATwBSAFIALgBQAEUAQQBSAFMATwBOAD0ATABBAE0AQgBEAEEAKAB4AF8AaQA7AHkAXwBpADsASwBPAFIAUgBFAEwAKAB4AF8AaQA7AHkAXwBpACkAKQA7ADsAQwBPAFIAUgAuAFAARQBBAFIAUwBPAE4ALgBUAEUAUwBUAD0ATABBAE0AQgBEAEEAKAB4AF8AaQA7AHkAXwBpADsAWwBoAGUAYQBkAGUAcgBzAF0AOwBMAEUAVAAoAGMAXwBwAGUAYQByAHMAbwBuADsASwBPAFIAUgBFAEwAKAB4AF8AaQA7AHkAXwBpACkAOwB6AF8AdgBhAGwAdQBlADsAVwBFAE4ATgBGAEUASABMAEUAUgAoAEEAUgBDAFQAQQBOAEgAWQBQACgAYwBfAHAAZQBhAHIAcwBvAG4AKQA7ADEAMAAwADAAMAAwADAAKQA7AHAAXwB2ADsATgBPAFIATQAuAFYARQBSAFQAKAB6AF8AdgBhAGwAdQBlADsAMAA7ADEAOwBXAEEASABSACkAOwBwAF8AdgBhAGwAdQBlADsAMgAqAHcAZQBuAG4AKABwAF8AdgA+AC4ANQA7ADEALQBwAF8AdgA7AHAAXwB2ACkAOwByAGUAcwB1AGwAdABzADsASABTAFQAQQBQAEUATABOACgAegBfAHYAYQBsAHUAZQA7AHAAXwB2AGEAbAB1AGUAKQA7AFcARQBOAE4AKABPAEQARQBSACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGgAZQBhAGQAZQByAHMAKQA7AE4ASQBDAEgAVAAoAGgAZQBhAGQAZQByAHMAKQApADsAcgBlAHMAdQBsAHQAcwA7AFYAUwBUAEEAUABFAEwATgAoAEgAUwBUAEEAUABFAEwATgAoAFwAIgByAFwAIgA7AFwAIgBwAFwAIgApADsAcgBlAHMAdQBsAHQAcwApACkAKQApADsAOwBcAG4AQwBPAFIAUgAuAFMAUABFAEEAUgBNAEEATgA9AEwAQQBNAEIARABBACgAbABlAGYAdAA7AHIAaQBnAGgAdAA7AEsATwBSAFIARQBMACgAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKABsAGUAZgB0ADsAbABlAGYAdAApADsAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKAByAGkAZwBoAHQAOwByAGkAZwBoAHQAKQApACkAOwA7AFwAbgBDAFUATQBTAFUATQA9AEwAQQBNAEIARABBACgAdgBlAGMAdABvAHIAOwBTAEMAQQBOACgAMAA7AHYAZQBjAHQAbwByADsATABBAE0AQgBEAEEAKABhAGMAYwB1ADsAdgBhAGwAdQBlADsAYQBjAGMAdQArAHYAYQBsAHUAZQApACkAKQA7ADsAXABuAEQAVQBNAE0AWQAuAEMATwBEAEkATgBHAD0ATABBAE0AQgBEAEEAKAB2AGEAcgBpAGEAYgBsAGUAOwBbAGgAZQBhAGQAZQByAF0AOwBMAEUAVAAoAHYAYQByAGkAYQBiAGwAZQA7AEYASQBMAFQARQBSACgAdgBhAHIAaQBhAGIAbABlADsATgBJAEMASABUACgASQBTAFQARgBFAEgATABFAFIAKAB2AGEAcgBpAGEAYgBsAGUAKQApACkAOwBrAF8AbgBhAG0AZQBzADsATQBUAFIAQQBOAFMAKABFAEkATgBEAEUAVQBUAEkARwAoAHYAYQByAGkAYQBiAGwAZQApACkAOwBrAF8AcgBlAGYAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABrAF8AbgBhAG0AZQBzADsAUwBFAFEAVQBFAE4AWgAoADEAOwBBAE4AWgBBAEgATAAyACgAawBfAG4AYQBtAGUAcwApAC0AMQApACkAOwBjAG8AZABlAHMAOwAxACoAKAB2AGEAcgBpAGEAYgBsAGUAPQBrAF8AcgBlAGYAKQA7AHcAZQBuAG4AKABPAEQARQBSACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGgAZQBhAGQAZQByACkAOwBuAGkAYwBoAHQAKABoAGUAYQBkAGUAcgApACkAOwBjAG8AZABlAHMAOwB2AHMAdABhAHAAZQBsAG4AKABrAF8AcgBlAGYAOwBjAG8AZABlAHMAKQApACkAKQA7ADsAXABuAEcAUgBPAFUAUAAuAEMATwBVAE4AVAA9AEwAQQBNAEIARABBACgAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AGcAcgBvAHUAcABzADsAQQBOAFoAQQBIAEwAMgA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBJAFEAUgA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFMAUABBAEwAVABFAE4AVwBBAEgATAAoAEcAUgBVAFAAUABJAEUAUgBFAE4ATgBBAEMASAAoAGcAcgBvAHUAcABzADsAdgBhAGwAdQBlAHMAOwBTAFQAQQBUAC4ASQBRAFIAOwA7ADAAKQA7ADIAKQApADsAOwBcAG4ARwBSAE8AVQBQAC4ATQBBAEQAPQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AHYAYQBsAHUAZQBzADsAUwBUAEEAVAAuAE0AQQBEADsAOwAwACkAOwAyACkAKQA7ADsAXABuAEcAUgBPAFUAUAAuAE0AQQBYAD0ATABBAE0AQgBEAEEAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzADsAUwBQAEEATABUAEUATgBXAEEASABMACgARwBSAFUAUABQAEkARQBSAEUATgBOAEEAQwBIACgAZwByAG8AdQBwAHMAOwB2AGEAbAB1AGUAcwA7AE0AQQBYADsAOwAwACkAOwAyACkAKQA7ADsAXABuAEcAUgBPAFUAUAAuAE0ARQBBAE4APQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AHYAYQBsAHUAZQBzADsATQBJAFQAVABFAEwAVwBFAFIAVAA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBNAEkATgA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFMAUABBAEwAVABFAE4AVwBBAEgATAAoAEcAUgBVAFAAUABJAEUAUgBFAE4ATgBBAEMASAAoAGcAcgBvAHUAcABzADsAdgBhAGwAdQBlAHMAOwBNAEkATgA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBTAEQAPQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBTAFAAQQBMAFQARQBOAFcAQQBIAEwAKABHAFIAVQBQAFAASQBFAFIARQBOAE4AQQBDAEgAKABnAHIAbwB1AHAAcwA7AHYAYQBsAHUAZQBzADsAUwBUAEEAQgBXAC4AUwA7ADsAMAApADsAMgApACkAOwA7AFwAbgBHAFIATwBVAFAALgBTAFUATQA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFMAUABBAEwAVABFAE4AVwBBAEgATAAoAEcAUgBVAFAAUABJAEUAUgBFAE4ATgBBAEMASAAoAGcAcgBvAHUAcABzADsAdgBhAGwAdQBlAHMAOwBTAFUATQBNAEUAOwA7ADAAKQA7ADIAKQApADsAOwBcAG4ASABSAEUAUABFAEEAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlADsAbgBfAHQAaQBtAGUAcwA7AFcARQBOAE4AKABVAE4ARAAoAEEATgBaAEEASABMADIAKAB2AGEAbAB1AGUAKQA9ADEAOwBBAE4AWgBBAEgATAAoAG4AXwB0AGkAbQBlAHMAKQA9ADEAOwBuAF8AdABpAG0AZQBzAD4AMAApADsAVwBFAE4ATgAoAEkAUwBUAFoAQQBIAEwAKAB2AGEAbAB1AGUAKQArAEkAUwBUAEwATwBHACgAdgBhAGwAdQBlACkAOwBTAEUAUQBVAEUATgBaACgAMQA7AG4AXwB0AGkAbQBlAHMAOwB2AGEAbAB1AGUAOwAwACkAOwBXAEUATgBOACgAUwBFAFEAVQBFAE4AWgAoADEAOwBuAF8AdABpAG0AZQBzACkAOwB2AGEAbAB1AGUAKQApADsAIwBXAEUAUgBUACEAKQApADsAOwBcAG4ASQBTAC4AQQBMAEwALgBFAFEAVQBBAEwAPQBMAEEATQBCAEQAQQAoAHYAZQBjAHQAbwByADsAVQBOAEQAKAB2AGUAYwB0AG8AcgA9AGkAbgBkAGUAeAAoAHYAZQBjAHQAbwByADsAMQA7ADEAKQApACkAOwA7AFwAbgBJAFMALgBWAEUAQwBUAE8AUgA9AEwAQQBNAEIARABBACgAdgBlAGMAdABvAHIAOwBXAEUATgBOAEYARQBIAEwARQBSACgASQBTAC4AQQBMAEwALgBFAFEAVQBBAEwAKABNAEEAUAAoAFIARQBNAE8AVgBFAC4ASQBOAFYAQQBMAEkARAAoAHYAZQBjAHQAbwByACkAOwBUAFkAUAApACkAOwBGAEEATABTAEMASAApACkAOwA7AFwAbgBNAEEAUgBLAC4ASQBOAFYAQQBMAEkARAA9AEwAQQBNAEIARABBACgAdgBlAGMAdABvAHIAcwA7AGkAbgB2AGEAbABpAGQAXwB2AGEAbAB1AGUAcwA7AE0AQQBQACgAdgBlAGMAdABvAHIAcwA7AEwAQQBNAEIARABBACgAdgBfAGkAOwB3AGUAbgBuACgAdwBlAG4AbgBmAGUAaABsAGUAcgAoAFgAVgBFAFIARwBMAEUASQBDAEgAKAB2AF8AaQA7AGkAbgB2AGEAbABpAGQAXwB2AGEAbAB1AGUAcwA7ADAAKQA7ADAAKQA7ACMATgBWADsAdgBfAGkAKQApACkAKQA7ADsAXABuAE0ARABJAE0APQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsASABTAFQAQQBQAEUATABOACgAWgBFAEkATABFAE4AKABtAGEAdAByAGkAeAApADsAUwBQAEEATABUAEUATgAoAG0AYQB0AHIAaQB4ACkAKQApADsAOwBcAG4ATQBUAFIAQQBDAEUAPQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsAVwBFAE4ATgAoAFoARQBJAEwARQBOACgAbQBhAHQAcgBpAHgAKQA9AFMAUABBAEwAVABFAE4AKABtAGEAdAByAGkAeAApADsATABFAFQAKABpAG4AZABlAHgAOwBTAEUAUQBVAEUATgBaACgAWgBFAEkATABFAE4AKABtAGEAdAByAGkAeAApACkAOwBTAFUATQBNAEUAKABJAE4ARABFAFgAKABtAGEAdAByAGkAeAA7AGkAbgBkAGUAeAA7AGkAbgBkAGUAeAApACkAKQA7ACMAVwBFAFIAVAAhACkAKQA7ADsAXABuAE0AVABSAEkAQQBOAEcATABFAD0ATABBAE0AQgBEAEEAKABzAGkAegBlADsAWwBwAF8AbABvAHcAZQByAF0AOwBbAHAAXwBzAHQAcgBpAGMAdABdADsATABFAFQAKABiAF8AbABvAHcAZQByADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AbABvAHcAZQByACkAOwBXAEEASABSADsAcABfAGwAbwB3AGUAcgApADsAYgBfAHMAdAByAGkAYwB0ADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AcwB0AHIAaQBjAHQAKQA7AEYAQQBMAFMAQwBIADsAcABfAHMAdAByAGkAYwB0ACkAOwBXAEUATgBOACgAVQBOAEQAKABBAE4AWgBBAEgATAAoAHMAaQB6AGUAKQA9ADEAOwBBAE4AWgBBAEgATAAyACgAYgBfAGwAbwB3AGUAcgApAD0AMQA7AEEATgBaAEEASABMADIAKABiAF8AcwB0AHIAaQBjAHQAKQA9ADEAKQA7AEwARQBUACgAdgBlAGMAdABvAHIAOwBTAEUAUQBVAEUATgBaACgAcwBpAHoAZQApADsAdAB2AGUAYwB0AG8AcgA7AE0AVABSAEEATgBTACgAdgBlAGMAdABvAHIAKQA7ADEAKgBXAEUATgBOAFMAKABVAE4ARAAoAGIAXwBsAG8AdwBlAHIAOwBiAF8AcwB0AHIAaQBjAHQAKQA7AHYAZQBjAHQAbwByAD4AdAB2AGUAYwB0AG8AcgA7AGIAXwBsAG8AdwBlAHIAOwB2AGUAYwB0AG8AcgA+AD0AdAB2AGUAYwB0AG8AcgA7AGIAXwBzAHQAcgBpAGMAdAA7AHYAZQBjAHQAbwByADwAdAB2AGUAYwB0AG8AcgA7AFcAQQBIAFIAOwB2AGUAYwB0AG8AcgA8AD0AdAB2AGUAYwB0AG8AcgApACkAOwAjAFcARQBSAFQAIQApACkAKQA7ADsAXABuAFAAUQAuAFIARQBOAEEATQBFAC4ASABFAEwAUABFAFIAPQBMAEEATQBCAEQAQQAoAG4AYQBtAGUAcwA7AGwAYQBiAGUAbABzADsAVABFAFgAVABWAEUAUgBLAEUAVABUAEUATgAoAFwAIgAsAFwAIgA7ADsATgBBAEMASABaAEUASQBMAEUAKABNAEEAUAAoAEgAUwBUAEEAUABFAEwATgAoAGwAYQBiAGUAbABzADsAbgBhAG0AZQBzACkAOwBMAEEATQBCAEQAQQAoAHMAdAByAGkAbgBnADsAXAAiAFwAIgBcACIAXAAiACYAcwB0AHIAaQBuAGcAJgBcACIAXAAiAFwAIgBcACIAKQApADsATABBAE0AQgBEAEEAKAByAG8AdwA7AFwAIgB7AFwAIgAmAFQARQBYAFQAVgBFAFIASwBFAFQAVABFAE4AKABcACIALABcACIAOwA7AHIAbwB3ACkAJgBcACIAfQBcACIAKQApACkAKQA7ADsAXABuAFAAUgBFAFAALgBBAEwAVABFAFIATgBBAFQASQBWAEUAPQBMAEEATQBCAEQAQQAoAGEAbAB0ADsAWABWAEUAUgBXAEUASQBTACgATABJAE4ASwBTACgASwBMAEUASQBOACgAYQBsAHQAKQA7ADEAKQA7AHsAXAAiAHQAXAAiADsAXAAiAGcAXAAiADsAXAAiAGwAXAAiADsAXAAiAHIAXAAiADsAXAAiAGsAXAAiADsAXAAiAHUAXAAiADsAXAAiAGIAXAAiADsAXAAiADwAXAAiADsAXAAiAD4AXAAiAH0AOwB7AFwAIgB0AFwAIgA7AFwAIgBnAFwAIgA7AFwAIgBsAFwAIgA7AFwAIgBnAFwAIgA7AFwAIgBsAFwAIgA7AFwAIgB0AFwAIgA7AFwAIgB0AFwAIgA7AFwAIgBsAFwAIgA7AFwAIgBnAFwAIgB9ADsAIwBXAEUAUgBUACEAKQApADsAOwBcAG4AUQBVAEkAQwBLAC4AQwBPAEQARQA9AEwAQQBNAEIARABBACgAdgBhAHIAaQBhAGIAbABlADsAbwByAGQAZQByADsAWABWAEUAUgBHAEwARQBJAEMASAAoAHYAYQByAGkAYQBiAGwAZQA7AG8AcgBkAGUAcgApACkAOwA7AFwAbgBSAEEATgBEAE8ATQAuAE4ATwBSAE0APQBMAEEATQBCAEQAQQAoAHAAXwBuADsAWwBtAGUAYQBuAF0AOwBbAHMAZABlAHYAXQA7AEwARQBUACgAbQBlAGEAbgA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAbQBlAGEAbgApADsAMAA7AG0AZQBhAG4AKQA7AHMAZABlAHYAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHMAZABlAHYAKQA7ADEAOwBzAGQAZQB2ACkAOwBXAFUAUgBaAEUATAAoAC0AMgAqAEwATgAoAFoAVQBGAEEATABMAFMATQBBAFQAUgBJAFgAKABwAF8AbgApACkAKQArAEMATwBTACgAMgAqAFAASQAoACkAKgBaAFUARgBBAEwATABTAE0AQQBUAFIASQBYACgAcABfAG4AKQApACoAcwBkAGUAdgArAG0AZQBhAG4AKQApADsAOwBcAG4AUgBFAEcAUgBFAFMAUwBJAE8ATgAuAFIARQBTAEkARABVAEEATABTAD0ATABBAE0AQgBEAEEAKABBAF8AVgBBAFIAOwBVAEEAXwBWAEEAUgA7AEsATwBFAEYAOwBMAEUAVAAoAEsATwBFAEYATQBBAFQAOwBIAFMAVABBAFAARQBMAE4AKABTAEUAUQBVAEUATgBaACgAWgBFAEkATABFAE4AKABBAF8AVgBBAFIAKQA7ADEAOwAxADsAMAApADsAVQBBAF8AVgBBAFIAKQA7AEUAUwBUAEkATQBBAFQARQBTADsATQBNAFUATABUACgASwBPAEUARgBNAEEAVAA7AEsATwBFAEYAKQA7AEUAUwBUAEkATQBBAFQARQBTAC0AQQBfAFYAQQBSACkAKQA7ADsAXABuAFIARQBHAFIARQBTAFMASQBPAE4APQBMAEEATQBCAEQAQQAoAEEAXwBWAEEAUgA7AFUAQQBfAFYAQQBSADsATABFAFQAKABLAE8ARQBGAE0AQQBUADsASABTAFQAQQBQAEUATABOACgAUwBFAFEAVQBFAE4AWgAoAFoARQBJAEwARQBOACgAQQBfAFYAQQBSACkAOwAxADsAMQA7ADAAKQA7AFUAQQBfAFYAQQBSACkAOwBSAEUARABEAEkATQA7AE0ATQBVAEwAVAAoAE0AVABSAEEATgBTACgASwBPAEUARgBNAEEAVAApADsASwBPAEUARgBNAEEAVAApADsATQBNAFUATABUACgATQBNAFUATABUACgATQBJAE4AVgAoAFIARQBEAEQASQBNACkAOwBNAFQAUgBBAE4AUwAoAEsATwBFAEYATQBBAFQAKQApADsAQQBfAFYAQQBSACkAKQApADsAOwBcAG4AUgBFAE0ATwBWAEUALgBJAE4AVgBBAEwASQBEAD0ATABBAE0AQgBEAEEAKAB2AGUAYwB0AG8AcgBzADsAWwBlAHgAdAByAGEAXwB2AGEAbAB1AGUAcwBdADsATABFAFQAKAB2AF8AaQB2ADsAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABlAHgAdAByAGEAXwB2AGEAbAB1AGUAcwApADsAdgBlAGMAdABvAHIAcwA7AE0AQQBSAEsALgBJAE4AVgBBAEwASQBEACgAdgBlAGMAdABvAHIAcwA7AGUAeAB0AHIAYQBfAHYAYQBsAHUAZQBzACkAKQA7AGkAbgB2AGEAbABpAGQAOwBOAEEAQwBIAFoARQBJAEwARQAoAHYAXwBpAHYAOwBMAEEATQBCAEQAQQAoAHoAZQBpAGwAZQA7AE8ARABFAFIAKABJAFMAVABGAEUASABMAEUAUgAoAHoAZQBpAGwAZQApACkAKQApADsARgBJAEwAVABFAFIAKAB2AGUAYwB0AG8AcgBzADsATgBJAEMASABUACgAaQBuAHYAYQBsAGkAZAApACkAKQApADsAOwBcAG4AUgBPAFcAUwBVAE0APQBMAEEATQBCAEQAQQAoAG0AYQB0AHIAaQB4ADsATgBBAEMASABaAEUASQBMAEUAKABtAGEAdAByAGkAeAA7AFMAVQBNAE0ARQApACkAOwA7AFwAbgBTAEMASABFAE0AQQAuAEMASABPAE8AUwBFAD0ATABBAE0AQgBEAEEAKABkAGEAdABhADsAdAB5AHAAZQBzADsAWwB0AHkAcABlAF0AOwBMAEUAVAAoAHQAeQBwAGUAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHQAeQBwAGUAKQA7AFwAIgBtAFwAIgA7AEwASQBOAEsAUwAoAEsATABFAEkATgAoAHQAeQBwAGUAKQA7ADEAKQApADsAdAB5AHAAZQBzADsATABJAE4ASwBTACgASwBMAEUASQBOACgAdAB5AHAAZQBzACkAOwAxACkAOwBXAEUATgBOACgAUwBQAEEATABUAEUATgAoAGQAYQB0AGEAKQA9ADEAOwBNAFQAUgBBAE4AUwAoAEYASQBMAFQARQBSACgAZABhAHQAYQA7AHQAeQBwAGUAPQB0AHkAcABlAHMAKQApADsAUwBQAEEATABUAEUATgBXAEEASABMACgAZABhAHQAYQA7AEYASQBMAFQARQBSACgAUwBFAFEAVQBFAE4AWgAoAEEATgBaAEEASABMADIAKAB0AHkAcABlAHMAKQApADsAdAB5AHAAZQA9AHQAeQBwAGUAcwApACkAKQApACkAOwA7AFwAbgBTAEUAUQBVAEUATgBDAEUALgBSAEEATgBHAEUAPQBMAEEATQBCAEQAQQAoAGEAXwB2ADsAWwBiAF8AbwByAF8AcwB0AGUAcABdADsAWwBzAHQAZQBwAF0AOwBMAEUAVAAoAGEAXwB2AHMAOwBaAFUAUwBQAEEATABUAEUAKABhAF8AdgApADsAbgBfAGEAOwBBAE4AWgBBAEgATAAoAGEAXwB2AHMAKQA7AGIAXwB2ADsAdwBlAG4AbgAoAFUATgBEACgAbgBfAGEAPQAyADsAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGIAXwBvAHIAXwBzAHQAZQBwACkAOwBXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAcwB0AGUAcAApACkAOwBJAE4ARABFAFgAKABhAF8AdgBzADsAMgA7ADEAKQA7AGIAXwBvAHIAXwBzAHQAZQBwACkAOwBzAHQAZQBwADsAVwBFAE4ATgBTACgAVQBOAEQAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAYgBfAG8AcgBfAHMAdABlAHAAKQA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABzAHQAZQBwACkAKQA7ADEAOwBVAE4ARAAoAG4AXwBhAD0AMgA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABzAHQAZQBwACkAKQA7AGIAXwBvAHIAXwBzAHQAZQBwADsAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHMAdABlAHAAKQA7ADEAOwBXAEEASABSADsAcwB0AGUAcAApADsAYQBfAHYAOwBJAE4ARABFAFgAKABhAF8AdgBzADsAMQA7ADEAKQA7AHMAXwBkAGUAbAB0AGEAOwBHAEEATgBaAFoAQQBIAEwAKABiAF8AdgAtAGEAXwB2ACkAKwAxADsAUwBFAFEAVQBFAE4AWgAoAHMAXwBkAGUAbAB0AGEAOwAxADsAYQBfAHYAOwBzAHQAZQBwACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAEMATwBSAFIARQBDAFQALgBQAFYAQQBMAFUARQA9AEwAQQBNAEIARABBACgAcABfAHYAYQBsAHUAZQA7AFsAYQBsAHQAZQByAG4AYQB0AGkAdgBlAF0AOwBMAEUAVAAoAGEAbAB0ADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABhAGwAdABlAHIAbgBhAHQAaQB2AGUAKQA7AFwAIgB0AFwAIgA7AGEAbAB0AGUAcgBuAGEAdABpAHYAZQApADsAVwBFAE4ATgBGAEUASABMAEUAUgAoAEUAUgBTAFQARQBSAFcARQBSAFQAKABhAGwAdAA7AFwAIgBsAFwAIgA7AHAAXwB2AGEAbAB1AGUAOwBcACIAZwBcACIAOwAxAC0AcABfAHYAYQBsAHUAZQA7AFwAIgB0AFwAIgA7ADIAKgBNAEkATgAoAHAAXwB2AGEAbAB1AGUAOwAxAC0AcABfAHYAYQBsAHUAZQApADsAKQA7ACMAVwBFAFIAVAAhACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAEwAQQBCAEUATABTAD0ATABBAE0AQgBEAEEAKABbAHQAeQBwAGUAXQA7AEwARQBUACgAdAB5AHAAZQA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAdAB5AHAAZQApADsAXAAiAG0AXAAiADsATABJAE4ASwBTACgASwBMAEUASQBOACgAdAB5AHAAZQApADsAMQApACkAOwBsAGEAYgBlAGwAcwBfAGIAYQBzAGUAOwBtAHQAcgBhAG4AcwAoAHsAXAAiAGkAZABcACIAOwBcACIAbgBcACIAfQApADsAbABhAGIAZQBsAHMAXwBtADsAbQB0AHIAYQBuAHMAKAB7AFwAIgBtAGUAYQBuAFwAIgA7AFwAIgBzAHQAZABkAGUAdgBcACIAOwBcACIAcwB0AGQAZQByAHIAXAAiAH0AKQA7AGwAYQBiAGUAbABzAF8AbwA7AG0AdAByAGEAbgBzACgAewBcACIAbQBpAG4AXAAiADsAXAAiAG0AZQBkAGkAYQBuAFwAIgA7AFwAIgBtAGEAeABcACIAOwBcACIASQBRAFIAXAAiADsAXAAiAG0AYQBkAFwAIgB9ACkAOwBXAEUATgBOACgAdAB5AHAAZQA9AFwAIgBvAFwAIgA7AEgAUwBUAEEAUABFAEwATgAoAGwAYQBiAGUAbABzAF8AYgBhAHMAZQA7AGwAYQBiAGUAbABzAF8AbwApADsASABTAFQAQQBQAEUATABOACgAbABhAGIAZQBsAHMAXwBiAGEAcwBlADsAbABhAGIAZQBsAHMAXwBtADsAbABhAGIAZQBsAHMAXwBvACkAKQApACkAOwA7AFwAbgBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFAD0ATABBAE0AQgBEAEEAKABkAGEAdABhADsAWwB0AHkAcABlAF0AOwBbAG4AYQBtAGUAcwBdADsATABFAFQAKAB0AHkAcABlADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKAB0AHkAcABlACkAOwBcACIAbQBcACIAOwBsAGkAbgBrAHMAKABLAEwARQBJAE4AKAB0AHkAcABlACkAOwAxACkAKQA7AGMAbwBsAGkAZABzADsAcwBlAHEAdQBlAG4AegAoAHMAcABhAGwAdABlAG4AKABkAGEAdABhACkAKQA7AHYAYQBsAHMAOwB6AGUAaQBsAGUAbgB3AGEAaABsACgAUgBFAEQAVQBDAEUAKABzAGUAcQB1AGUAbgB6ACgAMQA7AFcARQBOAE4AKAB0AHkAcABlAD0AXAAiAG8AXAAiADsANQA7ADgAKQApADsAYwBvAGwAaQBkAHMAOwBMAEEATQBCAEQAQQAoAGwAaQBuAGUAcwA7AGMAbwBsAGkAZAA7AEwARQBUACgAcgBhAHcAXwB2AGEAbAB1AGUAcwA7AHMAcABhAGwAdABlAG4AdwBhAGgAbAAoAGQAYQB0AGEAOwBjAG8AbABpAGQAKQA7AHYAYQBsAHUAZQBzADsAZgBpAGwAdABlAHIAKAByAGEAdwBfAHYAYQBsAHUAZQBzADsAaQBzAHQAegBhAGgAbAAoAHIAYQB3AF8AdgBhAGwAdQBlAHMAKQApADsAYwBuAHQAXwB2AGEAbAB1AGUAcwA7AEEATgBaAEEASABMACgAdgBhAGwAdQBlAHMAKQA7AGIAYQBzAGkAYwBfAHMAdABhAHQAcwA7AEgAUwBUAEEAUABFAEwATgAoAE0ASQBOACgAdgBhAGwAdQBlAHMAKQA7AE0ARQBEAEkAQQBOACgAdgBhAGwAdQBlAHMAKQA7AE0AQQBYACgAdgBhAGwAdQBlAHMAKQA7AFMAVABBAFQALgBJAFEAUgAoAHYAYQBsAHUAZQBzACkAOwBTAFQAQQBUAC4ATQBBAEQAKAB2AGEAbAB1AGUAcwApACkAOwBzAGQAZQB2ADsAUwBUAEEAQgBXAC4AUwAoAHYAYQBsAHUAZQBzACkAOwB2AHMAdABhAHAAZQBsAG4AKABsAGkAbgBlAHMAOwB3AGUAbgBuACgAdAB5AHAAZQA9AFwAIgBvAFwAIgA7AEgAUwBUAEEAUABFAEwATgAoAGMAbgB0AF8AdgBhAGwAdQBlAHMAOwBiAGEAcwBpAGMAXwBzAHQAYQB0AHMAKQA7AEgAUwBUAEEAUABFAEwATgAoAGMAbgB0AF8AdgBhAGwAdQBlAHMAOwBNAEkAVABUAEUATABXAEUAUgBUACgAdgBhAGwAdQBlAHMAKQA7AHMAZABlAHYAOwBzAGQAZQB2AC8AVwBVAFIAWgBFAEwAKABjAG4AdABfAHYAYQBsAHUAZQBzACkAOwBiAGEAcwBpAGMAXwBzAHQAYQB0AHMAKQApACkAKQApACkAOwBjAG8AbABpAGQAcwArADEAKQA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAbgBhAG0AZQBzACkAOwBIAFMAVABBAFAARQBMAE4AKABjAG8AbABpAGQAcwA7AHYAYQBsAHMAKQA7AEgAUwBUAEEAUABFAEwATgAoAG0AdAByAGEAbgBzACgAbgBhAG0AZQBzACkAOwB2AGEAbABzACkAKQApACkAOwA7AFwAbgBTAFQAQQBUAC4ASQBRAFIAPQBMAEEATQBCAEQAQQAoAHYAZQBjAHQAbwByAF8AbwByAF8AbQBhAHQAcgBpAHgAOwBTAFUATQBNAEUAKABRAFUAQQBSAFQASQBMAEUALgBJAE4ASwBMACgAdgBlAGMAdABvAHIAXwBvAHIAXwBtAGEAdAByAGkAeAA7AHsAMwA7ADEAfQApACoAewAxADsALQAxAH0AKQApADsAOwBcAG4AUwBUAEEAVAAuAE0AQQBEAD0ATABBAE0AQgBEAEEAKAB2AGUAYwB0AG8AcgBfAG8AcgBfAG0AYQB0AHIAaQB4ADsATQBFAEQASQBBAE4AKABBAEIAUwAoAHYAZQBjAHQAbwByAF8AbwByAF8AbQBhAHQAcgBpAHgALQBNAEUARABJAEEATgAoAHYAZQBjAHQAbwByAF8AbwByAF8AbQBhAHQAcgBpAHgAKQApACkAKQA7ADsAXABuAFMAVABBAFQALgBQAE8ATwBMAEUARAAuAFYAQQBSAEkAQQBOAEMARQA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AEwARQBUACgAbgBfAGkAOwBTAFQAQQBUAC4AVABBAEIATABFACgAZwByAG8AdQBwAHMAKQAtADEAOwBzAHUAbQBfAG4AOwBTAFUATQBNAEUAKABuAF8AaQApADsAcwBfAGkAOwBHAFIATwBVAFAALgBTAEQAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzACkAXgAyADsAUwBVAE0ATQBFAE4AUABSAE8ARABVAEsAVAAoAG4AXwBpADsAcwBfAGkAKQAvAHMAdQBtAF8AbgApACkAOwA7AFwAbgBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsAcABfAHYAKgBtAF8AdgApADsAOwBQAC4AQQBEAEoALgBIAE8ATABNAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsATABFAFQAKABwAF8AcwA7AFMATwBSAFQASQBFAFIARQBOACgAcABfAHYAKQA7AGkAZABfAHYAOwBTAEUAUQBVAEUATgBaACgAQQBOAFoAQQBIAEwAKABwAF8AdgApACkAOwBpAGQAXwBzADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAGkAZABfAHYAOwBwAF8AdgApADsAcABfAHMAdABhAHIAOwBwAF8AcwAqACgAbQBfAHYAKwAxAC0AaQBkAF8AdgApADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAHAAXwBzAHQAYQByADsAaQBkAF8AcwApACkAKQA7ADsAUAAuAEEARABKAC4AUwBJAEQAQQBLAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsAMQAtACgAMQAtAHAAXwB2ACkAXgBtAF8AdgApADsAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsATABFAFQAKABwAF8AcwA7AFMATwBSAFQASQBFAFIARQBOACgAcABfAHYAKQA7AGkAZABfAHYAOwBTAEUAUQBVAEUATgBaACgAQQBOAFoAQQBIAEwAKABwAF8AdgApACkAOwBpAGQAXwBzADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAGkAZABfAHYAOwBwAF8AdgApADsAcABfAHMAdABhAHIAOwAxAC0AKAAxAC0AcABfAHMAKQBeACgAbQBfAHYAKwAxAC0AaQBkAF8AdgApADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAHAAXwBzAHQAYQByADsAaQBkAF8AcwApACkAKQA7ADsAUAAuAEEARABKAC4ASABPAEMASABCAEUAUgBHAD0ATABBAE0AQgBEAEEAKABwAF8AdgA7AG0AXwB2ADsATABFAFQAKABwAF8AcwA7AFMATwBSAFQASQBFAFIARQBOACgAcABfAHYAKQA7AGkAZABfAHYAOwBTAEUAUQBVAEUATgBaACgAQQBOAFoAQQBIAEwAKABwAF8AdgApACkAOwBpAGQAXwBzADsAUwBPAFIAVABJAEUAUgBFAE4ATgBBAEMASAAoAGkAZABfAHYAOwBwAF8AdgApADsAcABfAHMAdABhAHIAOwBwAF8AcwAqAG0AXwB2AC8AKABtAF8AdgArADEALQBpAGQAXwB2ACkAOwBTAE8AUgBUAEkARQBSAEUATgBOAEEAQwBIACgAcABfAHMAdABhAHIAOwBpAGQAXwBzACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAFMARQA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBMAEUAVAAoAHMAZABlAHYAOwBTAFQAQQBCAFcALgBTACgAdgBhAGwAdQBlAHMAKQA7AGMAbgB0AF8AdgBhAGwAdQBlAHMAOwBBAE4AWgBBAEgATAAoAHYAYQBsAHUAZQBzACkAOwBzAGQAZQB2AC8AVwBVAFIAWgBFAEwAKABjAG4AdABfAHYAYQBsAHUAZQBzACkAKQApADsAOwBTAFQAQQBUAC4AUwBUAEQALgBFAFIAUgBPAFIAPQBTAFQAQQBUAC4AUwBFADsAOwBcAG4AUwBUAEEAVAAuAFMASQBHAE4APQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQA7AC0AMQAqACgAdgBhAGwAdQBlADwAMAApACsAKAB2AGEAbAB1AGUAPgAwACkAKQA7ADsAXABuAFMAVABBAFQALgBEAEUAUwBDAFIASQBCAEUALgBOAE8ATQBJAE4AQQBMAD0ATABBAE0AQgBEAEEAKABkAGEAdABhADsAWwB2AGEAcgBpAGEAYgBsAGUAXQA7AEwARQBUACgAdgBhAHIAaQBhAGIAbABlADsAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKAB2AGEAcgBpAGEAYgBsAGUAKQA7AFwAIgBcACIAOwB2AGEAcgBpAGEAYgBsAGUAKQA7AFYAUwBUAEEAUABFAEwATgAoAEgAUwBUAEEAUABFAEwATgAoAHYAYQByAGkAYQBiAGwAZQA7AFwAIgBBAGIAcwBvAGwAdQB0AFwAIgA7AFwAIgBSAGUAbABhAHQAaQB2AFwAIgApADsASABTAFQAQQBQAEUATABOACgAUwBUAEEAVAAuAFQAQQBCAEwARQAoAGQAYQB0AGEAOwBXAEEASABSACkAOwBzAHQAYQB0AC4AdABhAGIAbABlAC4AcgBlAGwAYQB0AGkAdgBlACgAZABhAHQAYQApACkAKQApACkAOwA7AFwAbgBTAFQAQQBUAC4AVABBAEIATABFAC4AUgBFAEwAQQBUAEkAVgBFAD0ATABBAE0AQgBEAEEAKABhAHYAYQBsADsAWwBiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwBdADsAWwBoAGUAYQBkAGkAbgBnAF0AOwBMAEUAVAAoAGIAXwBwADEAOwBXAEUATgBOAFMAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA7ADAAOwBBAE4AWgBBAEgATAAyACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA9ADEAOwAxADsAQQBOAFoAQQBIAEwAMgAoAGIAdgBhAGwAXwBvAHIAXwBoAGUAYQBkAGkAbgBnACkAPQBBAG4AegBhAGgAbAAyACgAYQB2AGEAbAApADsAMgA7AFcAQQBIAFIAOwAwACkAOwBoAGUAYQBkAGkAbgBnADsAVwBFAE4ATgBTACgAYgBfAHAAMQA9ADEAOwBuACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGkAbgBnACkAOwAwADsAVwBBAEgAUgA7AG4AKABoAGUAYQBkAGkAbgBnACkAKQA8AD4AMAA7AHQAYQBiADsAdwBlAG4AbgAoAGIAXwBwADEAPQAyADsAUwBUAEEAVAAuAFQAQQBCAEwARQAoAGEAdgBhAGwAOwBiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwApADsAUwBUAEEAVAAuAFQAQQBCAEwARQAoAGEAdgBhAGwAKQApADsAdABvAHQAYQBsAHMAOwBzAHUAbQBtAGUAKAB0AGEAYgApADsAcgBlAHMAdQBsAHQAcwA7AHQAYQBiAC8AdABvAHQAYQBsAHMAOwBpAGQAXwBhAHYAYQBsADsARQBJAE4ARABFAFUAVABJAEcAKABhAHYAYQBsACkAOwBpAGQAXwBiAHYAYQBsADsAVwBFAE4ATgAoAGIAXwBwADEAPQAyADsAbQB0AHIAYQBuAHMAKABFAEkATgBEAEUAVQBUAEkARwAoAGIAdgBhAGwAXwBvAHIAXwBoAGUAYQBkAGkAbgBnACkAKQA7ACMATgBWACkAOwB3AGUAbgBuACgAaABlAGEAZABpAG4AZwA7AHcAZQBuAG4AKABiAF8AcAAxAD0AMgA7AFYAUwBUAEEAUABFAEwATgAoAEgAUwBUAEEAUABFAEwATgAoAFwAIgBcACIAOwBpAGQAXwBiAHYAYQBsACkAOwBIAFMAVABBAFAARQBMAE4AKABpAGQAXwBhAHYAYQBsADsAcgBlAHMAdQBsAHQAcwApACkAOwBIAFMAVABBAFAARQBMAE4AKABpAGQAXwBhAHYAYQBsADsAcgBlAHMAdQBsAHQAcwApACkAOwByAGUAcwB1AGwAdABzACkAKQApADsAOwBcAG4AUwBUAEEAVAAuAFQAQQBCAEwARQA9AEwAQQBNAEIARABBACgAYQB2AGEAbAA7AFsAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAXQA7AFsAaABlAGEAZABpAG4AZwBdADsATABFAFQAKABtAGQAaQBtAF8AYQA7AFoAZQBpAGwAZQBuACgAYQB2AGEAbAApAC0AUwBwAGEAbAB0AGUAbgAoAGEAdgBhAGwAKQA7AGEAdgBhAGwAOwB3AGUAbgBuACgAbQBkAGkAbQBfAGEAPgAwADsAegB1AHMAcABhAGwAdABlACgAYQB2AGEAbAApADsAegB1AHoAZQBpAGwAZQAoAGEAdgBhAGwAKQApADsAbgBfAGEAdgBhAGwAOwBBAE4AWgBBAEgATAAyACgAYQB2AGEAbAApADsAaQBkAF8AYQB2AGEAbAA7AEUASQBOAEQARQBVAFQASQBHACgAYQB2AGEAbAApADsAYgBfAHAAMQA7AFcARQBOAE4AUwAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwApADsAMAA7AEEATgBaAEEASABMADIAKABiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwApAD0AMQA7ADEAOwBBAE4AWgBBAEgATAAyACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA9AG4AXwBhAHYAYQBsADsAMgA7AFcAQQBIAFIAOwAwACkAOwBoAGUAYQBkAGkAbgBnADsAVwBFAE4ATgBTACgAYgBfAHAAMQA9ADEAOwBuACgAYgB2AGEAbABfAG8AcgBfAGgAZQBhAGQAaQBuAGcAKQA7AFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGkAbgBnACkAOwAwADsAVwBBAEgAUgA7AG4AKABoAGUAYQBkAGkAbgBnACkAKQA8AD4AMAA7AGIAdgBhAGwAOwB3AGUAbgBuACgAYgBfAHAAMQA9ADIAOwBiAHYAYQBsAF8AbwByAF8AaABlAGEAZABpAG4AZwA7AHcAZQBuAG4AKABtAGQAaQBtAF8AYQA+ADAAOwBWAFIARQBQAEUAQQBUACgAMQA7AG4AXwBhAHYAYQBsACkAOwBIAFIARQBQAEUAQQBUACgAMQA7AG4AXwBhAHYAYQBsACkAKQApADsAaQBkAF8AYgB2AGEAbAA7AE0AVABSAEEATgBTACgARQBJAE4ARABFAFUAVABJAEcAKABiAHYAYQBsACkAKQA7AGkAZABfAGEAdgBhAGwAVAA7AE0AVABSAEEATgBTACgAaQBkAF8AYQB2AGEAbAApADsAcgBlAHMAdQBsAHQAcwA7AE0ATQBVAEwAVAAoAG0AdAByAGEAbgBzACgAKABJAFMAVABGAEUASABMAEUAUgAoAGkAZABfAGEAdgBhAGwAVAApACsASQBTAFQARgBFAEgATABFAFIAKABhAHYAYQBsACkALQBJAFMAVABGAEUASABMAEUAUgAoAGEAdgBhAGwAKQAqAEkAUwBUAEYARQBIAEwARQBSACgAaQBkAF8AYQB2AGEAbABUACkAKQAqAHcAZQBuAG4AZgBlAGgAbABlAHIAKABGAEUASABMAEUAUgAuAFQAWQBQACgAaQBkAF8AYQB2AGEAbABUACkAPQBGAEUASABMAEUAUgAuAFQAWQBQACgAYQB2AGEAbAApADsAMAApACsAdwBlAG4AbgBmAGUAaABsAGUAcgAoADEAKgAoAGkAZABfAGEAdgBhAGwAVAA9AGEAdgBhAGwAKQA7ADAAKQApADsAKABJAFMAVABGAEUASABMAEUAUgAoAGkAZABfAGIAdgBhAGwAKQArAEkAUwBUAEYARQBIAEwARQBSACgAYgB2AGEAbAApAC0ASQBTAFQARgBFAEgATABFAFIAKABiAHYAYQBsACkAKgBJAFMAVABGAEUASABMAEUAUgAoAGkAZABfAGIAdgBhAGwAKQApACoAdwBlAG4AbgBmAGUAaABsAGUAcgAoAEYARQBIAEwARQBSAC4AVABZAFAAKABpAGQAXwBiAHYAYQBsACkAPQBGAEUASABMAEUAUgAuAFQAWQBQACgAYgB2AGEAbAApADsAMAApACsAdwBlAG4AbgBmAGUAaABsAGUAcgAoADEAKgAoAGkAZABfAGIAdgBhAGwAPQBiAHYAYQBsACkAOwAwACkAKQA7AFcARQBOAE4AKABoAGUAYQBkAGkAbgBnADsAdwBlAG4AbgAoAGIAXwBwADEAPQAyADsAVgBTAFQAQQBQAEUATABOACgASABTAFQAQQBQAEUATABOACgAXAAiAFwAIgA7AGkAZABfAGIAdgBhAGwAKQA7AEgAUwBUAEEAUABFAEwATgAoAGkAZABfAGEAdgBhAGwAOwByAGUAcwB1AGwAdABzACkAKQA7AEgAUwBUAEEAUABFAEwATgAoAGkAZABfAGEAdgBhAGwAOwByAGUAcwB1AGwAdABzACkAKQA7AHIAZQBzAHUAbAB0AHMAKQApACkAOwA7AFwAbgBUAEEAQgBMAEUALgBTAEUATABFAEMAVAA9AEwAQQBNAEIARABBACgAdABhAGIAXwBuAGEAbQBlADsAYwBvAGwAXwBuAGEAbQBlAHMAOwBbAHcAaQB0AGgAXwBoAGUAYQBkAGUAcgBzAF0AOwBsAGUAdAAoAG4AXwByAG8AdwBzADsAWgBFAEkATABFAE4AKABJAE4ARABJAFIARQBLAFQAKAB0AGEAYgBfAG4AYQBtAGUAKQApADsAYwBvAGwAXwByAGUAZgBzADsAdABhAGIAXwBuAGEAbQBlACYAXAAiAFsAXAAiACYAYwBvAGwAXwBuAGEAbQBlAHMAJgBcACIAXQBcACIAOwBuAG8AXwByAG8AdwBzADsAcwBlAHEAdQBlAG4AegAoAG4AXwByAG8AdwBzACkAOwBuAG8AXwBjAG8AbABzADsAcwBlAHEAdQBlAG4AegAoAEEATgBaAEEASABMADIAKABjAG8AbABfAG4AYQBtAGUAcwApACkAKwAxADsAYwBvAGwAXwBoAGUAYQBkAGUAcgBzADsAVwBFAE4ATgAoAFoARQBJAEwARQBOACgAYwBvAGwAXwBuAGEAbQBlAHMAKQA+AFMAUABBAEwAVABFAE4AKABjAG8AbABfAG4AYQBtAGUAcwApADsATQBUAFIAQQBOAFMAKABjAG8AbABfAG4AYQBtAGUAcwApADsAYwBvAGwAXwBuAGEAbQBlAHMAKQA7AHIAZQBzAHUAbAB0ADsAUwBQAEEATABUAEUATgBXAEEASABMACgAUgBFAEQAVQBDAEUAKABuAG8AXwByAG8AdwBzADsAYwBvAGwAXwByAGUAZgBzADsATABBAE0AQgBEAEEAKABhAGMAYwB1ADsAYwBvAGwAXwByAGUAZgA7AEgAUwBUAEEAUABFAEwATgAoAGEAYwBjAHUAOwBMAEUAVAAoAHYAYQBsAHUAZQBzADsASQBOAEQASQBSAEUASwBUACgAYwBvAGwAXwByAGUAZgApADsAdwBlAG4AbgAoAEkAUwBUAEwARQBFAFIAKAB2AGEAbAB1AGUAcwApADsAIwBOAFYAOwB2AGEAbAB1AGUAcwApACkAKQApACkAOwBuAG8AXwBjAG8AbABzACkAOwBXAEUATgBOACgATwBEAEUAUgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKAB3AGkAdABoAF8AaABlAGEAZABlAHIAcwApADsATgBJAEMASABUACgAdwBpAHQAaABfAGgAZQBhAGQAZQByAHMAKQApADsAcgBlAHMAdQBsAHQAOwBWAFMAVABBAFAARQBMAE4AKABjAG8AbABfAGgAZQBhAGQAZQByAHMAOwByAGUAcwB1AGwAdAApACkAKQApADsAOwBcAG4AQwBIAEkAUQBVAC4AVABFAFMAVAAuAFMAPQBMAEEATQBCAEQAQQAoAHgAXwBpADsAeQBfAGkAOwBbAGgAZQBhAGQAZQByAF0AOwBMAEUAVAAoAG4AXwBpAGoAOwBTAFQAQQBUAC4AVABBAEIATABFACgAeABfAGkAOwB5AF8AaQApADsAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGUAcgApADsAQwBIAEkAUQBVAC4AVABFAFMAVAAuAFgAKABuAF8AaQBqADsARgBBAEwAUwBDAEgAKQA7AEMASABJAFEAVQAuAFQARQBTAFQALgBYACgAbgBfAGkAagA7AGgAZQBhAGQAZQByACkAKQApACkAOwA7AEMASABJAFEAVQAuAFQARQBTAFQAMgA9AEMASABJAFEAVQAuAFQARQBTAFQALgBTADsAOwBcAG4AQwBIAEkAUQBVAC4AVABFAFMAVAAyAC4ASABFAEEARABFAFIAPQBMAEEATQBCAEQAQQAoAEgAUwBUAEEAUABFAEwATgAoAFwAIgBwAFwAIgA7AFwAIgBkAGYAXAAiACkAKQA7ADsAXABuAEMASABJAFEAVQAuAFQARQBTAFQALgBYAD0ATABBAE0AQgBEAEEAKABuAF8AaQBqADsAWwBoAGUAYQBkAGUAcgBdADsATABFAFQAKABuAF8AaQA7AHIAbwB3AHMAdQBtACgAbgBfAGkAagApADsAbgBfAGoAOwBjAG8AbABzAHUAbQAoAG4AXwBpAGoAKQA7AG4AOwBTAFUATQBNAEUAKABuAF8AagApADsARQBXADsAbgBfAGkAKgBuAF8AagAvAG4AOwB2AF8AeABpADIAOwBTAFUATQBNAEUAKAAoAG4AXwBpAGoALQBFAFcAKQBeADIALwBFAFcAKQA7AGQAZgA7AE0AQQBYACgAQQBOAFoAQQBIAEwAKABuAF8AaQApADsAQQBOAFoAQQBIAEwAKABuAF8AagApACkALQAxADsAcgBlAHMAdQBsAHQAcwA7AEgAUwBUAEEAUABFAEwATgAoAEMASABJAFEAVQAuAFYARQBSAFQALgBSAEUAKAB2AF8AeABpADIAOwBkAGYAKQA7AGQAZgApADsAdwBlAG4AbgAoAE8ARABFAFIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAKQA7AE4ASQBDAEgAVAAoAGgAZQBhAGQAZQByACkAKQA7AHIAZQBzAHUAbAB0AHMAOwBWAFMAVABBAFAARQBMAE4AKABDAEgASQBRAFUALgBUAEUAUwBUADIALgBIAEUAQQBEAEUAUgAoACkAOwByAGUAcwB1AGwAdABzACkAKQApACkAOwA7AFwAbgBEAFUATgBOAC4AVABFAFMAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFsAYQBkAGoAdQBzAHQAbQBlAG4AdABdADsATABFAFQAKAByAGEAbgBrAHMAOwBSAEEATgBHAC4ATQBJAFQAVABFAEwAVwAoAHYAYQBsAHUAZQBzADsAdgBhAGwAdQBlAHMAKQA7AG4AXwBhAGwAbAA7AEEATgBaAEEASABMACgAdgBhAGwAdQBlAHMAKQA7AG4AXwBpADsARwBSAE8AVQBQAC4AQwBPAFUATgBUACgAZwByAG8AdQBwAHMAKQA7AGcAcgBvAHUAcABfAGkAOwBFAEkATgBEAEUAVQBUAEkARwAoAGcAcgBvAHUAcABzACkAOwByAGEAbgBrAHMAdQBtAF8AaQA7AEMATwBMAFMAVQBNACgAcgBhAG4AawBzACoAKABnAHIAbwB1AHAAcwA9AE0AVABSAEEATgBTACgAZwByAG8AdQBwAF8AaQApACkAKQAvAE0AVABSAEEATgBTACgAbgBfAGkAKQA7AHMAaQBnAG0AYQBfAGMAbwByAHIAZQBjAHQAaQBvAG4AOwBuAF8AYQBsAGwAKgAoAG4AXwBhAGwAbAArADEAKQAvADEAMgA7AGIAaQBuAGQAXwBjAG8AdQBuAHQAOwBHAFIATwBVAFAALgBDAE8AVQBOAFQAKAByAGEAbgBrAHMAKQA7AGIAaQBuAGQAXwBjAG8AcgByAGUAYwB0AGkAbwBuADsAUwBVAE0ATQBFACgAYgBpAG4AZABfAGMAbwB1AG4AdABeADMALQBiAGkAbgBkAF8AYwBvAHUAbgB0ACkALwAoADEAMgAqACgAbgBfAGEAbABsAC0AMQApACkAOwBtAGEAdABfAHQAcgBpAGEAbgBnADsATQBUAFIASQBBAE4ARwBMAEUAKABBAE4AWgBBAEgATAAoAG4AXwBpACkAOwBGAEEATABTAEMASAA7AFcAQQBIAFIAKQA7AG0AYQB0AF8AVwAxADsAbQBhAHQAXwB0AHIAaQBhAG4AZwAqAG0AdAByAGEAbgBzACgAcgBhAG4AawBzAHUAbQBfAGkAKQA7AG0AYQB0AF8AVwAyADsAbQBhAHQAXwB0AHIAaQBhAG4AZwAqAHIAYQBuAGsAcwB1AG0AXwBpADsAbQBhAHQAXwBuADEAOwBtAGEAdABfAHQAcgBpAGEAbgBnACoATQBUAFIAQQBOAFMAKAAxAC8AbgBfAGkAKQA7AG0AYQB0AF8AbgAyADsAbQBhAHQAXwB0AHIAaQBhAG4AZwAqADEALwBuAF8AaQA7AHMAaQBnAG0AYQA7AFcAVQBSAFoARQBMACgAKABzAGkAZwBtAGEAXwBjAG8AcgByAGUAYwB0AGkAbwBuAC0AYgBpAG4AZABfAGMAbwByAHIAZQBjAHQAaQBvAG4AKQAqACgAbQBhAHQAXwBuADEAKwBtAGEAdABfAG4AMgApACkAOwBkAGUAbAB0AGEAXwBSAFMAOwBtAGEAdABfAFcAMQAtAG0AYQB0AF8AVwAyADsAegBfAHYAYQBsAHUAZQA7AGQAZQBsAHQAYQBfAFIAUwAvAHMAaQBnAG0AYQA7AGcAXwBuAGIAcgA7AFMARQBRAFUARQBOAFoAKABBAE4AWgBBAEgATAAoAG4AXwBpACkAKQA7AHoAXwBpAGQAXwByAGEAdwA7AHoAdQBzAHAAYQBsAHQAZQAoAGcAXwBuAGIAcgAqAG0AYQB0AF8AdAByAGkAYQBuAGcAKQA7AHMAXwBpAGQAXwByAGEAdwA7AHoAdQBzAHAAYQBsAHQAZQAoAG0AdAByAGEAbgBzACgAZwBfAG4AYgByACkAKgBtAGEAdABfAHQAcgBpAGEAbgBnACkAOwB6AF8AaQBkADsAZgBpAGwAdABlAHIAKAB6AF8AaQBkAF8AcgBhAHcAOwB6AF8AaQBkAF8AcgBhAHcAKQA7AHMAXwBpAGQAOwBmAGkAbAB0AGUAcgAoAHMAXwBpAGQAXwByAGEAdwA7AHMAXwBpAGQAXwByAGEAdwApADsAegBfAGYAaQBuAGEAbAA7AGkAbgBkAGUAeAAoAHoAXwB2AGEAbAB1AGUAOwB6AF8AaQBkADsAcwBfAGkAZAApADsAbQBfAHAAYQBpAHIAcwA7AHMAdQBtAG0AZQAoAFMARQBRAFUARQBOAFoAKABBAE4AWgBBAEgATAAoAG4AXwBpACkAOwAxADsAMAApACkAOwBwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBOAE8AUgBNAC4AUwAuAFYARQBSAFQAKAB3AGUAbgBuACgAegBfAGYAaQBuAGEAbAA+ADAAOwAtADEAKgB6AF8AZgBpAG4AYQBsADsAegBfAGYAaQBuAGEAbAApADsAVwBBAEgAUgApADsAcABfAHYAYQBsAHUAZQA7AFcARQBOAE4AUwAoAE8ARABFAFIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAGgAbwBsAG0AXAAiACkAOwBQAC4AQQBEAEoALgBIAE8ATABNACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAbQBfAHAAYQBpAHIAcwApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAGIAbwBuAGYAZQByAHIAbwBuAGkAXAAiADsAUAAuAEEARABKAC4AQgBPAE4ARgBFAFIAUgBPAE4ASQAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AG0AXwBwAGEAaQByAHMAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AYwBoAGIAZQByAGcAXAAiADsAUAAuAEEARABKAC4ASABPAEMASABCAEUAUgBHACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAbQBfAHAAYQBpAHIAcwApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBtAF8AcABhAGkAcgBzACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBzAGkAZABhAGsAXAAiADsAUAAuAEEARABKAC4ASABPAEwATQBfAFMASQBEAEEASwAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AG0AXwBwAGEAaQByAHMAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AbABtAC0AcwBpAGQAYQBrAFwAIgA7AFAALgBBAEQASgAuAEgATwBMAE0AXwBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBtAF8AcABhAGkAcgBzACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBfAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAbQBfAHAAYQBpAHIAcwApADsAVwBBAEgAUgA7AHAAXwB2AGEAbAB1AGUAXwByAGEAdwApADsAdgBzAHQAYQBwAGUAbABuACgASABTAFQAQQBQAEUATABOACgAXAAiAEEAXAAiADsAXAAiAEIAXAAiADsAXAAiAFMAdABhAHQAaQBzAHQAaQBrAFwAIgA7AFwAIgBwAFwAIgApADsASABTAFQAQQBQAEUATABOACgAWgBFAEkATABFAE4AVwBBAEgATAAoAGcAcgBvAHUAcABfAGkAOwB6AF8AaQBkACkAOwB6AGUAaQBsAGUAbgB3AGEAaABsACgAZwByAG8AdQBwAF8AaQA7AHMAXwBpAGQAKQA7AHoAXwBmAGkAbgBhAGwAOwB3AGUAbgBuACgAcABfAHYAYQBsAHUAZQA+ADEAOwAxADsAcABfAHYAYQBsAHUAZQApACkAKQApACkAOwA7AFwAbgBGAC4AVABFAFMAVAAuAFMAPQBMAEEATQBCAEQAQQAoAGEAXwB2ADsAdQBfAHYAOwBbAGgAZQBhAGQAZQByAHMAXQA7AEwARQBUACgAbABfAHUAdgA7AFoAVQBTAFAAQQBMAFQARQAoAEUASQBOAEQARQBVAFQASQBHACgAdQBfAHYAKQApADsAcgBlAHMAdQBsAHQAOwBXAEUATgBOACgAQQBOAFoAQQBIAEwAMgAoAGwAXwB1AHYAKQA9ADIAOwBGAC4AVABFAFMAVAAoAEYASQBMAFQARQBSACgAYQBfAHYAOwB1AF8AdgA9AEkATgBEAEUAWAAoAHUAXwB2ADsAMQA7ADEAKQApADsARgBJAEwAVABFAFIAKABhAF8AdgA7AHUAXwB2AD0ASQBOAEQARQBYACgAdQBfAHYAOwAyADsAMQApACkAKQA7ACMAVwBFAFIAVAAhACkAOwBXAEUATgBOACgATwBEAEUAUgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABoAGUAYQBkAGUAcgBzACkAOwBOAEkAQwBIAFQAKABoAGUAYQBkAGUAcgBzACkAKQA7AHIAZQBzAHUAbAB0ADsAVgBTAFQAQQBQAEUATABOACgAXAAiAHAAXAAiADsAcgBlAHMAdQBsAHQAKQApACkAKQA7ADsAXABuAEsAUgBVAFMASwBBAEwAXwBXAEEATABMAEkAUwAuAFQARQBTAFQAPQBMAEEATQBCAEQAQQAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAOwBbAGgAZQBhAGQAZQByAHMAXQA7AEwARQBUACgAbgBfAGEAbABsADsAQQBOAFoAQQBIAEwAKAB2AGEAbAB1AGUAcwApADsAbgBfAGcAcgBvAHUAcABzADsAQQBOAFoAQQBIAEwAMgAoAEUASQBOAEQARQBVAFQASQBHACgAZwByAG8AdQBwAHMAKQApADsAZABfAGYAOwBuAF8AZwByAG8AdQBwAHMALQAxADsAbgBfAGgAOwBHAFIATwBVAFAALgBDAE8AVQBOAFQAKABnAHIAbwB1AHAAcwApADsAcgBhAG4AawBzADsAUgBBAE4ARwAuAE0ASQBUAFQARQBMAFcAKAB2AGEAbAB1AGUAcwA7AHYAYQBsAHUAZQBzACkAOwBiAF8AYgBpAG4AZABpAG4AZwBzADsAQQBOAFoAQQBIAEwAKABFAEkATgBEAEUAVQBUAEkARwAoAHIAYQBuAGsAcwApACkAPABuAF8AYQBsAGwAOwBoAF8AYwBvAHIAcgBlAGMAdABpAG8AbgA7AC0AMwAqACgAbgBfAGEAbABsACsAMQApADsAaABfAGYAYQBjAHQAbwByADsAMQAyAC8AKABuAF8AZwByAG8AdQBwAHMAKgAoAG4AXwBnAHIAbwB1AHAAcwArADEAKQAtAGgAXwBjAG8AcgByAGUAYwB0AGkAbwBuACkAOwBtAF8AZwByAG8AdQBwAHMAOwAxACoAKABnAHIAbwB1AHAAcwA9AE0AVABSAEEATgBTACgARQBJAE4ARABFAFUAVABJAEcAKABnAHIAbwB1AHAAcwApACkAKQA7AEgAXwBjAG8AcgBlADsAaABfAGYAYQBjAHQAbwByACoAUwBVAE0ATQBFACgAQwBPAEwAUwBVAE0AKABtAF8AZwByAG8AdQBwAHMAKgByAGEAbgBrAHMAKQAvAE0AVABSAEEATgBTACgAbgBfAGgAKQApADsAYgBpAG4AZABfAGYAYQBjAHQAbwByADsAMQAvACgAbgBfAGEAbABsAF4AMwAtAG4AXwBhAGwAbAApADsAYgBpAG4AZABfAGMAbwB1AG4AdAA7AEcAUgBPAFUAUAAuAEMATwBVAE4AVAAoAHIAYQBuAGsAcwApADsAYgBpAG4AZABfAGMAbwByAHIAZQBjAHQAaQBvAG4AOwAxAC0AUwBVAE0ATQBFACgAYgBpAG4AZABfAGMAbwB1AG4AdABeADMALQBiAGkAbgBkAF8AYwBvAHUAbgB0ACkAKgBiAGkAbgBkAF8AZgBhAGMAdABvAHIAOwBIAF8AdgBhAGwAdQBlADsAdwBlAG4AbgAoAGIAXwBiAGkAbgBkAGkAbgBnAHMAOwBIAF8AYwBvAHIAZQAvAGIAaQBuAGQAXwBjAG8AcgByAGUAYwB0AGkAbwBuADsASABfAGMAbwByAGUAKQA7AHAAXwB2AGEAbAB1AGUAOwBDAEgASQBRAFUALgBWAEUAUgBUAC4AUgBFACgASABfAHYAYQBsAHUAZQA7AGQAXwBmACkAOwByAGUAcwB1AGwAdABzADsASABTAFQAQQBQAEUATABOACgASABfAHYAYQBsAHUAZQA7AGQAXwBmADsAcABfAHYAYQBsAHUAZQApADsAdwBlAG4AbgAoAG8AZABlAHIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAcwApADsAbgBpAGMAaAB0ACgAaABlAGEAZABlAHIAcwApACkAOwByAGUAcwB1AGwAdABzADsAVgBTAFQAQQBQAEUATABOACgASABTAFQAQQBQAEUATABOACgAXAAiAEgAXAAiADsAXAAiAGQAZgBcACIAOwBcACIAcABcACIAKQA7AHIAZQBzAHUAbAB0AHMAKQApACkAKQA7ADsAXABuAFAAQQBJAFIAVwBJAFMARQAuAEYALgBUAEUAUwBUAD0ATABBAE0AQgBEAEEAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzADsAWwBhAGQAagB1AHMAdABtAGUAbgB0AF0AOwBMAEUAVAAoAG4AXwBhAGwAbAA7AEEATgBaAEEASABMACgAdgBhAGwAdQBlAHMAKQA7AGcAcgBvAHUAcABfAG4AYQBtAGUAcwA7AEUASQBOAEQARQBVAFQASQBHACgAZwByAG8AdQBwAHMAKQA7AGsAXwBhAGwAbAA7AEEATgBaAEEASABMADIAKABnAHIAbwB1AHAAXwBuAGEAbQBlAHMAKQA7AG0AXwB0AHIAaQBhAG4AZwA7AE0AVABSAEkAQQBOAEcATABFACgAawBfAGEAbABsADsAOwAxACkAOwBnAHIAbwB1AHAAXwBpAGQAOwBTAEUAUQBVAEUATgBaACgAawBfAGEAbABsACkAOwBnAHIAcABfADEAOwBaAFUAUwBQAEEATABUAEUAKABtAF8AdAByAGkAYQBuAGcAKgBnAHIAbwB1AHAAXwBpAGQAKQA7AGcAcgBwAF8AMgA7AFoAVQBTAFAAQQBMAFQARQAoAG0AXwB0AHIAaQBhAG4AZwAqAE0AVABSAEEATgBTACgAZwByAG8AdQBwAF8AaQBkACkAKQA7AGcAMQBfAGkAZAA7AGYAaQBsAHQAZQByACgAZwByAHAAXwAxADsAZwByAHAAXwAxACkAOwBnADIAXwBpAGQAOwBmAGkAbAB0AGUAcgAoAGcAcgBwAF8AMgA7AGcAcgBwAF8AMgApADsAZwAxAF8AbgBhAG0AZQBzADsASQBOAEQARQBYACgAZwByAG8AdQBwAF8AbgBhAG0AZQBzADsAZwAxAF8AaQBkACkAOwBnADIAXwBuAGEAbQBlAHMAOwBJAE4ARABFAFgAKABnAHIAbwB1AHAAXwBuAGEAbQBlAHMAOwBnADIAXwBpAGQAKQA7AHAAXwB2AGEAbAB1AGUAcwA7AG0AYQBwACgAZwAxAF8AbgBhAG0AZQBzADsAZwAyAF8AbgBhAG0AZQBzADsATABBAE0AQgBEAEEAKABhAF8AdgA7AGIAXwB2ADsARgAuAFQARQBTAFQAKABmAGkAbAB0AGUAcgAoAHYAYQBsAHUAZQBzADsAZwByAG8AdQBwAHMAPQBhAF8AdgApADsAZgBpAGwAdABlAHIAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzAD0AYgBfAHYAKQApACkAKQA7AHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AHcAZQBuAG4AKABwAF8AdgBhAGwAdQBlAHMAPgAwAC4ANQA7ADEALQBwAF8AdgBhAGwAdQBlAHMAOwBwAF8AdgBhAGwAdQBlAHMAKQA7AHAAXwBzAHQAYQByADsAMgAqAFcARQBOAE4AUwAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAYgBvAG4AZgBlAHIAcgBvAG4AaQBcACIAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGMAaABiAGUAcgBnAFwAIgA7AFAALgBBAEQASgAuAEgATwBDAEgAQgBFAFIARwAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AGsAXwBhAGwAbAApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBrAF8AYQBsAGwAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AbABtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQAtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBfAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBXAEEASABSADsAcABfAHYAYQBsAHUAZQBfAHIAYQB3ACkAOwBoAHMAdABhAHAAZQBsAG4AKABnADEAXwBuAGEAbQBlAHMAOwBnADIAXwBuAGEAbQBlAHMAOwB3AGUAbgBuACgAcABfAHMAdABhAHIAPgAxADsAMQA7AHAAXwBzAHQAYQByACkAKQApACkAOwA7AFwAbgBQAEEASQBSAFcASQBTAEUALgBUAC4AVABFAFMAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA7AFsAYQBkAGoAdQBzAHQAbQBlAG4AdABdADsATABFAFQAKABuAF8AYQBsAGwAOwBBAE4AWgBBAEgATAAoAHYAYQBsAHUAZQBzACkAOwBnAHIAbwB1AHAAXwBuAGEAbQBlAHMAOwBFAEkATgBEAEUAVQBUAEkARwAoAGcAcgBvAHUAcABzACkAOwBrAF8AYQBsAGwAOwBBAE4AWgBBAEgATAAyACgAZwByAG8AdQBwAF8AbgBhAG0AZQBzACkAOwBtAF8AdAByAGkAYQBuAGcAOwBNAFQAUgBJAEEATgBHAEwARQAoAGsAXwBhAGwAbAA7ADsAMQApADsAZwByAG8AdQBwAF8AaQBkADsAUwBFAFEAVQBFAE4AWgAoAGsAXwBhAGwAbAApADsAZwByAHAAXwAxADsAWgBVAFMAUABBAEwAVABFACgAbQBfAHQAcgBpAGEAbgBnACoAZwByAG8AdQBwAF8AaQBkACkAOwBnAHIAcABfADIAOwBaAFUAUwBQAEEATABUAEUAKABtAF8AdAByAGkAYQBuAGcAKgBNAFQAUgBBAE4AUwAoAGcAcgBvAHUAcABfAGkAZAApACkAOwBnADEAXwBpAGQAOwBmAGkAbAB0AGUAcgAoAGcAcgBwAF8AMQA7AGcAcgBwAF8AMQApADsAZwAyAF8AaQBkADsAZgBpAGwAdABlAHIAKABnAHIAcABfADIAOwBnAHIAcABfADIAKQA7AGcAMQBfAG4AYQBtAGUAcwA7AEkATgBEAEUAWAAoAGcAcgBvAHUAcABfAG4AYQBtAGUAcwA7AGcAMQBfAGkAZAApADsAZwAyAF8AbgBhAG0AZQBzADsASQBOAEQARQBYACgAZwByAG8AdQBwAF8AbgBhAG0AZQBzADsAZwAyAF8AaQBkACkAOwBwAF8AdgBhAGwAdQBlAHMAOwBtAGEAcAAoAGcAMQBfAG4AYQBtAGUAcwA7AGcAMgBfAG4AYQBtAGUAcwA7AEwAQQBNAEIARABBACgAYQBfAHYAOwBiAF8AdgA7AFQALgBUAEUAUwBUACgAZgBpAGwAdABlAHIAKAB2AGEAbAB1AGUAcwA7AGcAcgBvAHUAcABzAD0AYQBfAHYAKQA7AGYAaQBsAHQAZQByACgAdgBhAGwAdQBlAHMAOwBnAHIAbwB1AHAAcwA9AGIAXwB2ACkAOwAyADsAMwApACkAKQA7AHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AHcAZQBuAG4AKABwAF8AdgBhAGwAdQBlAHMAPgAwAC4ANQA7ADEALQBwAF8AdgBhAGwAdQBlAHMAOwBwAF8AdgBhAGwAdQBlAHMAKQA7AHAAXwBzAHQAYQByADsAMgAqAFcARQBOAE4AUwAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAYgBvAG4AZgBlAHIAcgBvAG4AaQBcACIAOwBQAC4AQQBEAEoALgBCAE8ATgBGAEUAUgBSAE8ATgBJACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGMAaABiAGUAcgBnAFwAIgA7AFAALgBBAEQASgAuAEgATwBDAEgAQgBFAFIARwAoAHAAXwB2AGEAbAB1AGUAXwByAGEAdwA7AGsAXwBhAGwAbAApADsASwBMAEUASQBOACgAYQBkAGoAdQBzAHQAbQBlAG4AdAApAD0AXAAiAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBTAEkARABBAEsAKABwAF8AdgBhAGwAdQBlAF8AcgBhAHcAOwBrAF8AYQBsAGwAKQA7AEsATABFAEkATgAoAGEAZABqAHUAcwB0AG0AZQBuAHQAKQA9AFwAIgBoAG8AbABtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQAtAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBLAEwARQBJAE4AKABhAGQAagB1AHMAdABtAGUAbgB0ACkAPQBcACIAaABvAGwAbQBfAHMAaQBkAGEAawBcACIAOwBQAC4AQQBEAEoALgBIAE8ATABNAF8AUwBJAEQAQQBLACgAcABfAHYAYQBsAHUAZQBfAHIAYQB3ADsAawBfAGEAbABsACkAOwBXAEEASABSADsAcABfAHYAYQBsAHUAZQBfAHIAYQB3ACkAOwBoAHMAdABhAHAAZQBsAG4AKABnADEAXwBuAGEAbQBlAHMAOwBnADIAXwBuAGEAbQBlAHMAOwB3AGUAbgBuACgAcABfAHMAdABhAHIAPgAxADsAMQA7AHAAXwBzAHQAYQByACkAKQApACkAOwA7AFwAbgBUAC4AVABFAFMAVAAuAFMAPQBMAEEATQBCAEQAQQAoAHAAXwB2AGEAbAB1AGUAcwA7AHAAXwBnAHIAbwB1AHAAcwA7AFsAYQBsAHQAZQByAG4AYQB0AGkAdgBlAF0AOwBbAHAAYQBpAHIAZQBkAF0AOwBMAEUAVAAoAGEAYgBfAG4AYQBtAGUAcwA7AEUASQBOAEQARQBVAFQASQBHACgAcABfAGcAcgBvAHUAcABzACkAOwBwAGEAaQByAGUAZAA7AFcARQBOAE4AKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAcABhAGkAcgBlAGQAKQA7ADMAOwB3AGUAbgBuACgAcABhAGkAcgBlAGQAOwAxADsAMwApACkAOwBhAGwAdABlAHIAbgBhAHQAaQB2AGUAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApADsAXAAiAHQAXAAiADsAUABSAEUAUAAuAEEATABUAEUAUgBOAEEAVABJAFYARQAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApACkAOwBhAGwAdABWADsAMQArACgAYQBsAHQAZQByAG4AYQB0AGkAdgBlAD0AXAAiAHQAXAAiACkAOwBhAGwAdABPADsAYQBsAHQAZQByAG4AYQB0AGkAdgBlAD0AXAAiAGcAXAAiADsAZwBfADEAOwBaAEUASQBMAEUATgBXAEEASABMACgAYQBiAF8AbgBhAG0AZQBzADsAMQApADsAZwBfADIAOwBaAEUASQBMAEUATgBXAEEASABMACgAYQBiAF8AbgBhAG0AZQBzADsAMgApADsAcABfAHYAOwBXAEUATgBOACgAQQBOAFoAQQBIAEwAMgAoAGEAYgBfAG4AYQBtAGUAcwApAD0AMgA7AFQALgBUAEUAUwBUACgARgBJAEwAVABFAFIAKABwAF8AdgBhAGwAdQBlAHMAOwBwAF8AZwByAG8AdQBwAHMAPQBnAF8AMQApADsARgBJAEwAVABFAFIAKABwAF8AdgBhAGwAdQBlAHMAOwBwAF8AZwByAG8AdQBwAHMAPQBnAF8AMgApADsAYQBsAHQAVgA7AHAAYQBpAHIAZQBkACkAOwAjAFcARQBSAFQAIQApADsAbQB3AF8AMQA7AE0ASQBUAFQARQBMAFcARQBSAFQAKABGAEkATABUAEUAUgAoAHAAXwB2AGEAbAB1AGUAcwA7AHAAXwBnAHIAbwB1AHAAcwA9AGcAXwAxACkAKQA7AG0AdwBfADIAOwBNAEkAVABUAEUATABXAEUAUgBUACgARgBJAEwAVABFAFIAKABwAF8AdgBhAGwAdQBlAHMAOwBwAF8AZwByAG8AdQBwAHMAPQBnAF8AMgApACkAOwBIAFMAVABBAFAARQBMAE4AKABXAEUATgBOACgATwBEAEUAUgAoAFUATgBEACgAYQBsAHQATwA7AG0AdwBfADEAPABtAHcAXwAyACkAOwBVAE4ARAAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQA9AFwAIgBsAFwAIgA7AG0AdwBfADEAPgBtAHcAXwAyACkAKQA7ADEALQBwAF8AdgA7AHAAXwB2ACkAOwBUAEUAWABUAFYARQBSAEsARQBUAFQARQBOACgAZQByAHMAdABlAHIAdwBlAHIAdAAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQA7AFwAIgB0AFwAIgA7AFwAIgA8AD4AXAAiADsAXAAiAGwAXAAiADsAXAAiADwAXAAiADsAXAAiAGcAXAAiADsAXAAiAD4AXAAiACkAOwA7AGEAYgBfAG4AYQBtAGUAcwApACkAKQApADsAOwBcAG4AVwBJAEwAQwBPAFgATwBOAC4AVABFAFMAVAA9AEwAQQBNAEIARABBACgAcABfAHYAYQBsAHUAZQBzADsAcABfAGcAcgBvAHUAcABzADsAWwBhAGwAdABlAHIAbgBhAHQAaQB2AGUAXQA7AFsAcABhAGkAcgBlAGQAXQA7AFsAYwBvAHIAcgBlAGMAdABdADsATABFAFQAKABhAGwAdABlAHIAbgBhAHQAaQB2AGUAOwB3AGUAbgBuACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApADsAXAAiAHQAXAAiADsAUABSAEUAUAAuAEEATABUAEUAUgBOAEEAVABJAFYARQAoAGEAbAB0AGUAcgBuAGEAdABpAHYAZQApACkAOwBjAG8AcgByAGUAYwB0ADsAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABjAG8AcgByAGUAYwB0ACkAOwBXAEEASABSADsAYwBvAHIAcgBlAGMAdAApADsAcABhAGkAcgBlAGQAOwBXAEUATgBOACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAHAAYQBpAHIAZQBkACkAOwBGAEEATABTAEMASAA7AHAAYQBpAHIAZQBkACkAOwBhAGIAXwBuAGEAbQBlAHMAOwBFAEkATgBEAEUAVQBUAEkARwAoAHAAXwBnAHIAbwB1AHAAcwApADsAYQBiAF8AbgA7AEEATgBaAEEASABMADIAKABhAGIAXwBuAGEAbQBlAHMAKQA7AG4AXwBhAGIAOwBHAFIATwBVAFAALgBDAE8AVQBOAFQAKABwAF8AZwByAG8AdQBwAHMAKQA7AHcAZQBuAG4AKABVAE4ARAAoAGEAYgBfAG4APQAyADsAbgBfAGEAYgA+ADEAOwBPAEQARQBSACgATgBJAEMASABUACgAcABhAGkAcgBlAGQAKQA7AEkAUwAuAEEATABMAC4ARQBRAFUAQQBMACgAbgBfAGEAYgApACkAKQA7AEwARQBUACgAcgBhAG4AawA7AFIAQQBOAEcALgBNAEkAVABUAEUATABXACgAcABfAHYAYQBsAHUAZQBzADsAcABfAHYAYQBsAHUAZQBzACkAOwBTAFQAQQBUAEkAUwBUAEkAQwA7AE0ASQBOACgARwBSAE8AVQBQAC4AUwBVAE0AKAByAGEAbgBrADsAcABfAGcAcgBvAHUAcABzACkALQBuAF8AYQBiACoAKABuAF8AYQBiACsAMQApAC8AMgApADsAcAByAG8AZABfAGEAYgA7AFAAUgBPAEQAVQBLAFQAKABuAF8AYQBiACkAOwBzAHUAbQBfAGEAYgA7AFMAVQBNAE0ARQAoAG4AXwBhAGIAKQA7AHoAXwB2AGEAbAB1AGUAOwBTAFQAQQBUAEkAUwBUAEkAQwAtAHAAcgBvAGQAXwBhAGIALwAyADsAYwBvAHIAcgBlAGMAdABUAGkAZQBzADsAKABBAE4AWgBBAEgATAAoAEUASQBOAEQARQBVAFQASQBHACgAcgBhAG4AawApACkAPABBAE4AWgBBAEgATAAoAHIAYQBuAGsAKQApACoATABFAFQAKABOAFQASQBFAFMAOwBTAFQAQQBUAC4AVABBAEIATABFACgAcgBhAG4AawApADsAUwBVAE0ATQBFACgATgBUAEkARQBTAF4AMwAtAE4AVABJAEUAUwApAC8AKABzAHUAbQBfAGEAYgAqACgAcwB1AG0AXwBhAGIALQAxACkAKQApADsAUwBJAEcATQBBADsAVwBVAFIAWgBFAEwAKAAoAHAAcgBvAGQAXwBhAGIAKgAoACgAcwB1AG0AXwBhAGIAKwAxACkALQBjAG8AcgByAGUAYwB0AFQAaQBlAHMAKQApAC8AMQAyACkAOwBjAG8AcgByAGUAYwB0AGkAbwBuAF8AdgBhAGwAdQBlADsAYwBvAHIAcgBlAGMAdAAqAEUAUgBTAFQARQBSAFcARQBSAFQAKABhAGwAdABlAHIAbgBhAHQAaQB2AGUAOwBcACIAdABcACIAOwBTAFQAQQBUAC4AUwBJAEcATgAoAHoAXwB2AGEAbAB1AGUAKQAqADAALgA1ADsAXAAiAGwAXAAiADsALQAwAC4ANQA7AFwAIgBnAFwAIgA7ADAALgA1ADsAKQA7AFoAVgBBAEwAOwAoAHoAXwB2AGEAbAB1AGUALQBjAG8AcgByAGUAYwB0AGkAbwBuAF8AdgBhAGwAdQBlACkALwBTAEkARwBNAEEAOwBQAFYAQQBMADsAUwBUAEEAVAAuAEMATwBSAFIARQBDAFQALgBQAFYAQQBMAFUARQAoAE4ATwBSAE0ALgBWAEUAUgBUACgAWgBWAEEATAA7ADAAOwAxADsAVwBBAEgAUgApACkAOwBWAFMAVABBAFAARQBMAE4AKABIAFMAVABBAFAARQBMAE4AKABcACIAUwB0AGEAdABpAHMAdABpAGsAXAAiADsAXAAiAFoALQBXAGUAcgB0AFwAIgA7AFwAIgBwAC0AVwBlAHIAdABcACIAOwBcACIAQQBsAHQAZQByAG4AYQB0AGkAdgBlAFwAIgApADsASABTAFQAQQBQAEUATABOACgAUwBUAEEAVABJAFMAVABJAEMAOwBaAFYAQQBMADsAUABWAEEATAA7AFQARQBYAFQAVgBFAFIASwBFAFQAVABFAE4AKABlAHIAcwB0AGUAcgB3AGUAcgB0ACgAYQBsAHQAZQByAG4AYQB0AGkAdgBlADsAXAAiAHQAXAAiADsAXAAiADwAPgBcACIAOwBcACIAbABcACIAOwBcACIAPABcACIAOwBcACIAZwBcACIAOwBcACIAPgBcACIAKQA7ADsAYQBiAF8AbgBhAG0AZQBzACkAKQApACkAOwAjAFcARQBSAFQAIQApACkAKQA7ADsAXABuAFYATABFAE4ARwBUAEgAPQBMAEEATQBCAEQAQQAoAHYAZQBjAHQAbwByADsATABFAFQAKABjAG8AbABzADsAUwBQAEEATABUAEUATgAoAHYAZQBjAHQAbwByACkAOwBsAGUAbgBnAHQAaAA7AEkAUwAuAFYARQBDAFQATwBSACgAdgBlAGMAdABvAHIAKQAqACgAYwBvAGwAcwAqACgAYwBvAGwAcwA8AD4AMQApACsAWgBFAEkATABFAE4AKAB2AGUAYwB0AG8AcgApACoAKABjAG8AbABzAD0AMQApACkAOwB3AGUAbgBuACgAbABlAG4AZwB0AGgAOwBsAGUAbgBnAHQAaAA7ACMAVwBFAFIAVAAhACkAKQApADsAOwBcAG4AVgBSAEUAUABFAEEAVAA9AEwAQQBNAEIARABBACgAdgBhAGwAdQBlADsAbgBfAHQAaQBtAGUAcwA7AFcARQBOAE4AKABVAE4ARAAoAEEATgBaAEEASABMADIAKAB2AGEAbAB1AGUAKQA9ADEAOwBBAE4AWgBBAEgATAAoAG4AXwB0AGkAbQBlAHMAKQA9ADEAOwBuAF8AdABpAG0AZQBzAD4AMAApADsAVwBFAE4ATgAoAEkAUwBUAFoAQQBIAEwAKAB2AGEAbAB1AGUAKQArAEkAUwBUAEwATwBHACgAdgBhAGwAdQBlACkAOwBTAEUAUQBVAEUATgBaACgAbgBfAHQAaQBtAGUAcwA7ADEAOwB2AGEAbAB1AGUAOwAwACkAOwBXAEUATgBOACgAUwBFAFEAVQBFAE4AWgAoAG4AXwB0AGkAbQBlAHMAKQA7AHYAYQBsAHUAZQApACkAOwAjAFcARQBSAFQAIQApACkAOwA7AFwAbgBTAFQAQQBUAC4ARABFAFMASwBSAEkAUABUAEkAVgA9AFMAVABBAFQALgBEAEUAUwBDAFIASQBCAEUAOwA7AFMAVABBAFQALgBEAEUAUwBLAFIASQBQAFQASQBWAC4ATQBFAFIASwBNAEEATABFAD0AUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAE4ATwBNAEkATgBBAEwAOwA7AFMAVABBAFQALgBEAEUAUwBLAFIASQBQAFQASQBWAC4ARgBBAEsAVABPAFIAUwBUAFUARgBFAE4APQBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFAC4ATgBPAE0ASQBOAEEATAA7ADsAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBOAE8ATQBJAE4AQQBMAD0AUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAE4ATwBNAEkATgBBAEwAOwA7AFMAVABBAFQALgBEAEUAUwBLAFIASQBQAFQASQBWAC4AQgBFAFMAQwBIAFIASQBGAFQAVQBOAEcAPQBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFAC4ATABBAEIARQBMAFMAOwA7AFMAVABBAFQALgBUAEEAQgBFAEwATABFAD0AUwBUAEEAVAAuAFQAQQBCAEwARQA7ADsAUwBUAEEAVAAuAFQAQQBCAEUATABMAEUALgBSAEUATABBAFQASQBWAD0AUwBUAEEAVAAuAFQAQQBCAEwARQAuAFIARQBMAEEAVABJAFYARQA7ADsAUwBUAEEAVAAuAEkAUQBBAD0AUwBUAEEAVAAuAEkAUQBSADsAOwBTAFQAQQBUAC4ATQBBAEEARAA9AFMAVABBAFQALgBNAEEARAA7ADsAUwBUAEEAVAAuAEcARQBCAFUATgBEAEUATgBFAC4AVgBBAFIASQBBAE4AWgA9AFMAVABBAFQALgBQAE8ATwBMAEUARAAuAFYAQQBSAEkAQQBOAEMARQA7ADsAUwBUAEEAVAAuAEcARQBQAE8ATwBMAFQARQAuAFYAQQBSAEkAQQBOAFoAPQBTAFQAQQBUAC4AUABPAE8ATABFAEQALgBWAEEAUgBJAEEATgBDAEUAOwA7AFMAVABBAFQALgBTAFQAQQBOAEQAQQBSAEQARgBFAEgATABFAFIAPQBTAFQAQQBUAC4AUwBFADsAOwBTAFQAQQBUAC4AUwBUAEQARgBFAEgATABFAFIAPQBTAFQAQQBUAC4AUwBFADsAOwBTAFQAQQBUAC4AVgBPAFIAWgBFAEkAQwBIAEUATgA9AFMAVABBAFQALgBTAEkARwBOADsAOwBLAE8AUgBSAEUATAAuAEMAUgBBAE0ARQBSAD0AQwBPAFIAUgAuAEMAUgBBAE0ARQBSADsAOwBLAE8AUgBSAEUATAAuAEMAUgBBAE0ARQBSAC4AVABFAFMAVAA9AEMATwBSAFIALgBDAFIAQQBNAEUAUgAuAFQARQBTAFQAOwA7AEsATwBSAFIARQBMAC4ASwBFAE4ARABBAEwAPQBDAE8AUgBSAC4ASwBFAE4ARABBAEwAOwA7AEsATwBSAFIARQBMAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUAD0AQwBPAFIAUgAuAEsARQBOAEQAQQBMAC4AVABFAFMAVAA7ADsASwBPAFIAUgBFAEwALgBTAFAARQBBAFIATQBBAE4APQBDAE8AUgBSAC4AUwBQAEUAQQBSAE0AQQBOADsAOwBLAE8AUgBSAEUATAAuAFAARQBBAFIAUwBPAE4APQBDAE8AUgBSAC4AUABFAEEAUgBTAE8ATgA7ADsASwBPAFIAUgBFAEwALgBQAEUAQQBSAFMATwBOAC4AVABFAFMAVAA9AEMATwBSAFIALgBQAEUAQQBSAFMATwBOAC4AVABFAFMAVAA7ADsAUgBFAEcAUgBFAFMAUwBJAE8ATgAuAFIARQBTAEkARABVAEUATgA9AFIARQBHAFIARQBTAFMASQBPAE4ALgBSAEUAUwBJAEQAVQBBAEwAUwA7ADsASwBSAFUAUwBLAEEATAAuAFcAQQBMAEwASQBTAC4AVABFAFMAVAA9AEsAUgBVAFMASwBBAEwAXwBXAEEATABMAEkAUwAuAFQARQBTAFQAOwA7AFAAQQBBAFIAVwBFAEkAUwBFAFIALgBUAC4AVABFAFMAVAA9AFAAQQBJAFIAVwBJAFMARQAuAFQALgBUAEUAUwBUADsAOwBQAEEAQQBSAFcARQBJAFMARQBSAC4AQQBCAC4AVABFAFMAVAA9AFAAQQBJAFIAVwBJAFMARQAuAFQALgBUAEUAUwBUADsAOwBBAEIALgBUAEUAUwBUAD0AVAAuAFQARQBTAFQALgBTADsAOwBTAFAAQQBMAFQARQBOAFMAVQBNAE0ARQA9AEMATwBMAFMAVQBNADsAOwBaAEUASQBMAEUATgBTAFUATQBNAEUAPQBSAE8AVwBTAFUATQA7ADsASwBVAE0AVQBMAEEAVABJAFYARQBTAFUATQBNAEUAPQBDAFUATQBTAFUATQA7ADsARwBSAFUAUABQAEUATgAuAFMAVQBNAE0ARQA9AEcAUgBPAFUAUAAuAFMAVQBNADsAOwBHAFIAVQBQAFAARQBOAC4AQQBOAFoAQQBIAEwAPQBHAFIATwBVAFAALgBDAE8AVQBOAFQAOwA7AEcAUgBVAFAAUABFAE4ALgBOAD0ARwBSAE8AVQBQAC4AQwBPAFUATgBUADsAOwBHAFIAVQBQAFAARQBOAC4ATQBJAFQAVABFAEwAVwBFAFIAVAA9AEcAUgBPAFUAUAAuAE0ARQBBAE4AOwA7AEcAUgBVAFAAUABFAE4ALgBNAEUARABJAEEATgA9AEcAUgBPAFUAUAAuAE0ARQBEAEkAQQBOADsAOwBHAFIAVQBQAFAARQBOAC4ATQBJAE4APQBHAFIATwBVAFAALgBNAEkATgA7ADsARwBSAFUAUABQAEUATgAuAE0AQQBYAD0ARwBSAE8AVQBQAC4ATQBBAFgAOwA7AEcAUgBVAFAAUABFAE4ALgBTAFQARABBAEIAVwA9AEcAUgBPAFUAUAAuAFMARAA7ADsARwBSAFUAUABQAEUATgAuAFMARAA9AEcAUgBPAFUAUAAuAFMARAA7ADsARwBSAFUAUABQAEUATgAuAFMARQA9AEcAUgBPAFUAUAAuAFMARQA7ADsARwBSAFUAUABQAEUATgAuAFMAVABBAE4ARABBAFIARABGAEUASABMAEUAUgA9AEcAUgBPAFUAUAAuAFMARQA7ADsARwBSAFUAUABQAEUATgAuAFMAVABEAEYARQBIAEwARQBSAD0ARwBSAE8AVQBQAC4AUwBFADsAOwBHAFIAVQBQAFAARQBOAC4ATQBBAEQAPQBHAFIATwBVAFAALgBNAEEARAA7ADsARwBSAFUAUABQAEUATgAuAEkAUQBBAD0ARwBSAE8AVQBQAC4ASQBRAFIAOwA7AEkAUwBUAC4AVgBFAEsAVABPAFIAPQBJAFMALgBWAEUAQwBUAE8AUgA7ADsAUwBJAE4ARAAuAEEATABMAEUALgBHAEwARQBJAEMASAA9AEkAUwAuAEEATABMAC4ARQBRAFUAQQBMADsAOwBJAFMAVAAuAEEATABMAEUALgBHAEwARQBJAEMASAA9AEkAUwAuAEEATABMAC4ARQBRAFUAQQBMADsAOwBWAEUASwBUAE8AUgAuAEwAxABOAEcARQA9AFYATABFAE4ARwBUAEgAOwA7AE0ARABJAE0ARQBOAFMASQBPAE4APQBNAEQASQBNADsAOwBNAFMAUABVAFIAPQBNAFQAUgBBAEMARQA7ADsASABXAEkARQBEAEUAUgBIAE8ATABFAE4APQBIAFIARQBQAEUAQQBUADsAOwBWAFcASQBFAEQARQBSAEgATwBMAEUATgA9AFYAUgBFAFAARQBBAFQAOwA7AE0ARABSAEUASQBFAEMASwA9AE0AVABSAEkAQQBOAEcATABFADsAOwBaAFUARgBBAEwATABTAE0AQQBUAFIASQBYAC4ATgBPAFIATQBBAEwAPQBSAEEATgBEAE8ATQAuAE4ATwBSAE0AOwA7AFMARQBRAFUARQBOAFoALgBJAE4AVABFAFIAVgBBAEwATAA9AFMARQBRAFUARQBOAEMARQAuAFIAQQBOAEcARQA7ADsAVABBAEIARQBMAEwARQBOAC4AQQBVAFMAVwBBAEgATAA9AFQAQQBCAEwARQAuAFMARQBMAEUAQwBUADsAOwBVAE4ARwDcAEwAVABJAEcARQAuAEwA1gBTAEMASABFAE4APQBSAEUATQBPAFYARQAuAEkATgBWAEEATABJAEQAOwA7AEUATgBUAEYARQBSAE4ARQAuAEYARQBIAEwARQBSAD0AUgBFAE0ATwBWAEUALgBJAE4AVgBBAEwASQBEADsAOwBTAEMASABOAEUATABMAC4ASwBPAEQASQBFAFIARQBOAD0AUQBVAEkAQwBLAC4AQwBPAEQARQA7ADsATwBOAEUALgBIAE8AVAA9AEQAVQBNAE0AWQAuAEMATwBEAEkATgBHADsAOwBPAE4ARQAuAEgATwBUAC4AQwBPAEQASQBOAEcAPQBEAFUATQBNAFkALgBDAE8ARABJAE4ARwA7ADsAXABuAFwAbgBNAEEAVABSAEkAWABfAFQATwBfAEwATwBOAEcAPQBMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAG0AYQB0AHIAaQB4ADsAWwBwAF8AaABlAGEAZABlAHIAcwBdADsAIABbAHAAXwB3AGkAdABoAG4AYQBtAGUAcwBdADsAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAXwBoAGUAYQBkAGUAcgBzADsAIABXAEUATgBOACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AaABlAGEAZABlAHIAcwApADsAIABXAEEASABSADsAIABwAF8AaABlAGEAZABlAHIAcwBcAG4AIAAgACAAIAAgACAAIAAgACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHAAXwB3AGkAdABoAG4AYQBtAGUAcwA7ACAAVwBFAE4ATgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AdwBpAHQAaABuAGEAbQBlAHMAKQA7ACAAewBcACIAbgBhAG0AZQBcACIAOwAgAFwAIgB2AGEAbAB1AGUAXAAiAH0AOwAgAHAAXwB3AGkAdABoAG4AYQBtAGUAcwApADsAXABuACAAIAAgACAAIAAgACAAIABiAF8AaABlAGEAZABlAHIAcwA7ACAAVQBOAEQAKABTAFAAQQBMAFQARQBOACgAcABfAGgAZQBhAGQAZQByAHMAKQAgAD0AIAAxADsAIABaAEUASQBMAEUATgAoAHAAXwBoAGUAYQBkAGUAcgBzACkAIAA9ACAAMQA7ACAAcABfAGgAZQBhAGQAZQByAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbgBfAGMAbwBsAHMAOwAgAFMAUABBAEwAVABFAE4AKABtAGEAdAByAGkAeAApADsAXABuACAAIAAgACAAIAAgACAAIABuAF8AcgBvAHcAcwA7ACAAWgBFAEkATABFAE4AKABtAGEAdAByAGkAeAApACAALQAgAGIAXwBoAGUAYQBkAGUAcgBzADsAXABuACAAIAAgACAAIAAgACAAIABzAGUAbABfAGgAZQBhAGQAZQByADsAIABXAEUATgBOAFMAKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVQBOAEQAKABBAE4AWgBBAEgATAAyACgAcABfAGgAZQBhAGQAZQByAHMAKQAgAD0AIABuAF8AYwBvAGwAcwA7ACAAUwBQAEEATABUAEUATgAoAHAAXwBoAGUAYQBkAGUAcgBzACkAIAA9ACAAbgBfAGMAbwBsAHMAKQA7ACAAcABfAGgAZQBhAGQAZQByAHMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBOAFoAQQBIAEwAMgAoAHAAXwBoAGUAYQBkAGUAcgBzACkAIAA9ACAAbgBfAGMAbwBsAHMAOwAgAE0AVABSAEEATgBTACgAcABfAGgAZQBhAGQAZQByAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABiAF8AaABlAGEAZABlAHIAcwA7ACAAWgBFAEkATABFAE4AVwBBAEgATAAoAG0AYQB0AHIAaQB4ADsAIAAxACkAOwAgAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABXAEEASABSADsAIABTAEUAUQBVAEUATgBaACgAMQA7ACAAbgBfAGMAbwBsAHMAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHMAZQBsAF8AaABlAGEAZABpAG4AZwA7ACAAVwBFAE4ATgBTACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFUATgBEACgAQQBOAFoAQQBIAEwAMgAoAHAAXwB3AGkAdABoAG4AYQBtAGUAcwApACAAPQAgADIAOwAgAFoARQBJAEwARQBOACgAcABfAHcAaQB0AGgAbgBhAG0AZQBzACkAIAA9ACAAMQApADsAIABwAF8AdwBpAHQAaABuAGEAbQBlAHMAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAQQBOAFoAQQBIAEwAMgAoAHAAXwB3AGkAdABoAG4AYQBtAGUAcwApACAAPQAgADIAOwAgAE0AVABSAEEATgBTACgAcABfAHcAaQB0AGgAbgBhAG0AZQBzACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAVwBBAEgAUgA7ACAARgBBAEwAUwBDAEgAXABuACAAIAAgACAAIAAgACAAIAApADsAXABuACAAIAAgACAAIAAgACAAIAB2AGEAbAB1AGUAcwA7ACAAWgBVAFMAUABBAEwAVABFACgAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFcARQBOAE4AKABiAF8AaABlAGEAZABlAHIAcwA7ACAAWgBFAEkATABFAE4AVwBBAEgATAAoAG0AYQB0AHIAaQB4ADsAIABTAEUAUQBVAEUATgBaACgAbgBfAHIAbwB3AHMAOwAxADsAMgApACkAOwAgAG0AYQB0AHIAaQB4ACkAXABuACAAIAAgACAAIAAgACAAIAApADsAXABuACAAIAAgACAAIAAgACAAIABpAGQAeABfAG4AOwAgAFIARQBTAFQAKABTAEUAUQBVAEUATgBaACgAbgBfAHIAbwB3AHMAIAAqACAAbgBfAGMAbwBsAHMAOwAgADEAOwAgADAAKQA7ACAAbgBfAGMAbwBsAHMAKQAgACsAIAAxADsAXABuACAAIAAgACAAIAAgACAAIABuAGEAbQBlAHMAOwAgAEkATgBEAEUAWAAoAHMAZQBsAF8AaABlAGEAZABlAHIAOwAgADEAOwAgAGkAZAB4AF8AbgApADsAXABuACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdAA7ACAASABTAFQAQQBQAEUATABOACgAbgBhAG0AZQBzADsAIAB2AGEAbAB1AGUAcwApADsAXABuACAAIAAgACAAIAAgACAAIABXAEUATgBOACgAUwBQAEEATABUAEUATgAoAHMAZQBsAF8AaABlAGEAZABpAG4AZwApACAAPQAgADEAOwAgAHIAZQBzAHUAbAB0ADsAIABWAFMAVABBAFAARQBMAE4AKABzAGUAbABfAGgAZQBhAGQAaQBuAGcAOwAgAHIAZQBzAHUAbAB0ACkAKQBcAG4AIAAgACAAIAApAFwAbgApADsAOwBcAG4AXABuAE0AQQBUAFIASQBYAC4AVABPAC4ATABPAE4ARwA9AE0AQQBUAFIASQBYAF8AVABPAF8ATABPAE4ARwA7ADsAXABuAFwAbgBNAEEAVABSAEkAWAAuAFoAVQAuAEwAQQBOAEcARgBPAFIATQA9AEwAQQBNAEIARABBACgAXABuACAAIAAgACAAbQBhAHQAcgBpAHgAOwAgAFsAcABfAG4AYQBtAGUAbgBdADsAIABbAHAAXwB0AHQAbABdADsAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAHAAXwB0AHQAbAA7ACAAdwBlAG4AbgAoAFcAVQBSAEQARQBBAFUAUwBHAEUATABBAFMAUwBFAE4AKABwAF8AdAB0AGwAKQA7ACAAewBcACIATgBhAG0AZQBcACIAOwAgAFwAIgBXAGUAcgB0AFwAIgB9ADsAIABwAF8AdAB0AGwAKQA7AFwAbgAgACAAIAAgACAAIAAgACAATQBBAFQAUgBJAFgAXwBUAE8AXwBMAE8ATgBHACgAbQBhAHQAcgBpAHgAOwAgAHAAXwBuAGEAbQBlAG4AOwAgAHAAXwB0AHQAbAApAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4ARwBSAE8AVQBQAC4ATQBFAEQASQBBAE4APQBMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAHYAYQBsAHUAZQBzADsAIABnAHIAbwB1AHAAcwA7AFwAbgAgACAAIAAgAFMAUABBAEwAVABFAE4AVwBBAEgATAAoAFwAbgAgACAAIAAgACAAIAAgACAARwBSAFUAUABQAEkARQBSAEUATgBOAEEAQwBIACgAZwByAG8AdQBwAHMAOwAgAHYAYQBsAHUAZQBzADsAIABNAEUARABJAEEATgA7ADsAMAApADsAXABuACAAIAAgACAAIAAgACAAIAAyAFwAbgAgACAAIAAgACkAXABuACkAOwA7AFwAbgBcAG4AQQBOAE8AVgBBAC4AVABFAFMAVAAgAD0AIABMAEEATQBCAEQAQQAoAFwAbgAgACAAIAAgAHYAYQBsAHUAZQBzADsAIABnAHIAbwB1AHAAcwA7ACAAWwBoAGUAYQBkAGUAcgBzAF0AOwBcAG4AIAAgACAAIABMAEUAVAAoAFwAbgAgACAAIAAgACAAIAAgACAAbgBfAGoAOwAgAEcAUgBPAFUAUAAuAEMATwBVAE4AVAAoAGcAcgBvAHUAcABzACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAGcAcgBvAHUAcABfAGsAOwAgAEEATgBaAEEASABMACgAbgBfAGoAKQA7AFwAbgAgACAAIAAgACAAIAAgACAATgBfAGEAbABsADsAIABBAE4AWgBBAEgATAAoAHYAYQBsAHUAZQBzACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAGQAZgBfADEAOwAgAGcAcgBvAHUAcABfAGsAIAAtACAAMQA7AFwAbgAgACAAIAAgACAAIAAgACAAZABmAF8AMgA7ACAATgBfAGEAbABsACAALQAgAGcAcgBvAHUAcABfAGsAOwBcAG4AIAAgACAAIAAgACAAIAAgAG0AdQBfAGEAbABsADsAIABNAEkAVABUAEUATABXAEUAUgBUACgAdgBhAGwAdQBlAHMAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbQB1AF8AagA7ACAARwBSAE8AVQBQAC4ATQBFAEEATgAoAHYAYQBsAHUAZQBzADsAIABnAHIAbwB1AHAAcwApADsAXABuACAAIAAgACAAIAAgACAAIABtAF8AZwByAG8AdQBwAHMAOwAgADEAKgAoAGcAcgBvAHUAcABzACAAPQAgAE0AVABSAEEATgBTACgARQBJAE4ARABFAFUAVABJAEcAKABnAHIAbwB1AHAAcwApACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAdABfAFMAUwBCADsAIABTAFUATQBNAEUAKABuAF8AagAgACoAIAAoAG0AdQBfAGoAIAAtACAAbQB1AF8AYQBsAGwAKQBeADIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAdABfAFMAUwBFADsAIABTAFUATQBNAEUAKAAoAG0AXwBnAHIAbwB1AHAAcwAgACoAIAB2AGEAbAB1AGUAcwAgAC0AIABtAF8AZwByAG8AdQBwAHMAIAAqACAATQBUAFIAQQBOAFMAKABtAHUAXwBqACkAKQBeADIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAARgBfAHYAYQBsAHUAZQA7ACAAKAB0AF8AUwBTAEIAIAAvACAAZABmAF8AMQApACAALwAgACgAdABfAFMAUwBFACAALwAgAGQAZgBfADIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAcABfAHYAYQBsAHUAZQA7ACAARgAuAFYARQBSAFQAKABGAF8AdgBhAGwAdQBlADsAIABkAGYAXwAxADsAIABkAGYAXwAyADsAIABXAEEASABSACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMAOwAgAEgAUwBUAEEAUABFAEwATgAoAEYAXwB2AGEAbAB1AGUAOwAgAGQAZgBfADEAOwAgAGQAZgBfADIAOwAgAHAAXwB2AGEAbAB1AGUAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAdwBlAG4AbgAoAG8AZABlAHIAKABXAFUAUgBEAEUAQQBVAFMARwBFAEwAQQBTAFMARQBOACgAaABlAGEAZABlAHIAcwApADsAIABuAGkAYwBoAHQAKABoAGUAYQBkAGUAcgBzACkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAByAGUAcwB1AGwAdABzADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgAFYAUwBUAEEAUABFAEwATgAoAFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAEgAUwBUAEEAUABFAEwATgAoAFwAIgBGAFwAIgA7ACAAXAAiAGQAZgBfADEAXAAiADsAIABcACIAZABmAF8AMgBcACIAOwAgAFwAIgBwAFwAIgApADsAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAKQBcAG4AIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAKQBcAG4AKQA7ADsAXABuAFwAbgBMAEUAVgBFAE4ARQAuAFQARQBTAFQAIAA9ACAATABBAE0AQgBEAEEAKABcAG4AIAAgACAAIAB4AF8AaQA7ACAAeQBfAGkAOwAgAFsAaABlAGEAZABlAHIAcwBdADsAXABuACAAIAAgACAATABFAFQAKABcAG4AIAAgACAAIAAgACAAIAAgAG0AXwBnAHIAcAA7ACAARwBSAE8AVQBQAC4ATQBFAEQASQBBAE4AKAB4AF8AaQA7ACAAeQBfAGkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbQBuAF8AZwByAHAAOwAgAEcAUgBPAFUAUAAuAE0ARQBBAE4AKAB4AF8AaQA7ACAAeQBfAGkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAbgBfAGcAcgBwADsAIABHAFIATwBVAFAALgBDAE8AVQBOAFQAKAB5AF8AaQApADsAXABuACAAIAAgACAAIAAgACAAIABsAF8AZwByAHAAOwAgAEUASQBOAEQARQBVAFQASQBHACgAeQBfAGkAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAcgBlAHMAaQBfAGcAcgBwADsAIAAoAHgAXwBpACAALQAgAHgAdgBlAHIAdwBlAGkAcwAoAHkAXwBpADsAIABsAF8AZwByAHAAOwAgAG0AXwBnAHIAcAApACkAXgAyADsAXABuACAAIAAgACAAIAAgACAAIABtAF8AYQBsAGwAOwAgAE0ASQBUAFQARQBMAFcARQBSAFQAKAB4AF8AaQApADsAXABuACAAIAAgACAAIAAgACAAIABuAF8AYQBsAGwAOwAgAFMAVQBNAE0ARQAoAG4AXwBnAHIAcAApADsAXABuACAAIAAgACAAIAAgACAAIABuAF8AawA7ACAAQQBOAFoAQQBIAEwAMgAoAGwAXwBnAHIAcAApADsAXABuACAAIAAgACAAIAAgACAAIABXAF8AdgBhAGwAOwAgACgAKABuAF8AYQBsAGwAIAAtACAAbgBfAGsAKQAgAC8AIAAoAG4AXwBrACAALQAgADEAKQApACAAKgAgACgAUwBVAE0ATQBFACgAbgBfAGcAcgBwACAAKgAgACgAbQBuAF8AZwByAHAAIAAtACAAbQBfAGEAbABsACkAXgAyACkALwAgAFMAVQBNAE0ARQAoAHIAZQBzAGkAXwBnAHIAcAApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHAAXwB2AGEAbAA7ACAARgAuAFYARQBSAFQAKABXAF8AdgBhAGwAOwAgAG4AXwBrACAALQAgADEAOwAgAG4AXwBhAGwAbAAgAC0AIABuAF8AawA7AFcAQQBIAFIAKQAvADIAOwBcAG4AIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMAOwAgAEgAUwBUAEEAUABFAEwATgAoAFcAXwB2AGEAbAA7AG4AXwBrACAALQAgADEAOwAgAG4AXwBhAGwAbAAgAC0AIABuAF8AawA7ACAAcABfAHYAYQBsACkAOwBcAG4AIAAgACAAIAAgACAAIAAgAHcAZQBuAG4AKABvAGQAZQByACgAVwBVAFIARABFAEEAVQBTAEcARQBMAEEAUwBTAEUATgAoAGgAZQBhAGQAZQByAHMAKQA7ACAAbgBpAGMAaAB0ACgAaABlAGEAZABlAHIAcwApACkAOwBcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAcgBlAHMAdQBsAHQAcwA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIABWAFMAVABBAFAARQBMAE4AKABcAG4AIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIABIAFMAVABBAFAARQBMAE4AKABcACIAVwBcACIAOwAgAFwAIgBkAGYAXwAxAFwAIgA7ACAAXAAiAGQAZgBfADIAXAAiADsAIABcACIAcABcACIAKQA7AFwAbgAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgACAAIAAgAHIAZQBzAHUAbAB0AHMAXABuACAAIAAgACAAIAAgACAAIAAgACAAIAAgACkAXABuACAAIAAgACAAIAAgACAAIAApAFwAbgAgACAAIAAgACkAXABuACkAOwA7ACIAfQBdACwAIgBwAHIAbwBqAGUAYwB0AE4AYQBtAGUAcwAiADoAWwAiAEMATwBMAFMAVQBNACIALAAiAEMATwBSAFIALgBDAFIAQQBNAEUAUgAiACwAIgBDAE8AUgBSAC4AQwBSAEEATQBFAFIALgBUAEUAUwBUACIALAAiAEMATwBSAFIALgBLAEUATgBEAEEATAAiACwAIgBDAE8AUgBSAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUACIALAAiAEMATwBSAFIALgBQAEUAQQBSAFMATwBOACIALAAiAEMATwBSAFIALgBQAEUAQQBSAFMATwBOAC4AVABFAFMAVAAiACwAIgBDAE8AUgBSAC4AUwBQAEUAQQBSAE0AQQBOACIALAAiAEMAVQBNAFMAVQBNACIALAAiAEQAVQBNAE0AWQAuAEMATwBEAEkATgBHACIALAAiAEcAUgBPAFUAUAAuAEMATwBVAE4AVAAiACwAIgBHAFIATwBVAFAALgBJAFEAUgAiACwAIgBHAFIATwBVAFAALgBNAEEARAAiACwAIgBHAFIATwBVAFAALgBNAEEAWAAiACwAIgBHAFIATwBVAFAALgBNAEUAQQBOACIALAAiAEcAUgBPAFUAUAAuAE0ASQBOACIALAAiAEcAUgBPAFUAUAAuAFMARAAiACwAIgBHAFIATwBVAFAALgBTAFUATQAiACwAIgBIAFIARQBQAEUAQQBUACIALAAiAEkAUwAuAEEATABMAC4ARQBRAFUAQQBMACIALAAiAEkAUwAuAFYARQBDAFQATwBSACIALAAiAE0AQQBSAEsALgBJAE4AVgBBAEwASQBEACIALAAiAE0ARABJAE0AIgAsACIATQBUAFIAQQBDAEUAIgAsACIATQBUAFIASQBBAE4ARwBMAEUAIgAsACIAUABRAC4AUgBFAE4AQQBNAEUALgBIAEUATABQAEUAUgAiACwAIgBQAFIARQBQAC4AQQBMAFQARQBSAE4AQQBUAEkAVgBFACIALAAiAFEAVQBJAEMASwAuAEMATwBEAEUAIgAsACIAUgBBAE4ARABPAE0ALgBOAE8AUgBNACIALAAiAFIARQBHAFIARQBTAFMASQBPAE4ALgBSAEUAUwBJAEQAVQBBAEwAUwAiACwAIgBSAEUARwBSAEUAUwBTAEkATwBOACIALAAiAFIARQBNAE8AVgBFAC4ASQBOAFYAQQBMAEkARAAiACwAIgBSAE8AVwBTAFUATQAiACwAIgBTAEMASABFAE0AQQAuAEMASABPAE8AUwBFACIALAAiAFMARQBRAFUARQBOAEMARQAuAFIAQQBOAEcARQAiACwAIgBTAFQAQQBUAC4AQwBPAFIAUgBFAEMAVAAuAFAAVgBBAEwAVQBFACIALAAiAFMAVABBAFQALgBEAEUAUwBDAFIASQBCAEUALgBMAEEAQgBFAEwAUwAiACwAIgBTAFQAQQBUAC4ARABFAFMAQwBSAEkAQgBFACIALAAiAFMAVABBAFQALgBJAFEAUgAiACwAIgBTAFQAQQBUAC4ATQBBAEQAIgAsACIAUwBUAEEAVAAuAFAATwBPAEwARQBEAC4AVgBBAFIASQBBAE4AQwBFACIALAAiAFAALgBBAEQASgAuAEIATwBOAEYARQBSAFIATwBOAEkAIgAsACIAUAAuAEEARABKAC4ASABPAEwATQAiACwAIgBQAC4AQQBEAEoALgBTAEkARABBAEsAIgAsACIAUAAuAEEARABKAC4ASABPAEwATQBfAFMASQBEAEEASwAiACwAIgBQAC4AQQBEAEoALgBIAE8AQwBIAEIARQBSAEcAIgAsACIAUwBUAEEAVAAuAFMARQAiACwAIgBTAFQAQQBUAC4AUwBUAEQALgBFAFIAUgBPAFIAIgAsACIAUwBUAEEAVAAuAFMASQBHAE4AIgAsACIAUwBUAEEAVAAuAEQARQBTAEMAUgBJAEIARQAuAE4ATwBNAEkATgBBAEwAIgAsACIAUwBUAEEAVAAuAFQAQQBCAEwARQAuAFIARQBMAEEAVABJAFYARQAiACwAIgBTAFQAQQBUAC4AVABBAEIATABFACIALAAiAFQAQQBCAEwARQAuAFMARQBMAEUAQwBUACIALAAiAEMASABJAFEAVQAuAFQARQBTAFQALgBTACIALAAiAEMASABJAFEAVQAuAFQARQBTAFQAMgAiACwAIgBDAEgASQBRAFUALgBUAEUAUwBUADIALgBIAEUAQQBEAEUAUgAiACwAIgBDAEgASQBRAFUALgBUAEUAUwBUAC4AWAAiACwAIgBEAFUATgBOAC4AVABFAFMAVAAiACwAIgBGAC4AVABFAFMAVAAuAFMAIgAsACIASwBSAFUAUwBLAEEATABfAFcAQQBMAEwASQBTAC4AVABFAFMAVAAiACwAIgBQAEEASQBSAFcASQBTAEUALgBGAC4AVABFAFMAVAAiACwAIgBQAEEASQBSAFcASQBTAEUALgBUAC4AVABFAFMAVAAiACwAIgBUAC4AVABFAFMAVAAuAFMAIgAsACIAVwBJAEwAQwBPAFgATwBOAC4AVABFAFMAVAAiACwAIgBWAEwARQBOAEcAVABIACIALAAiAFYAUgBFAFAARQBBAFQAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBNAEUAUgBLAE0AQQBMAEUAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBGAEEASwBUAE8AUgBTAFQAVQBGAEUATgAiACwAIgBTAFQAQQBUAC4ARABFAFMASwBSAEkAUABUAEkAVgAuAE4ATwBNAEkATgBBAEwAIgAsACIAUwBUAEEAVAAuAEQARQBTAEsAUgBJAFAAVABJAFYALgBCAEUAUwBDAEgAUgBJAEYAVABVAE4ARwAiACwAIgBTAFQAQQBUAC4AVABBAEIARQBMAEwARQAiACwAIgBTAFQAQQBUAC4AVABBAEIARQBMAEwARQAuAFIARQBMAEEAVABJAFYAIgAsACIAUwBUAEEAVAAuAEkAUQBBACIALAAiAFMAVABBAFQALgBNAEEAQQBEACIALAAiAFMAVABBAFQALgBHAEUAQgBVAE4ARABFAE4ARQAuAFYAQQBSAEkAQQBOAFoAIgAsACIAUwBUAEEAVAAuAEcARQBQAE8ATwBMAFQARQAuAFYAQQBSAEkAQQBOAFoAIgAsACIAUwBUAEEAVAAuAFMAVABBAE4ARABBAFIARABGAEUASABMAEUAUgAiACwAIgBTAFQAQQBUAC4AUwBUAEQARgBFAEgATABFAFIAIgAsACIAUwBUAEEAVAAuAFYATwBSAFoARQBJAEMASABFAE4AIgAsACIASwBPAFIAUgBFAEwALgBDAFIAQQBNAEUAUgAiACwAIgBLAE8AUgBSAEUATAAuAEMAUgBBAE0ARQBSAC4AVABFAFMAVAAiACwAIgBLAE8AUgBSAEUATAAuAEsARQBOAEQAQQBMACIALAAiAEsATwBSAFIARQBMAC4ASwBFAE4ARABBAEwALgBUAEUAUwBUACIALAAiAEsATwBSAFIARQBMAC4AUwBQAEUAQQBSAE0AQQBOACIALAAiAEsATwBSAFIARQBMAC4AUABFAEEAUgBTAE8ATgAiACwAIgBLAE8AUgBSAEUATAAuAFAARQBBAFIAUwBPAE4ALgBUAEUAUwBUACIALAAiAFIARQBHAFIARQBTAFMASQBPAE4ALgBSAEUAUwBJAEQAVQBFAE4AIgAsACIASwBSAFUAUwBLAEEATAAuAFcAQQBMAEwASQBTAC4AVABFAFMAVAAiACwAIgBQAEEAQQBSAFcARQBJAFMARQBSAC4AVAAuAFQARQBTAFQAIgAsACIAUABBAEEAUgBXAEUASQBTAEUAUgAuAEEAQgAuAFQARQBTAFQAIgAsACIAQQBCAC4AVABFAFMAVAAiACwAIgBTAFAAQQBMAFQARQBOAFMAVQBNAE0ARQAiACwAIgBaAEUASQBMAEUATgBTAFUATQBNAEUAIgAsACIASwBVAE0AVQBMAEEAVABJAFYARQBTAFUATQBNAEUAIgAsACIARwBSAFUAUABQAEUATgAuAFMAVQBNAE0ARQAiACwAIgBHAFIAVQBQAFAARQBOAC4AQQBOAFoAQQBIAEwAIgAsACIARwBSAFUAUABQAEUATgAuAE4AIgAsACIARwBSAFUAUABQAEUATgAuAE0ASQBUAFQARQBMAFcARQBSAFQAIgAsACIARwBSAFUAUABQAEUATgAuAE0ARQBEAEkAQQBOACIALAAiAEcAUgBVAFAAUABFAE4ALgBNAEkATgAiACwAIgBHAFIAVQBQAFAARQBOAC4ATQBBAFgAIgAsACIARwBSAFUAUABQAEUATgAuAFMAVABEAEEAQgBXACIALAAiAEcAUgBVAFAAUABFAE4ALgBTAEQAIgAsACIARwBSAFUAUABQAEUATgAuAFMARQAiACwAIgBHAFIAVQBQAFAARQBOAC4AUwBUAEEATgBEAEEAUgBEAEYARQBIAEwARQBSACIALAAiAEcAUgBVAFAAUABFAE4ALgBTAFQARABGAEUASABMAEUAUgAiACwAIgBHAFIAVQBQAFAARQBOAC4ATQBBAEQAIgAsACIARwBSAFUAUABQAEUATgAuAEkAUQBBACIALAAiAEkAUwBUAC4AVgBFAEsAVABPAFIAIgAsACIAUwBJAE4ARAAuAEEATABMAEUALgBHAEwARQBJAEMASAAiACwAIgBJAFMAVAAuAEEATABMAEUALgBHAEwARQBJAEMASAAiACwAIgBWAEUASwBUAE8AUgAuAEwAxABOAEcARQAiACwAIgBNAEQASQBNAEUATgBTAEkATwBOACIALAAiAE0AUwBQAFUAUgAiACwAIgBIAFcASQBFAEQARQBSAEgATwBMAEUATgAiACwAIgBWAFcASQBFAEQARQBSAEgATwBMAEUATgAiACwAIgBNAEQAUgBFAEkARQBDAEsAIgAsACIAWgBVAEYAQQBMAEwAUwBNAEEAVABSAEkAWAAuAE4ATwBSAE0AQQBMACIALAAiAFMARQBRAFUARQBOAFoALgBJAE4AVABFAFIAVgBBAEwATAAiACwAIgBUAEEAQgBFAEwATABFAE4ALgBBAFUAUwBXAEEASABMACIALAAiAFUATgBHANwATABUAEkARwBFAC4ATADWAFMAQwBIAEUATgAiACwAIgBFAE4AVABGAEUAUgBOAEUALgBGAEUASABMAEUAUgAiACwAIgBTAEMASABOAEUATABMAC4ASwBPAEQASQBFAFIARQBOACIALAAiAE8ATgBFAC4ASABPAFQAIgAsACIATwBOAEUALgBIAE8AVAAuAEMATwBEAEkATgBHACIALAAiAE0AQQBUAFIASQBYAF8AVABPAF8ATABPAE4ARwAiACwAIgBNAEEAVABSAEkAWAAuAFQATwAuAEwATwBOAEcAIgAsACIATQBBAFQAUgBJAFgALgBaAFUALgBMAEEATgBHAEYATwBSAE0AIgAsACIARwBSAE8AVQBQAC4ATQBFAEQASQBBAE4AIgAsACIAQQBOAE8AVgBBAC4AVABFAFMAVAAiACwAIgBMAEUAVgBFAE4ARQAuAFQARQBTAFQAIgBdACwAIgBsAG8AYwBhAGwAZQAiADoAewAiAGwAaQBzAHQAUwBlAHAAYQByAGEAdABvAHIAIgA6ACIAOwAiACwAIgByAG8AdwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ACIALAAiAGMAbwBsAHUAbQBuAFMAZQBwAGEAcgBhAHQAbwByACIAOgAiAFwAXAAiACwAIgB0AGgAbwB1AHMAYQBuAGQAcwBTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAZICIALAAiAHQAaABvAHUAcwBhAG4AZABzAFAAbwBzAGkAdABpAG8AbgBzACIAOgBbADMAXQAsACIAZABlAGMAaQBtAGEAbABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgAuACIALAAiAGQAYQB0AGUATwByAGQAZQByACIAOgAiAEQATQBZACIALAAiAGMAdQByAHIAZQBuAGMAeQBTAHkAbQBiAG8AbAAiADoAIgBDAEgARgAiACwAIgBpAHMAQwB1AHIAcgBlAG4AYwB5AFMAeQBtAGIAbwBsAEwAZQBhAGQAIgA6AHQAcgB1AGUALAAiAGkAcwBDAHUAcgByAGUAbgBjAHkAUwBlAHAAQgB5AFMAcABhAGMAZQAiADoAdAByAHUAZQAsACIAcgBvAHcATABlAHQAdABlAHIAIgA6ACIAWgAiACwAIgBjAG8AbAB1AG0AbgBMAGUAdAB0AGUAcgAiADoAIgBTACIALAAiAHIAYwBMAGUAZgB0AEIAcgBhAGMAawBlAHQAIgA6ACIAKAAiACwAIgByAGMAUgBpAGcAaAB0AEIAcgBhAGMAawBlAHQAIgA6ACIAKQAiACwAIgBzAHQAYQB0AGUAbQBlAG4AdABTAGUAcABhAHIAYQB0AG8AcgAiADoAIgA7ADsAIgAsACIAbABvAGMAYQBsAGUATgBhAG0AZQAiADoAIgBkAGUALQBkAGUAIgB9AH0A</AFEJSONBlob>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
